--- a/definice/1 Plazma tabulky.xlsx
+++ b/definice/1 Plazma tabulky.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\dev\Tritium\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projekty\tritium\definice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D45C60-859B-4EA9-A02C-F9A09AA505B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7298DA3E-566F-40EE-9C43-22370F76A3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31090" yWindow="12240" windowWidth="28800" windowHeight="15460" xr2:uid="{6F042B71-7817-4D45-938A-4B8F3E1BBE08}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{6F042B71-7817-4D45-938A-4B8F3E1BBE08}"/>
   </bookViews>
   <sheets>
     <sheet name="všechny patogeny" sheetId="12" r:id="rId1"/>
@@ -27,12 +27,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3424" uniqueCount="1244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3424" uniqueCount="1246">
   <si>
     <t>játra a žlučník</t>
   </si>
@@ -3764,6 +3775,12 @@
   </si>
   <si>
     <t>jakékoliv svědění kůže</t>
+  </si>
+  <si>
+    <t>Samostatne</t>
+  </si>
+  <si>
+    <t>Onkovir</t>
   </si>
 </sst>
 </file>
@@ -4604,7 +4621,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normální 2" xfId="1" xr:uid="{BD769B5C-5369-4B04-80BB-71306B1D6291}"/>
     <cellStyle name="Normální 3" xfId="2" xr:uid="{A1B28C8E-5FFC-4613-9D0F-2AEAF2F190E2}"/>
     <cellStyle name="Normální 4" xfId="3" xr:uid="{4BBF5A81-0E0E-47BE-AFF5-45C385491A1E}"/>
@@ -4894,45 +4911,46 @@
   <dimension ref="A1:AU304"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="A95" sqref="A95"/>
+      <selection pane="bottomLeft" activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.90625" style="85" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.54296875" style="83" customWidth="1"/>
-    <col min="3" max="3" width="8.1796875" style="86" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.7265625" style="83" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.26953125" style="83" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.26953125" style="83" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.54296875" style="85" customWidth="1"/>
-    <col min="8" max="8" width="19.90625" style="85" customWidth="1"/>
-    <col min="9" max="9" width="18.54296875" style="85" customWidth="1"/>
-    <col min="10" max="10" width="15.81640625" style="85" customWidth="1"/>
-    <col min="11" max="11" width="4.26953125" style="85" hidden="1" customWidth="1"/>
-    <col min="12" max="13" width="4.7265625" style="83" hidden="1" customWidth="1"/>
-    <col min="14" max="18" width="5.7265625" style="83" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="4" style="83" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="3.08984375" style="83" hidden="1" customWidth="1"/>
-    <col min="21" max="22" width="4.36328125" style="83" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="2.453125" style="83" hidden="1" customWidth="1"/>
-    <col min="24" max="26" width="2.90625" style="83" hidden="1" customWidth="1"/>
-    <col min="27" max="30" width="3.1796875" style="83" hidden="1" customWidth="1"/>
-    <col min="31" max="33" width="4.36328125" style="83" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="3.26953125" style="83" hidden="1" customWidth="1"/>
-    <col min="35" max="36" width="4.1796875" style="83" hidden="1" customWidth="1"/>
-    <col min="37" max="37" width="4" style="83" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="3.08984375" style="83" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="2.6328125" style="83" hidden="1" customWidth="1"/>
-    <col min="40" max="43" width="2.81640625" style="83" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="3.08984375" style="83" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" style="85" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" style="83" customWidth="1"/>
+    <col min="3" max="3" width="8.21875" style="86" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" style="83" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" style="83" customWidth="1"/>
+    <col min="6" max="6" width="4.21875" style="83" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" style="85" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" style="85" customWidth="1"/>
+    <col min="9" max="9" width="18.5546875" style="85" customWidth="1"/>
+    <col min="10" max="10" width="15.77734375" style="85" customWidth="1"/>
+    <col min="11" max="11" width="4.21875" style="85" customWidth="1"/>
+    <col min="12" max="13" width="4.77734375" style="83" customWidth="1"/>
+    <col min="14" max="18" width="5.77734375" style="83" customWidth="1"/>
+    <col min="19" max="19" width="4" style="83" customWidth="1"/>
+    <col min="20" max="20" width="3.109375" style="83" customWidth="1"/>
+    <col min="21" max="22" width="4.33203125" style="83" customWidth="1"/>
+    <col min="23" max="23" width="2.44140625" style="83" customWidth="1"/>
+    <col min="24" max="26" width="2.88671875" style="83" customWidth="1"/>
+    <col min="27" max="30" width="3.21875" style="83" customWidth="1"/>
+    <col min="31" max="33" width="4.33203125" style="83" customWidth="1"/>
+    <col min="34" max="34" width="3.21875" style="83" customWidth="1"/>
+    <col min="35" max="36" width="4.21875" style="83" customWidth="1"/>
+    <col min="37" max="37" width="4" style="83" customWidth="1"/>
+    <col min="38" max="38" width="3.109375" style="83" customWidth="1"/>
+    <col min="39" max="39" width="2.6640625" style="83" customWidth="1"/>
+    <col min="40" max="42" width="2.77734375" style="83" customWidth="1"/>
+    <col min="43" max="43" width="5.5546875" style="83" customWidth="1"/>
+    <col min="44" max="44" width="3.109375" style="83" customWidth="1"/>
     <col min="45" max="45" width="3" style="83" customWidth="1"/>
-    <col min="46" max="16384" width="9.26953125" style="83"/>
+    <col min="46" max="16384" width="9.21875" style="83"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="95" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:44" s="95" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="93" t="s">
         <v>1095</v>
       </c>
@@ -4943,10 +4961,10 @@
         <v>8</v>
       </c>
       <c r="D1" s="93" t="s">
-        <v>1037</v>
+        <v>1244</v>
       </c>
       <c r="E1" s="93" t="s">
-        <v>1084</v>
+        <v>1245</v>
       </c>
       <c r="F1" s="93" t="s">
         <v>1086</v>
@@ -5066,7 +5084,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="2" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="76" t="s">
         <v>9</v>
       </c>
@@ -5117,7 +5135,7 @@
       <c r="AQ2" s="77"/>
       <c r="AR2" s="77"/>
     </row>
-    <row r="3" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="76" t="s">
         <v>114</v>
       </c>
@@ -5183,7 +5201,7 @@
       <c r="AQ3" s="77"/>
       <c r="AR3" s="77"/>
     </row>
-    <row r="4" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="76" t="s">
         <v>59</v>
       </c>
@@ -5250,7 +5268,7 @@
       <c r="AQ4" s="77"/>
       <c r="AR4" s="77"/>
     </row>
-    <row r="5" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="76" t="s">
         <v>115</v>
       </c>
@@ -5302,7 +5320,7 @@
       <c r="AQ5" s="77"/>
       <c r="AR5" s="77"/>
     </row>
-    <row r="6" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="76" t="s">
         <v>116</v>
       </c>
@@ -5354,7 +5372,7 @@
       <c r="AQ6" s="77"/>
       <c r="AR6" s="77"/>
     </row>
-    <row r="7" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="76" t="s">
         <v>117</v>
       </c>
@@ -5406,7 +5424,7 @@
       <c r="AQ7" s="77"/>
       <c r="AR7" s="77"/>
     </row>
-    <row r="8" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="76" t="s">
         <v>118</v>
       </c>
@@ -5458,7 +5476,7 @@
       <c r="AQ8" s="77"/>
       <c r="AR8" s="77"/>
     </row>
-    <row r="9" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="76" t="s">
         <v>119</v>
       </c>
@@ -5515,7 +5533,7 @@
       <c r="AQ9" s="77"/>
       <c r="AR9" s="77"/>
     </row>
-    <row r="10" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="76" t="s">
         <v>120</v>
       </c>
@@ -5567,7 +5585,7 @@
       <c r="AQ10" s="77"/>
       <c r="AR10" s="77"/>
     </row>
-    <row r="11" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="76" t="s">
         <v>10</v>
       </c>
@@ -5623,7 +5641,7 @@
       <c r="AQ11" s="77"/>
       <c r="AR11" s="77"/>
     </row>
-    <row r="12" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="76" t="s">
         <v>11</v>
       </c>
@@ -5682,7 +5700,7 @@
       <c r="AQ12" s="77"/>
       <c r="AR12" s="77"/>
     </row>
-    <row r="13" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="76" t="s">
         <v>12</v>
       </c>
@@ -5731,7 +5749,7 @@
       <c r="AQ13" s="77"/>
       <c r="AR13" s="77"/>
     </row>
-    <row r="14" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="76" t="s">
         <v>426</v>
       </c>
@@ -5783,7 +5801,7 @@
       <c r="AQ14" s="77"/>
       <c r="AR14" s="77"/>
     </row>
-    <row r="15" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="76" t="s">
         <v>121</v>
       </c>
@@ -5831,7 +5849,7 @@
       <c r="AQ15" s="77"/>
       <c r="AR15" s="77"/>
     </row>
-    <row r="16" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="76" t="s">
         <v>13</v>
       </c>
@@ -5893,7 +5911,7 @@
       <c r="AQ16" s="77"/>
       <c r="AR16" s="77"/>
     </row>
-    <row r="17" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="76" t="s">
         <v>218</v>
       </c>
@@ -5951,7 +5969,7 @@
       <c r="AQ17" s="77"/>
       <c r="AR17" s="77"/>
     </row>
-    <row r="18" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="76" t="s">
         <v>14</v>
       </c>
@@ -6013,7 +6031,7 @@
       <c r="AQ18" s="77"/>
       <c r="AR18" s="77"/>
     </row>
-    <row r="19" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="76" t="s">
         <v>15</v>
       </c>
@@ -6077,7 +6095,7 @@
       <c r="AQ19" s="77"/>
       <c r="AR19" s="77"/>
     </row>
-    <row r="20" spans="1:44" s="79" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:44" s="79" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="76" t="s">
         <v>122</v>
       </c>
@@ -6130,7 +6148,7 @@
       <c r="AQ20" s="77"/>
       <c r="AR20" s="77"/>
     </row>
-    <row r="21" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="76" t="s">
         <v>123</v>
       </c>
@@ -6191,7 +6209,7 @@
       <c r="AQ21" s="77"/>
       <c r="AR21" s="77"/>
     </row>
-    <row r="22" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="76" t="s">
         <v>124</v>
       </c>
@@ -6255,7 +6273,7 @@
       <c r="AQ22" s="77"/>
       <c r="AR22" s="77"/>
     </row>
-    <row r="23" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="76" t="s">
         <v>125</v>
       </c>
@@ -6310,7 +6328,7 @@
       <c r="AQ23" s="77"/>
       <c r="AR23" s="77"/>
     </row>
-    <row r="24" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="76" t="s">
         <v>16</v>
       </c>
@@ -6366,7 +6384,7 @@
       <c r="AQ24" s="77"/>
       <c r="AR24" s="77"/>
     </row>
-    <row r="25" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="76" t="s">
         <v>127</v>
       </c>
@@ -6414,7 +6432,7 @@
       <c r="AQ25" s="77"/>
       <c r="AR25" s="77"/>
     </row>
-    <row r="26" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="76" t="s">
         <v>128</v>
       </c>
@@ -6471,7 +6489,7 @@
       <c r="AQ26" s="77"/>
       <c r="AR26" s="77"/>
     </row>
-    <row r="27" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="76" t="s">
         <v>129</v>
       </c>
@@ -6523,7 +6541,7 @@
       <c r="AQ27" s="77"/>
       <c r="AR27" s="77"/>
     </row>
-    <row r="28" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="76" t="s">
         <v>130</v>
       </c>
@@ -6575,7 +6593,7 @@
       <c r="AQ28" s="77"/>
       <c r="AR28" s="77"/>
     </row>
-    <row r="29" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="76" t="s">
         <v>131</v>
       </c>
@@ -6627,7 +6645,7 @@
       <c r="AQ29" s="77"/>
       <c r="AR29" s="77"/>
     </row>
-    <row r="30" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="76" t="s">
         <v>60</v>
       </c>
@@ -6678,7 +6696,7 @@
       <c r="AQ30" s="77"/>
       <c r="AR30" s="77"/>
     </row>
-    <row r="31" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="76" t="s">
         <v>17</v>
       </c>
@@ -6736,7 +6754,7 @@
       <c r="AQ31" s="77"/>
       <c r="AR31" s="77"/>
     </row>
-    <row r="32" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="76" t="s">
         <v>132</v>
       </c>
@@ -6793,7 +6811,7 @@
       <c r="AQ32" s="77"/>
       <c r="AR32" s="77"/>
     </row>
-    <row r="33" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="76" t="s">
         <v>61</v>
       </c>
@@ -6842,7 +6860,7 @@
       <c r="AQ33" s="77"/>
       <c r="AR33" s="77"/>
     </row>
-    <row r="34" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="76" t="s">
         <v>133</v>
       </c>
@@ -6900,7 +6918,7 @@
       <c r="AQ34" s="77"/>
       <c r="AR34" s="77"/>
     </row>
-    <row r="35" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="76" t="s">
         <v>427</v>
       </c>
@@ -6945,7 +6963,7 @@
       <c r="AQ35" s="77"/>
       <c r="AR35" s="77"/>
     </row>
-    <row r="36" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="76" t="s">
         <v>428</v>
       </c>
@@ -6990,7 +7008,7 @@
       <c r="AQ36" s="77"/>
       <c r="AR36" s="77"/>
     </row>
-    <row r="37" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="76" t="s">
         <v>429</v>
       </c>
@@ -7035,7 +7053,7 @@
       <c r="AQ37" s="77"/>
       <c r="AR37" s="77"/>
     </row>
-    <row r="38" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="76" t="s">
         <v>134</v>
       </c>
@@ -7093,7 +7111,7 @@
       <c r="AQ38" s="77"/>
       <c r="AR38" s="77"/>
     </row>
-    <row r="39" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="76" t="s">
         <v>430</v>
       </c>
@@ -7138,7 +7156,7 @@
       <c r="AQ39" s="77"/>
       <c r="AR39" s="77"/>
     </row>
-    <row r="40" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="76" t="s">
         <v>431</v>
       </c>
@@ -7183,7 +7201,7 @@
       <c r="AQ40" s="77"/>
       <c r="AR40" s="77"/>
     </row>
-    <row r="41" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="76" t="s">
         <v>432</v>
       </c>
@@ -7228,7 +7246,7 @@
       <c r="AQ41" s="77"/>
       <c r="AR41" s="77"/>
     </row>
-    <row r="42" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="76" t="s">
         <v>433</v>
       </c>
@@ -7273,7 +7291,7 @@
       <c r="AQ42" s="77"/>
       <c r="AR42" s="77"/>
     </row>
-    <row r="43" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="76" t="s">
         <v>135</v>
       </c>
@@ -7331,7 +7349,7 @@
       <c r="AQ43" s="77"/>
       <c r="AR43" s="77"/>
     </row>
-    <row r="44" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="76" t="s">
         <v>434</v>
       </c>
@@ -7376,7 +7394,7 @@
       <c r="AQ44" s="77"/>
       <c r="AR44" s="77"/>
     </row>
-    <row r="45" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="76" t="s">
         <v>435</v>
       </c>
@@ -7421,7 +7439,7 @@
       <c r="AQ45" s="77"/>
       <c r="AR45" s="77"/>
     </row>
-    <row r="46" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="76" t="s">
         <v>136</v>
       </c>
@@ -7472,7 +7490,7 @@
       <c r="AQ46" s="77"/>
       <c r="AR46" s="77"/>
     </row>
-    <row r="47" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="76" t="s">
         <v>436</v>
       </c>
@@ -7517,7 +7535,7 @@
       <c r="AQ47" s="77"/>
       <c r="AR47" s="77"/>
     </row>
-    <row r="48" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="76" t="s">
         <v>437</v>
       </c>
@@ -7562,7 +7580,7 @@
       <c r="AQ48" s="77"/>
       <c r="AR48" s="77"/>
     </row>
-    <row r="49" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="76" t="s">
         <v>438</v>
       </c>
@@ -7607,7 +7625,7 @@
       <c r="AQ49" s="77"/>
       <c r="AR49" s="77"/>
     </row>
-    <row r="50" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="76" t="s">
         <v>439</v>
       </c>
@@ -7652,7 +7670,7 @@
       <c r="AQ50" s="77"/>
       <c r="AR50" s="77"/>
     </row>
-    <row r="51" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="76" t="s">
         <v>440</v>
       </c>
@@ -7697,7 +7715,7 @@
       <c r="AQ51" s="77"/>
       <c r="AR51" s="77"/>
     </row>
-    <row r="52" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="76" t="s">
         <v>137</v>
       </c>
@@ -7742,7 +7760,7 @@
       <c r="AQ52" s="77"/>
       <c r="AR52" s="77"/>
     </row>
-    <row r="53" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="76" t="s">
         <v>138</v>
       </c>
@@ -7794,7 +7812,7 @@
       <c r="AQ53" s="77"/>
       <c r="AR53" s="77"/>
     </row>
-    <row r="54" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="76" t="s">
         <v>18</v>
       </c>
@@ -7843,7 +7861,7 @@
       <c r="AQ54" s="77"/>
       <c r="AR54" s="77"/>
     </row>
-    <row r="55" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="76" t="s">
         <v>139</v>
       </c>
@@ -7899,7 +7917,7 @@
       <c r="AQ55" s="77"/>
       <c r="AR55" s="77"/>
     </row>
-    <row r="56" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="76" t="s">
         <v>140</v>
       </c>
@@ -7959,7 +7977,7 @@
       <c r="AQ56" s="77"/>
       <c r="AR56" s="77"/>
     </row>
-    <row r="57" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="76" t="s">
         <v>141</v>
       </c>
@@ -8019,7 +8037,7 @@
       <c r="AQ57" s="77"/>
       <c r="AR57" s="77"/>
     </row>
-    <row r="58" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="76" t="s">
         <v>142</v>
       </c>
@@ -8076,7 +8094,7 @@
       <c r="AQ58" s="77"/>
       <c r="AR58" s="77"/>
     </row>
-    <row r="59" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="76" t="s">
         <v>143</v>
       </c>
@@ -8136,7 +8154,7 @@
       <c r="AQ59" s="77"/>
       <c r="AR59" s="77"/>
     </row>
-    <row r="60" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="76" t="s">
         <v>144</v>
       </c>
@@ -8196,7 +8214,7 @@
       <c r="AQ60" s="77"/>
       <c r="AR60" s="77"/>
     </row>
-    <row r="61" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="76" t="s">
         <v>219</v>
       </c>
@@ -8257,7 +8275,7 @@
       <c r="AQ61" s="77"/>
       <c r="AR61" s="77"/>
     </row>
-    <row r="62" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="76" t="s">
         <v>451</v>
       </c>
@@ -8304,7 +8322,7 @@
       <c r="AQ62" s="77"/>
       <c r="AR62" s="77"/>
     </row>
-    <row r="63" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="76" t="s">
         <v>220</v>
       </c>
@@ -8358,7 +8376,7 @@
       <c r="AQ63" s="77"/>
       <c r="AR63" s="77"/>
     </row>
-    <row r="64" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="76" t="s">
         <v>221</v>
       </c>
@@ -8412,7 +8430,7 @@
       <c r="AQ64" s="77"/>
       <c r="AR64" s="77"/>
     </row>
-    <row r="65" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="76" t="s">
         <v>222</v>
       </c>
@@ -8466,7 +8484,7 @@
       <c r="AQ65" s="77"/>
       <c r="AR65" s="77"/>
     </row>
-    <row r="66" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="76" t="s">
         <v>223</v>
       </c>
@@ -8520,7 +8538,7 @@
       <c r="AQ66" s="77"/>
       <c r="AR66" s="77"/>
     </row>
-    <row r="67" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="76" t="s">
         <v>224</v>
       </c>
@@ -8574,7 +8592,7 @@
       <c r="AQ67" s="77"/>
       <c r="AR67" s="77"/>
     </row>
-    <row r="68" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="76" t="s">
         <v>225</v>
       </c>
@@ -8628,7 +8646,7 @@
       <c r="AQ68" s="77"/>
       <c r="AR68" s="77"/>
     </row>
-    <row r="69" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="76" t="s">
         <v>226</v>
       </c>
@@ -8682,7 +8700,7 @@
       <c r="AQ69" s="77"/>
       <c r="AR69" s="77"/>
     </row>
-    <row r="70" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="76" t="s">
         <v>227</v>
       </c>
@@ -8752,7 +8770,7 @@
       <c r="AQ70" s="77"/>
       <c r="AR70" s="77"/>
     </row>
-    <row r="71" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="76" t="s">
         <v>145</v>
       </c>
@@ -8804,7 +8822,7 @@
       <c r="AQ71" s="77"/>
       <c r="AR71" s="77"/>
     </row>
-    <row r="72" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="76" t="s">
         <v>146</v>
       </c>
@@ -8858,7 +8876,7 @@
       <c r="AQ72" s="77"/>
       <c r="AR72" s="77"/>
     </row>
-    <row r="73" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="76" t="s">
         <v>147</v>
       </c>
@@ -8910,7 +8928,7 @@
       <c r="AQ73" s="77"/>
       <c r="AR73" s="77"/>
     </row>
-    <row r="74" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="76" t="s">
         <v>148</v>
       </c>
@@ -8966,7 +8984,7 @@
       <c r="AQ74" s="77"/>
       <c r="AR74" s="77"/>
     </row>
-    <row r="75" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="76" t="s">
         <v>149</v>
       </c>
@@ -9018,7 +9036,7 @@
       <c r="AQ75" s="77"/>
       <c r="AR75" s="77"/>
     </row>
-    <row r="76" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="76" t="s">
         <v>228</v>
       </c>
@@ -9067,7 +9085,7 @@
       <c r="AQ76" s="77"/>
       <c r="AR76" s="77"/>
     </row>
-    <row r="77" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="76" t="s">
         <v>20</v>
       </c>
@@ -9131,7 +9149,7 @@
       <c r="AQ77" s="77"/>
       <c r="AR77" s="77"/>
     </row>
-    <row r="78" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="76" t="s">
         <v>152</v>
       </c>
@@ -9188,7 +9206,7 @@
       <c r="AQ78" s="77"/>
       <c r="AR78" s="77"/>
     </row>
-    <row r="79" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="76" t="s">
         <v>153</v>
       </c>
@@ -9245,7 +9263,7 @@
       <c r="AQ79" s="77"/>
       <c r="AR79" s="77"/>
     </row>
-    <row r="80" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="76" t="s">
         <v>154</v>
       </c>
@@ -9299,7 +9317,7 @@
       <c r="AQ80" s="77"/>
       <c r="AR80" s="77"/>
     </row>
-    <row r="81" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="76" t="s">
         <v>62</v>
       </c>
@@ -9368,7 +9386,7 @@
       <c r="AQ81" s="77"/>
       <c r="AR81" s="77"/>
     </row>
-    <row r="82" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="76" t="s">
         <v>155</v>
       </c>
@@ -9428,7 +9446,7 @@
       <c r="AQ82" s="77"/>
       <c r="AR82" s="77"/>
     </row>
-    <row r="83" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="76" t="s">
         <v>63</v>
       </c>
@@ -9479,7 +9497,7 @@
       <c r="AQ83" s="77"/>
       <c r="AR83" s="77"/>
     </row>
-    <row r="84" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="76" t="s">
         <v>64</v>
       </c>
@@ -9533,7 +9551,7 @@
       <c r="AQ84" s="77"/>
       <c r="AR84" s="77"/>
     </row>
-    <row r="85" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="76" t="s">
         <v>65</v>
       </c>
@@ -9587,7 +9605,7 @@
       <c r="AQ85" s="77"/>
       <c r="AR85" s="77"/>
     </row>
-    <row r="86" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="76" t="s">
         <v>66</v>
       </c>
@@ -9641,7 +9659,7 @@
       <c r="AQ86" s="77"/>
       <c r="AR86" s="77"/>
     </row>
-    <row r="87" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="76" t="s">
         <v>67</v>
       </c>
@@ -9695,7 +9713,7 @@
       <c r="AQ87" s="77"/>
       <c r="AR87" s="77"/>
     </row>
-    <row r="88" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="76" t="s">
         <v>68</v>
       </c>
@@ -9749,7 +9767,7 @@
       <c r="AQ88" s="77"/>
       <c r="AR88" s="77"/>
     </row>
-    <row r="89" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="76" t="s">
         <v>69</v>
       </c>
@@ -9803,7 +9821,7 @@
       <c r="AQ89" s="77"/>
       <c r="AR89" s="77"/>
     </row>
-    <row r="90" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="76" t="s">
         <v>70</v>
       </c>
@@ -9857,7 +9875,7 @@
       <c r="AQ90" s="77"/>
       <c r="AR90" s="77"/>
     </row>
-    <row r="91" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="76" t="s">
         <v>156</v>
       </c>
@@ -9909,7 +9927,7 @@
       <c r="AQ91" s="77"/>
       <c r="AR91" s="77"/>
     </row>
-    <row r="92" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="76" t="s">
         <v>71</v>
       </c>
@@ -9970,7 +9988,7 @@
       <c r="AQ92" s="77"/>
       <c r="AR92" s="77"/>
     </row>
-    <row r="93" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="76" t="s">
         <v>72</v>
       </c>
@@ -10031,7 +10049,7 @@
       <c r="AQ93" s="77"/>
       <c r="AR93" s="77"/>
     </row>
-    <row r="94" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="76" t="s">
         <v>229</v>
       </c>
@@ -10096,7 +10114,7 @@
       <c r="AQ94" s="77"/>
       <c r="AR94" s="77"/>
     </row>
-    <row r="95" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="76" t="s">
         <v>416</v>
       </c>
@@ -10151,7 +10169,7 @@
       <c r="AQ95" s="77"/>
       <c r="AR95" s="77"/>
     </row>
-    <row r="96" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="76" t="s">
         <v>157</v>
       </c>
@@ -10205,7 +10223,7 @@
       <c r="AQ96" s="77"/>
       <c r="AR96" s="77"/>
     </row>
-    <row r="97" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="76" t="s">
         <v>73</v>
       </c>
@@ -10269,7 +10287,7 @@
       <c r="AQ97" s="77"/>
       <c r="AR97" s="77"/>
     </row>
-    <row r="98" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="76" t="s">
         <v>21</v>
       </c>
@@ -10327,7 +10345,7 @@
       <c r="AQ98" s="77"/>
       <c r="AR98" s="77"/>
     </row>
-    <row r="99" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="76" t="s">
         <v>22</v>
       </c>
@@ -10383,7 +10401,7 @@
       <c r="AQ99" s="77"/>
       <c r="AR99" s="77"/>
     </row>
-    <row r="100" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="76" t="s">
         <v>23</v>
       </c>
@@ -10435,7 +10453,7 @@
       <c r="AQ100" s="77"/>
       <c r="AR100" s="77"/>
     </row>
-    <row r="101" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="76" t="s">
         <v>24</v>
       </c>
@@ -10498,7 +10516,7 @@
       <c r="AQ101" s="77"/>
       <c r="AR101" s="77"/>
     </row>
-    <row r="102" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="76" t="s">
         <v>25</v>
       </c>
@@ -10558,7 +10576,7 @@
       <c r="AQ102" s="77"/>
       <c r="AR102" s="77"/>
     </row>
-    <row r="103" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="76" t="s">
         <v>158</v>
       </c>
@@ -10606,7 +10624,7 @@
       <c r="AQ103" s="77"/>
       <c r="AR103" s="77"/>
     </row>
-    <row r="104" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="76" t="s">
         <v>26</v>
       </c>
@@ -10664,7 +10682,7 @@
       <c r="AQ104" s="77"/>
       <c r="AR104" s="77"/>
     </row>
-    <row r="105" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="76" t="s">
         <v>27</v>
       </c>
@@ -10722,7 +10740,7 @@
       <c r="AQ105" s="77"/>
       <c r="AR105" s="77"/>
     </row>
-    <row r="106" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="76" t="s">
         <v>74</v>
       </c>
@@ -10783,7 +10801,7 @@
       <c r="AQ106" s="77"/>
       <c r="AR106" s="77"/>
     </row>
-    <row r="107" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="76" t="s">
         <v>159</v>
       </c>
@@ -10845,7 +10863,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="108" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="76" t="s">
         <v>417</v>
       </c>
@@ -10890,7 +10908,7 @@
       <c r="AQ108" s="77"/>
       <c r="AR108" s="77"/>
     </row>
-    <row r="109" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="76" t="s">
         <v>418</v>
       </c>
@@ -10935,7 +10953,7 @@
       <c r="AQ109" s="77"/>
       <c r="AR109" s="77"/>
     </row>
-    <row r="110" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="76" t="s">
         <v>419</v>
       </c>
@@ -10980,7 +10998,7 @@
       <c r="AQ110" s="77"/>
       <c r="AR110" s="77"/>
     </row>
-    <row r="111" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="76" t="s">
         <v>420</v>
       </c>
@@ -11025,7 +11043,7 @@
       <c r="AQ111" s="77"/>
       <c r="AR111" s="77"/>
     </row>
-    <row r="112" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="76" t="s">
         <v>421</v>
       </c>
@@ -11070,7 +11088,7 @@
       <c r="AQ112" s="77"/>
       <c r="AR112" s="77"/>
     </row>
-    <row r="113" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="76" t="s">
         <v>422</v>
       </c>
@@ -11115,7 +11133,7 @@
       <c r="AQ113" s="77"/>
       <c r="AR113" s="77"/>
     </row>
-    <row r="114" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="76" t="s">
         <v>28</v>
       </c>
@@ -11171,7 +11189,7 @@
       <c r="AQ114" s="77"/>
       <c r="AR114" s="77"/>
     </row>
-    <row r="115" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" s="76" t="s">
         <v>29</v>
       </c>
@@ -11238,7 +11256,7 @@
       <c r="AQ115" s="77"/>
       <c r="AR115" s="77"/>
     </row>
-    <row r="116" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="76" t="s">
         <v>441</v>
       </c>
@@ -11286,7 +11304,7 @@
       <c r="AQ116" s="77"/>
       <c r="AR116" s="77"/>
     </row>
-    <row r="117" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="76" t="s">
         <v>30</v>
       </c>
@@ -11345,7 +11363,7 @@
       <c r="AQ117" s="77"/>
       <c r="AR117" s="77"/>
     </row>
-    <row r="118" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="76" t="s">
         <v>160</v>
       </c>
@@ -11401,7 +11419,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="119" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="76" t="s">
         <v>161</v>
       </c>
@@ -11459,7 +11477,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="120" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" s="76" t="s">
         <v>75</v>
       </c>
@@ -11534,7 +11552,7 @@
       <c r="AQ120" s="77"/>
       <c r="AR120" s="77"/>
     </row>
-    <row r="121" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="76" t="s">
         <v>230</v>
       </c>
@@ -11588,7 +11606,7 @@
       <c r="AQ121" s="77"/>
       <c r="AR121" s="77"/>
     </row>
-    <row r="122" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" s="76" t="s">
         <v>76</v>
       </c>
@@ -11655,7 +11673,7 @@
       <c r="AQ122" s="77"/>
       <c r="AR122" s="77"/>
     </row>
-    <row r="123" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A123" s="76" t="s">
         <v>162</v>
       </c>
@@ -11716,7 +11734,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="124" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="76" t="s">
         <v>163</v>
       </c>
@@ -11783,7 +11801,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="125" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="76" t="s">
         <v>164</v>
       </c>
@@ -11835,7 +11853,7 @@
       <c r="AQ125" s="77"/>
       <c r="AR125" s="77"/>
     </row>
-    <row r="126" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="76" t="s">
         <v>31</v>
       </c>
@@ -11893,7 +11911,7 @@
       <c r="AQ126" s="77"/>
       <c r="AR126" s="77"/>
     </row>
-    <row r="127" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="76" t="s">
         <v>32</v>
       </c>
@@ -11952,7 +11970,7 @@
       <c r="AQ127" s="77"/>
       <c r="AR127" s="77"/>
     </row>
-    <row r="128" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="76" t="s">
         <v>33</v>
       </c>
@@ -12001,7 +12019,7 @@
       <c r="AQ128" s="77"/>
       <c r="AR128" s="77"/>
     </row>
-    <row r="129" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="76" t="s">
         <v>34</v>
       </c>
@@ -12062,7 +12080,7 @@
       <c r="AQ129" s="77"/>
       <c r="AR129" s="77"/>
     </row>
-    <row r="130" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A130" s="76" t="s">
         <v>77</v>
       </c>
@@ -12105,7 +12123,7 @@
       <c r="AQ130" s="77"/>
       <c r="AR130" s="77"/>
     </row>
-    <row r="131" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="76" t="s">
         <v>78</v>
       </c>
@@ -12157,7 +12175,7 @@
       <c r="AQ131" s="77"/>
       <c r="AR131" s="77"/>
     </row>
-    <row r="132" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="76" t="s">
         <v>165</v>
       </c>
@@ -12209,7 +12227,7 @@
       <c r="AQ132" s="77"/>
       <c r="AR132" s="77"/>
     </row>
-    <row r="133" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="76" t="s">
         <v>442</v>
       </c>
@@ -12261,7 +12279,7 @@
       <c r="AQ133" s="77"/>
       <c r="AR133" s="77"/>
     </row>
-    <row r="134" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="76" t="s">
         <v>166</v>
       </c>
@@ -12313,7 +12331,7 @@
       <c r="AQ134" s="77"/>
       <c r="AR134" s="77"/>
     </row>
-    <row r="135" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A135" s="76" t="s">
         <v>167</v>
       </c>
@@ -12365,7 +12383,7 @@
       <c r="AQ135" s="77"/>
       <c r="AR135" s="77"/>
     </row>
-    <row r="136" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="76" t="s">
         <v>168</v>
       </c>
@@ -12424,7 +12442,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="137" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="76" t="s">
         <v>169</v>
       </c>
@@ -12483,7 +12501,7 @@
       <c r="AQ137" s="77"/>
       <c r="AR137" s="77"/>
     </row>
-    <row r="138" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="76" t="s">
         <v>170</v>
       </c>
@@ -12540,7 +12558,7 @@
       <c r="AQ138" s="77"/>
       <c r="AR138" s="77"/>
     </row>
-    <row r="139" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="76" t="s">
         <v>79</v>
       </c>
@@ -12597,7 +12615,7 @@
       <c r="AQ139" s="77"/>
       <c r="AR139" s="77"/>
     </row>
-    <row r="140" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A140" s="76" t="s">
         <v>80</v>
       </c>
@@ -12663,7 +12681,7 @@
       <c r="AQ140" s="77"/>
       <c r="AR140" s="77"/>
     </row>
-    <row r="141" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="76" t="s">
         <v>81</v>
       </c>
@@ -12720,7 +12738,7 @@
       <c r="AQ141" s="77"/>
       <c r="AR141" s="77"/>
     </row>
-    <row r="142" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="76" t="s">
         <v>82</v>
       </c>
@@ -12772,7 +12790,7 @@
       <c r="AQ142" s="77"/>
       <c r="AR142" s="77"/>
     </row>
-    <row r="143" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A143" s="76" t="s">
         <v>83</v>
       </c>
@@ -12835,7 +12853,7 @@
       <c r="AQ143" s="77"/>
       <c r="AR143" s="77"/>
     </row>
-    <row r="144" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A144" s="76" t="s">
         <v>84</v>
       </c>
@@ -12910,7 +12928,7 @@
       <c r="AQ144" s="77"/>
       <c r="AR144" s="77"/>
     </row>
-    <row r="145" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A145" s="76" t="s">
         <v>85</v>
       </c>
@@ -12970,7 +12988,7 @@
       <c r="AQ145" s="77"/>
       <c r="AR145" s="77"/>
     </row>
-    <row r="146" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="76" t="s">
         <v>35</v>
       </c>
@@ -13026,7 +13044,7 @@
       <c r="AQ146" s="77"/>
       <c r="AR146" s="77"/>
     </row>
-    <row r="147" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="76" t="s">
         <v>231</v>
       </c>
@@ -13082,7 +13100,7 @@
       <c r="AQ147" s="77"/>
       <c r="AR147" s="77"/>
     </row>
-    <row r="148" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A148" s="76" t="s">
         <v>1085</v>
       </c>
@@ -13139,7 +13157,7 @@
       <c r="AQ148" s="77"/>
       <c r="AR148" s="77"/>
     </row>
-    <row r="149" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A149" s="76" t="s">
         <v>928</v>
       </c>
@@ -13196,7 +13214,7 @@
       <c r="AQ149" s="77"/>
       <c r="AR149" s="77"/>
     </row>
-    <row r="150" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="76" t="s">
         <v>86</v>
       </c>
@@ -13244,7 +13262,7 @@
       <c r="AQ150" s="77"/>
       <c r="AR150" s="77"/>
     </row>
-    <row r="151" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A151" s="76" t="s">
         <v>87</v>
       </c>
@@ -13292,7 +13310,7 @@
       <c r="AQ151" s="77"/>
       <c r="AR151" s="77"/>
     </row>
-    <row r="152" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="76" t="s">
         <v>19</v>
       </c>
@@ -13351,7 +13369,7 @@
       <c r="AQ152" s="77"/>
       <c r="AR152" s="77"/>
     </row>
-    <row r="153" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="76" t="s">
         <v>150</v>
       </c>
@@ -13414,7 +13432,7 @@
       <c r="AQ153" s="77"/>
       <c r="AR153" s="77"/>
     </row>
-    <row r="154" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A154" s="76" t="s">
         <v>151</v>
       </c>
@@ -13487,7 +13505,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="155" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="76" t="s">
         <v>88</v>
       </c>
@@ -13548,7 +13566,7 @@
       <c r="AQ155" s="77"/>
       <c r="AR155" s="77"/>
     </row>
-    <row r="156" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="76" t="s">
         <v>89</v>
       </c>
@@ -13609,7 +13627,7 @@
       <c r="AQ156" s="77"/>
       <c r="AR156" s="77"/>
     </row>
-    <row r="157" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="76" t="s">
         <v>90</v>
       </c>
@@ -13665,7 +13683,7 @@
       <c r="AQ157" s="77"/>
       <c r="AR157" s="77"/>
     </row>
-    <row r="158" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A158" s="76" t="s">
         <v>718</v>
       </c>
@@ -13721,7 +13739,7 @@
       <c r="AQ158" s="77"/>
       <c r="AR158" s="77"/>
     </row>
-    <row r="159" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="76" t="s">
         <v>171</v>
       </c>
@@ -13779,7 +13797,7 @@
       <c r="AQ159" s="77"/>
       <c r="AR159" s="77"/>
     </row>
-    <row r="160" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="76" t="s">
         <v>172</v>
       </c>
@@ -13842,7 +13860,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="161" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="76" t="s">
         <v>173</v>
       </c>
@@ -13899,7 +13917,7 @@
       <c r="AQ161" s="77"/>
       <c r="AR161" s="77"/>
     </row>
-    <row r="162" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A162" s="76" t="s">
         <v>174</v>
       </c>
@@ -13956,7 +13974,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="163" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="76" t="s">
         <v>36</v>
       </c>
@@ -14015,7 +14033,7 @@
       <c r="AQ163" s="77"/>
       <c r="AR163" s="77"/>
     </row>
-    <row r="164" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" s="76" t="s">
         <v>175</v>
       </c>
@@ -14067,7 +14085,7 @@
       <c r="AQ164" s="77"/>
       <c r="AR164" s="77"/>
     </row>
-    <row r="165" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A165" s="76" t="s">
         <v>37</v>
       </c>
@@ -14126,7 +14144,7 @@
       <c r="AQ165" s="77"/>
       <c r="AR165" s="77"/>
     </row>
-    <row r="166" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="76" t="s">
         <v>38</v>
       </c>
@@ -14185,7 +14203,7 @@
       <c r="AQ166" s="77"/>
       <c r="AR166" s="77"/>
     </row>
-    <row r="167" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A167" s="76" t="s">
         <v>39</v>
       </c>
@@ -14244,7 +14262,7 @@
       <c r="AQ167" s="77"/>
       <c r="AR167" s="77"/>
     </row>
-    <row r="168" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="76" t="s">
         <v>176</v>
       </c>
@@ -14301,7 +14319,7 @@
       <c r="AQ168" s="77"/>
       <c r="AR168" s="77"/>
     </row>
-    <row r="169" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="76" t="s">
         <v>177</v>
       </c>
@@ -14363,7 +14381,7 @@
       <c r="AQ169" s="77"/>
       <c r="AR169" s="77"/>
     </row>
-    <row r="170" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="76" t="s">
         <v>40</v>
       </c>
@@ -14421,7 +14439,7 @@
       <c r="AQ170" s="77"/>
       <c r="AR170" s="77"/>
     </row>
-    <row r="171" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A171" s="76" t="s">
         <v>91</v>
       </c>
@@ -14468,7 +14486,7 @@
       <c r="AQ171" s="77"/>
       <c r="AR171" s="77"/>
     </row>
-    <row r="172" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="76" t="s">
         <v>92</v>
       </c>
@@ -14515,7 +14533,7 @@
       <c r="AQ172" s="77"/>
       <c r="AR172" s="77"/>
     </row>
-    <row r="173" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="76" t="s">
         <v>41</v>
       </c>
@@ -14565,7 +14583,7 @@
       <c r="AQ173" s="77"/>
       <c r="AR173" s="77"/>
     </row>
-    <row r="174" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" s="76" t="s">
         <v>178</v>
       </c>
@@ -14617,7 +14635,7 @@
       <c r="AQ174" s="77"/>
       <c r="AR174" s="77"/>
     </row>
-    <row r="175" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="76" t="s">
         <v>179</v>
       </c>
@@ -14669,7 +14687,7 @@
       <c r="AQ175" s="77"/>
       <c r="AR175" s="77"/>
     </row>
-    <row r="176" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A176" s="76" t="s">
         <v>180</v>
       </c>
@@ -14721,7 +14739,7 @@
       <c r="AQ176" s="77"/>
       <c r="AR176" s="77"/>
     </row>
-    <row r="177" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A177" s="76" t="s">
         <v>443</v>
       </c>
@@ -14773,7 +14791,7 @@
       <c r="AQ177" s="77"/>
       <c r="AR177" s="77"/>
     </row>
-    <row r="178" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A178" s="76" t="s">
         <v>232</v>
       </c>
@@ -14830,7 +14848,7 @@
       <c r="AQ178" s="77"/>
       <c r="AR178" s="77"/>
     </row>
-    <row r="179" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A179" s="76" t="s">
         <v>233</v>
       </c>
@@ -14877,7 +14895,7 @@
       <c r="AQ179" s="77"/>
       <c r="AR179" s="77"/>
     </row>
-    <row r="180" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A180" s="76" t="s">
         <v>93</v>
       </c>
@@ -14924,7 +14942,7 @@
       <c r="AQ180" s="77"/>
       <c r="AR180" s="77"/>
     </row>
-    <row r="181" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A181" s="76" t="s">
         <v>181</v>
       </c>
@@ -14982,7 +15000,7 @@
       <c r="AQ181" s="77"/>
       <c r="AR181" s="77"/>
     </row>
-    <row r="182" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A182" s="76" t="s">
         <v>234</v>
       </c>
@@ -15029,7 +15047,7 @@
       <c r="AQ182" s="77"/>
       <c r="AR182" s="77"/>
     </row>
-    <row r="183" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A183" s="76" t="s">
         <v>235</v>
       </c>
@@ -15082,7 +15100,7 @@
       <c r="AQ183" s="77"/>
       <c r="AR183" s="77"/>
     </row>
-    <row r="184" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184" s="76" t="s">
         <v>236</v>
       </c>
@@ -15139,7 +15157,7 @@
       <c r="AQ184" s="77"/>
       <c r="AR184" s="77"/>
     </row>
-    <row r="185" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A185" s="76" t="s">
         <v>94</v>
       </c>
@@ -15186,7 +15204,7 @@
       <c r="AQ185" s="77"/>
       <c r="AR185" s="77"/>
     </row>
-    <row r="186" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A186" s="76" t="s">
         <v>182</v>
       </c>
@@ -15245,7 +15263,7 @@
       <c r="AQ186" s="77"/>
       <c r="AR186" s="77"/>
     </row>
-    <row r="187" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A187" s="76" t="s">
         <v>183</v>
       </c>
@@ -15308,7 +15326,7 @@
       <c r="AQ187" s="77"/>
       <c r="AR187" s="77"/>
     </row>
-    <row r="188" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A188" s="76" t="s">
         <v>184</v>
       </c>
@@ -15371,7 +15389,7 @@
       <c r="AQ188" s="77"/>
       <c r="AR188" s="77"/>
     </row>
-    <row r="189" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A189" s="76" t="s">
         <v>185</v>
       </c>
@@ -15434,7 +15452,7 @@
       <c r="AQ189" s="77"/>
       <c r="AR189" s="77"/>
     </row>
-    <row r="190" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="76" t="s">
         <v>42</v>
       </c>
@@ -15483,7 +15501,7 @@
       <c r="AQ190" s="77"/>
       <c r="AR190" s="77"/>
     </row>
-    <row r="191" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A191" s="76" t="s">
         <v>186</v>
       </c>
@@ -15546,7 +15564,7 @@
       <c r="AQ191" s="77"/>
       <c r="AR191" s="77"/>
     </row>
-    <row r="192" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="76" t="s">
         <v>187</v>
       </c>
@@ -15602,7 +15620,7 @@
       <c r="AQ192" s="77"/>
       <c r="AR192" s="77"/>
     </row>
-    <row r="193" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A193" s="76" t="s">
         <v>188</v>
       </c>
@@ -15662,7 +15680,7 @@
       <c r="AQ193" s="77"/>
       <c r="AR193" s="77"/>
     </row>
-    <row r="194" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A194" s="76" t="s">
         <v>95</v>
       </c>
@@ -15705,7 +15723,7 @@
       <c r="AQ194" s="77"/>
       <c r="AR194" s="77"/>
     </row>
-    <row r="195" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A195" s="76" t="s">
         <v>96</v>
       </c>
@@ -15752,7 +15770,7 @@
       </c>
       <c r="AR195" s="77"/>
     </row>
-    <row r="196" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A196" s="76" t="s">
         <v>97</v>
       </c>
@@ -15795,7 +15813,7 @@
       <c r="AQ196" s="77"/>
       <c r="AR196" s="77"/>
     </row>
-    <row r="197" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A197" s="76" t="s">
         <v>98</v>
       </c>
@@ -15838,7 +15856,7 @@
       <c r="AQ197" s="77"/>
       <c r="AR197" s="77"/>
     </row>
-    <row r="198" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A198" s="76" t="s">
         <v>43</v>
       </c>
@@ -15898,7 +15916,7 @@
       <c r="AQ198" s="77"/>
       <c r="AR198" s="77"/>
     </row>
-    <row r="199" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A199" s="76" t="s">
         <v>44</v>
       </c>
@@ -15956,7 +15974,7 @@
       <c r="AQ199" s="77"/>
       <c r="AR199" s="77"/>
     </row>
-    <row r="200" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A200" s="76" t="s">
         <v>99</v>
       </c>
@@ -16028,7 +16046,7 @@
       <c r="AQ200" s="77"/>
       <c r="AR200" s="77"/>
     </row>
-    <row r="201" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="76" t="s">
         <v>423</v>
       </c>
@@ -16086,7 +16104,7 @@
       <c r="AQ201" s="77"/>
       <c r="AR201" s="77"/>
     </row>
-    <row r="202" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="76" t="s">
         <v>100</v>
       </c>
@@ -16138,7 +16156,7 @@
       <c r="AQ202" s="77"/>
       <c r="AR202" s="77"/>
     </row>
-    <row r="203" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A203" s="76" t="s">
         <v>189</v>
       </c>
@@ -16190,7 +16208,7 @@
       <c r="AQ203" s="77"/>
       <c r="AR203" s="77"/>
     </row>
-    <row r="204" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A204" s="76" t="s">
         <v>45</v>
       </c>
@@ -16245,7 +16263,7 @@
       <c r="AQ204" s="77"/>
       <c r="AR204" s="77"/>
     </row>
-    <row r="205" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A205" s="76" t="s">
         <v>444</v>
       </c>
@@ -16298,7 +16316,7 @@
       <c r="AQ205" s="77"/>
       <c r="AR205" s="77"/>
     </row>
-    <row r="206" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A206" s="76" t="s">
         <v>237</v>
       </c>
@@ -16345,7 +16363,7 @@
       <c r="AQ206" s="77"/>
       <c r="AR206" s="77"/>
     </row>
-    <row r="207" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A207" s="76" t="s">
         <v>238</v>
       </c>
@@ -16401,7 +16419,7 @@
       <c r="AQ207" s="77"/>
       <c r="AR207" s="77"/>
     </row>
-    <row r="208" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="76" t="s">
         <v>239</v>
       </c>
@@ -16455,7 +16473,7 @@
       <c r="AQ208" s="77"/>
       <c r="AR208" s="77"/>
     </row>
-    <row r="209" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A209" s="76" t="s">
         <v>240</v>
       </c>
@@ -16502,7 +16520,7 @@
       <c r="AQ209" s="77"/>
       <c r="AR209" s="77"/>
     </row>
-    <row r="210" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A210" s="76" t="s">
         <v>445</v>
       </c>
@@ -16555,7 +16573,7 @@
       <c r="AQ210" s="77"/>
       <c r="AR210" s="77"/>
     </row>
-    <row r="211" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A211" s="76" t="s">
         <v>241</v>
       </c>
@@ -16610,7 +16628,7 @@
       </c>
       <c r="AR211" s="77"/>
     </row>
-    <row r="212" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A212" s="76" t="s">
         <v>242</v>
       </c>
@@ -16657,7 +16675,7 @@
       <c r="AQ212" s="77"/>
       <c r="AR212" s="77"/>
     </row>
-    <row r="213" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A213" s="76" t="s">
         <v>46</v>
       </c>
@@ -16717,7 +16735,7 @@
       <c r="AQ213" s="77"/>
       <c r="AR213" s="77"/>
     </row>
-    <row r="214" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A214" s="76" t="s">
         <v>47</v>
       </c>
@@ -16780,7 +16798,7 @@
       <c r="AQ214" s="77"/>
       <c r="AR214" s="77"/>
     </row>
-    <row r="215" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A215" s="76" t="s">
         <v>243</v>
       </c>
@@ -16839,7 +16857,7 @@
       <c r="AQ215" s="77"/>
       <c r="AR215" s="77"/>
     </row>
-    <row r="216" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A216" s="76" t="s">
         <v>101</v>
       </c>
@@ -16891,7 +16909,7 @@
       <c r="AQ216" s="77"/>
       <c r="AR216" s="77"/>
     </row>
-    <row r="217" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A217" s="76" t="s">
         <v>190</v>
       </c>
@@ -16945,7 +16963,7 @@
       <c r="AQ217" s="77"/>
       <c r="AR217" s="77"/>
     </row>
-    <row r="218" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A218" s="76" t="s">
         <v>102</v>
       </c>
@@ -16992,7 +17010,7 @@
       <c r="AQ218" s="77"/>
       <c r="AR218" s="77"/>
     </row>
-    <row r="219" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A219" s="76" t="s">
         <v>191</v>
       </c>
@@ -17046,7 +17064,7 @@
       <c r="AQ219" s="77"/>
       <c r="AR219" s="77"/>
     </row>
-    <row r="220" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A220" s="76" t="s">
         <v>192</v>
       </c>
@@ -17098,7 +17116,7 @@
       <c r="AQ220" s="77"/>
       <c r="AR220" s="77"/>
     </row>
-    <row r="221" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A221" s="76" t="s">
         <v>193</v>
       </c>
@@ -17150,7 +17168,7 @@
       <c r="AQ221" s="77"/>
       <c r="AR221" s="77"/>
     </row>
-    <row r="222" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A222" s="76" t="s">
         <v>446</v>
       </c>
@@ -17198,7 +17216,7 @@
       <c r="AQ222" s="77"/>
       <c r="AR222" s="77"/>
     </row>
-    <row r="223" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A223" s="76" t="s">
         <v>194</v>
       </c>
@@ -17257,7 +17275,7 @@
       <c r="AQ223" s="77"/>
       <c r="AR223" s="77"/>
     </row>
-    <row r="224" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A224" s="76" t="s">
         <v>195</v>
       </c>
@@ -17317,7 +17335,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="225" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A225" s="76" t="s">
         <v>196</v>
       </c>
@@ -17378,7 +17396,7 @@
       <c r="AQ225" s="77"/>
       <c r="AR225" s="77"/>
     </row>
-    <row r="226" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A226" s="76" t="s">
         <v>103</v>
       </c>
@@ -17427,7 +17445,7 @@
       </c>
       <c r="AR226" s="77"/>
     </row>
-    <row r="227" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A227" s="76" t="s">
         <v>425</v>
       </c>
@@ -17476,7 +17494,7 @@
       <c r="AQ227" s="77"/>
       <c r="AR227" s="77"/>
     </row>
-    <row r="228" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A228" s="76" t="s">
         <v>104</v>
       </c>
@@ -17538,7 +17556,7 @@
       <c r="AQ228" s="77"/>
       <c r="AR228" s="77"/>
     </row>
-    <row r="229" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A229" s="76" t="s">
         <v>244</v>
       </c>
@@ -17591,7 +17609,7 @@
       <c r="AQ229" s="77"/>
       <c r="AR229" s="77"/>
     </row>
-    <row r="230" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A230" s="76" t="s">
         <v>447</v>
       </c>
@@ -17644,7 +17662,7 @@
       <c r="AQ230" s="77"/>
       <c r="AR230" s="77"/>
     </row>
-    <row r="231" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A231" s="76" t="s">
         <v>105</v>
       </c>
@@ -17696,7 +17714,7 @@
       </c>
       <c r="AR231" s="77"/>
     </row>
-    <row r="232" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A232" s="76" t="s">
         <v>106</v>
       </c>
@@ -17759,7 +17777,7 @@
       <c r="AQ232" s="77"/>
       <c r="AR232" s="77"/>
     </row>
-    <row r="233" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A233" s="76" t="s">
         <v>197</v>
       </c>
@@ -17818,7 +17836,7 @@
       </c>
       <c r="AR233" s="77"/>
     </row>
-    <row r="234" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A234" s="76" t="s">
         <v>198</v>
       </c>
@@ -17877,7 +17895,7 @@
       </c>
       <c r="AR234" s="77"/>
     </row>
-    <row r="235" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A235" s="76" t="s">
         <v>245</v>
       </c>
@@ -17924,7 +17942,7 @@
       <c r="AQ235" s="77"/>
       <c r="AR235" s="77"/>
     </row>
-    <row r="236" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A236" s="76" t="s">
         <v>199</v>
       </c>
@@ -17981,7 +17999,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="237" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A237" s="76" t="s">
         <v>200</v>
       </c>
@@ -18045,7 +18063,7 @@
       </c>
       <c r="AR237" s="77"/>
     </row>
-    <row r="238" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A238" s="76" t="s">
         <v>201</v>
       </c>
@@ -18106,7 +18124,7 @@
       </c>
       <c r="AR238" s="77"/>
     </row>
-    <row r="239" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A239" s="76" t="s">
         <v>202</v>
       </c>
@@ -18170,7 +18188,7 @@
       </c>
       <c r="AR239" s="77"/>
     </row>
-    <row r="240" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A240" s="76" t="s">
         <v>49</v>
       </c>
@@ -18226,7 +18244,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="241" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A241" s="76" t="s">
         <v>48</v>
       </c>
@@ -18287,7 +18305,7 @@
       </c>
       <c r="AR241" s="77"/>
     </row>
-    <row r="242" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A242" s="76" t="s">
         <v>107</v>
       </c>
@@ -18334,7 +18352,7 @@
       <c r="AQ242" s="77"/>
       <c r="AR242" s="77"/>
     </row>
-    <row r="243" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A243" s="76" t="s">
         <v>246</v>
       </c>
@@ -18381,7 +18399,7 @@
       <c r="AQ243" s="77"/>
       <c r="AR243" s="77"/>
     </row>
-    <row r="244" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A244" s="76" t="s">
         <v>203</v>
       </c>
@@ -18452,7 +18470,7 @@
       <c r="AQ244" s="77"/>
       <c r="AR244" s="77"/>
     </row>
-    <row r="245" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A245" s="76" t="s">
         <v>449</v>
       </c>
@@ -18500,7 +18518,7 @@
       <c r="AQ245" s="77"/>
       <c r="AR245" s="77"/>
     </row>
-    <row r="246" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A246" s="76" t="s">
         <v>448</v>
       </c>
@@ -18548,7 +18566,7 @@
       <c r="AQ246" s="77"/>
       <c r="AR246" s="77"/>
     </row>
-    <row r="247" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A247" s="76" t="s">
         <v>204</v>
       </c>
@@ -18596,7 +18614,7 @@
       <c r="AQ247" s="77"/>
       <c r="AR247" s="77"/>
     </row>
-    <row r="248" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A248" s="76" t="s">
         <v>726</v>
       </c>
@@ -18663,7 +18681,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="249" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A249" s="76" t="s">
         <v>205</v>
       </c>
@@ -18715,7 +18733,7 @@
       <c r="AQ249" s="77"/>
       <c r="AR249" s="77"/>
     </row>
-    <row r="250" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A250" s="76" t="s">
         <v>206</v>
       </c>
@@ -18771,7 +18789,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="251" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A251" s="76" t="s">
         <v>207</v>
       </c>
@@ -18843,7 +18861,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="252" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A252" s="76" t="s">
         <v>450</v>
       </c>
@@ -18891,7 +18909,7 @@
       <c r="AQ252" s="77"/>
       <c r="AR252" s="77"/>
     </row>
-    <row r="253" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A253" s="76" t="s">
         <v>724</v>
       </c>
@@ -18953,7 +18971,7 @@
       <c r="AQ253" s="77"/>
       <c r="AR253" s="77"/>
     </row>
-    <row r="254" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A254" s="76" t="s">
         <v>725</v>
       </c>
@@ -19010,7 +19028,7 @@
       <c r="AQ254" s="77"/>
       <c r="AR254" s="77"/>
     </row>
-    <row r="255" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A255" s="76" t="s">
         <v>208</v>
       </c>
@@ -19080,7 +19098,7 @@
       <c r="AQ255" s="77"/>
       <c r="AR255" s="77"/>
     </row>
-    <row r="256" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A256" s="76" t="s">
         <v>209</v>
       </c>
@@ -19150,7 +19168,7 @@
       <c r="AQ256" s="77"/>
       <c r="AR256" s="77"/>
     </row>
-    <row r="257" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A257" s="76" t="s">
         <v>210</v>
       </c>
@@ -19202,7 +19220,7 @@
       <c r="AQ257" s="77"/>
       <c r="AR257" s="77"/>
     </row>
-    <row r="258" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A258" s="76" t="s">
         <v>723</v>
       </c>
@@ -19261,7 +19279,7 @@
       <c r="AQ258" s="77"/>
       <c r="AR258" s="77"/>
     </row>
-    <row r="259" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A259" s="76" t="s">
         <v>211</v>
       </c>
@@ -19323,7 +19341,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="260" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A260" s="76" t="s">
         <v>50</v>
       </c>
@@ -19389,7 +19407,7 @@
       </c>
       <c r="AR260" s="77"/>
     </row>
-    <row r="261" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A261" s="76" t="s">
         <v>108</v>
       </c>
@@ -19436,7 +19454,7 @@
       <c r="AQ261" s="77"/>
       <c r="AR261" s="77"/>
     </row>
-    <row r="262" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A262" s="76" t="s">
         <v>212</v>
       </c>
@@ -19490,7 +19508,7 @@
       <c r="AQ262" s="77"/>
       <c r="AR262" s="77"/>
     </row>
-    <row r="263" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A263" s="76" t="s">
         <v>51</v>
       </c>
@@ -19539,7 +19557,7 @@
       <c r="AQ263" s="77"/>
       <c r="AR263" s="77"/>
     </row>
-    <row r="264" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A264" s="76" t="s">
         <v>109</v>
       </c>
@@ -19586,7 +19604,7 @@
       <c r="AQ264" s="77"/>
       <c r="AR264" s="77"/>
     </row>
-    <row r="265" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A265" s="76" t="s">
         <v>52</v>
       </c>
@@ -19639,7 +19657,7 @@
       </c>
       <c r="AR265" s="77"/>
     </row>
-    <row r="266" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A266" s="76" t="s">
         <v>424</v>
       </c>
@@ -19684,7 +19702,7 @@
       <c r="AQ266" s="77"/>
       <c r="AR266" s="77"/>
     </row>
-    <row r="267" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A267" s="76" t="s">
         <v>53</v>
       </c>
@@ -19745,7 +19763,7 @@
       <c r="AQ267" s="77"/>
       <c r="AR267" s="77"/>
     </row>
-    <row r="268" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A268" s="76" t="s">
         <v>213</v>
       </c>
@@ -19802,7 +19820,7 @@
       <c r="AQ268" s="77"/>
       <c r="AR268" s="77"/>
     </row>
-    <row r="269" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A269" s="76" t="s">
         <v>214</v>
       </c>
@@ -19862,7 +19880,7 @@
       <c r="AQ269" s="77"/>
       <c r="AR269" s="77"/>
     </row>
-    <row r="270" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A270" s="76" t="s">
         <v>54</v>
       </c>
@@ -19922,7 +19940,7 @@
       </c>
       <c r="AR270" s="77"/>
     </row>
-    <row r="271" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A271" s="76" t="s">
         <v>55</v>
       </c>
@@ -19971,7 +19989,7 @@
       </c>
       <c r="AR271" s="77"/>
     </row>
-    <row r="272" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A272" s="76" t="s">
         <v>56</v>
       </c>
@@ -20031,7 +20049,7 @@
       <c r="AQ272" s="77"/>
       <c r="AR272" s="77"/>
     </row>
-    <row r="273" spans="1:47" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:47" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A273" s="76" t="s">
         <v>247</v>
       </c>
@@ -20078,7 +20096,7 @@
       <c r="AQ273" s="77"/>
       <c r="AR273" s="77"/>
     </row>
-    <row r="274" spans="1:47" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:47" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A274" s="76" t="s">
         <v>248</v>
       </c>
@@ -20125,7 +20143,7 @@
       <c r="AQ274" s="77"/>
       <c r="AR274" s="77"/>
     </row>
-    <row r="275" spans="1:47" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:47" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A275" s="76" t="s">
         <v>249</v>
       </c>
@@ -20172,7 +20190,7 @@
       <c r="AQ275" s="77"/>
       <c r="AR275" s="77"/>
     </row>
-    <row r="276" spans="1:47" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:47" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A276" s="76" t="s">
         <v>250</v>
       </c>
@@ -20219,7 +20237,7 @@
       <c r="AQ276" s="77"/>
       <c r="AR276" s="77"/>
     </row>
-    <row r="277" spans="1:47" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:47" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A277" s="76" t="s">
         <v>57</v>
       </c>
@@ -20281,7 +20299,7 @@
       <c r="AQ277" s="77"/>
       <c r="AR277" s="77"/>
     </row>
-    <row r="278" spans="1:47" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:47" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A278" s="76" t="s">
         <v>215</v>
       </c>
@@ -20340,7 +20358,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="279" spans="1:47" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:47" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A279" s="76" t="s">
         <v>110</v>
       </c>
@@ -20387,7 +20405,7 @@
       <c r="AQ279" s="77"/>
       <c r="AR279" s="77"/>
     </row>
-    <row r="280" spans="1:47" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:47" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A280" s="76" t="s">
         <v>808</v>
       </c>
@@ -20448,7 +20466,7 @@
       <c r="AQ280" s="77"/>
       <c r="AR280" s="77"/>
     </row>
-    <row r="281" spans="1:47" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:47" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A281" s="76" t="s">
         <v>111</v>
       </c>
@@ -20505,7 +20523,7 @@
       <c r="AQ281" s="77"/>
       <c r="AR281" s="77"/>
     </row>
-    <row r="282" spans="1:47" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:47" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A282" s="76" t="s">
         <v>216</v>
       </c>
@@ -20561,7 +20579,7 @@
       <c r="AQ282" s="77"/>
       <c r="AR282" s="77"/>
     </row>
-    <row r="283" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A283" s="80" t="s">
         <v>58</v>
       </c>
@@ -20614,7 +20632,7 @@
       <c r="AR283" s="81"/>
       <c r="AU283" s="79"/>
     </row>
-    <row r="284" spans="1:47" ht="29" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A284" s="80" t="s">
         <v>112</v>
       </c>
@@ -20669,7 +20687,7 @@
       <c r="AR284" s="81"/>
       <c r="AU284" s="79"/>
     </row>
-    <row r="285" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A285" s="80" t="s">
         <v>113</v>
       </c>
@@ -20722,7 +20740,7 @@
       <c r="AR285" s="81"/>
       <c r="AU285" s="79"/>
     </row>
-    <row r="286" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A286" s="80" t="s">
         <v>217</v>
       </c>
@@ -20776,13 +20794,13 @@
       <c r="AR286" s="81"/>
       <c r="AU286" s="79"/>
     </row>
-    <row r="287" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:47" x14ac:dyDescent="0.3">
       <c r="AU287" s="79"/>
     </row>
-    <row r="288" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:47" x14ac:dyDescent="0.3">
       <c r="AU288" s="79"/>
     </row>
-    <row r="289" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A289" s="80"/>
       <c r="B289" s="87"/>
       <c r="P289" s="88" t="s">
@@ -20790,7 +20808,7 @@
       </c>
       <c r="AU289" s="79"/>
     </row>
-    <row r="290" spans="1:47" ht="29" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:47" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A290" s="89" t="s">
         <v>886</v>
       </c>
@@ -20841,7 +20859,7 @@
       <c r="AR290" s="81"/>
       <c r="AU290" s="79"/>
     </row>
-    <row r="291" spans="1:47" ht="29" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:47" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A291" s="89" t="s">
         <v>887</v>
       </c>
@@ -20892,7 +20910,7 @@
       <c r="AR291" s="81"/>
       <c r="AU291" s="79"/>
     </row>
-    <row r="292" spans="1:47" ht="29" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:47" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A292" s="89" t="s">
         <v>888</v>
       </c>
@@ -20943,7 +20961,7 @@
       <c r="AR292" s="81"/>
       <c r="AU292" s="79"/>
     </row>
-    <row r="293" spans="1:47" ht="29" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:47" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A293" s="89" t="s">
         <v>889</v>
       </c>
@@ -20996,7 +21014,7 @@
       <c r="AR293" s="81"/>
       <c r="AU293" s="79"/>
     </row>
-    <row r="294" spans="1:47" ht="29" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:47" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A294" s="89" t="s">
         <v>890</v>
       </c>
@@ -21041,7 +21059,7 @@
       <c r="AR294" s="81"/>
       <c r="AU294" s="79"/>
     </row>
-    <row r="295" spans="1:47" ht="29" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:47" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A295" s="89" t="s">
         <v>891</v>
       </c>
@@ -21086,7 +21104,7 @@
       <c r="AR295" s="81"/>
       <c r="AU295" s="79"/>
     </row>
-    <row r="296" spans="1:47" ht="58" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:47" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A296" s="80" t="s">
         <v>126</v>
       </c>
@@ -21102,7 +21120,7 @@
       <c r="K296" s="83"/>
       <c r="AU296" s="79"/>
     </row>
-    <row r="297" spans="1:47" ht="29" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:47" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A297" s="80" t="s">
         <v>892</v>
       </c>
@@ -21115,7 +21133,7 @@
       <c r="K297" s="83"/>
       <c r="AU297" s="79"/>
     </row>
-    <row r="298" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A298" s="80" t="s">
         <v>893</v>
       </c>
@@ -21128,7 +21146,7 @@
       <c r="K298" s="83"/>
       <c r="AU298" s="79"/>
     </row>
-    <row r="299" spans="1:47" ht="29" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:47" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A299" s="80" t="s">
         <v>894</v>
       </c>
@@ -21141,12 +21159,12 @@
       <c r="K299" s="83"/>
       <c r="AU299" s="79"/>
     </row>
-    <row r="300" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A300" s="80"/>
       <c r="B300" s="81"/>
       <c r="C300" s="82"/>
     </row>
-    <row r="301" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:47" x14ac:dyDescent="0.3">
       <c r="D301" s="81"/>
       <c r="E301" s="81"/>
       <c r="F301" s="81"/>
@@ -21181,17 +21199,17 @@
       <c r="AR301" s="81"/>
       <c r="AS301" s="81"/>
     </row>
-    <row r="302" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A302" s="80" t="s">
         <v>1237</v>
       </c>
     </row>
-    <row r="303" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A303" s="85" t="s">
         <v>1238</v>
       </c>
     </row>
-    <row r="304" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A304" s="85" t="s">
         <v>1239</v>
       </c>
@@ -21221,24 +21239,24 @@
       <selection pane="bottomLeft" activeCell="A19" sqref="A19:C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.26953125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.26953125" style="2"/>
+    <col min="1" max="1" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.21875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>396</v>
       </c>
@@ -21261,7 +21279,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>255</v>
       </c>
@@ -21272,7 +21290,7 @@
         <v>2.0833333333333333E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>256</v>
       </c>
@@ -21283,7 +21301,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>257</v>
       </c>
@@ -21294,7 +21312,7 @@
         <v>8.3333333333333332E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>258</v>
       </c>
@@ -21305,7 +21323,7 @@
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>259</v>
       </c>
@@ -21319,7 +21337,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>260</v>
       </c>
@@ -21333,7 +21351,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>261</v>
       </c>
@@ -21347,7 +21365,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>458</v>
       </c>
@@ -21364,7 +21382,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>459</v>
       </c>
@@ -21379,7 +21397,7 @@
       </c>
       <c r="E11" s="99"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>460</v>
       </c>
@@ -21394,7 +21412,7 @@
       </c>
       <c r="E12" s="99"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>461</v>
       </c>
@@ -21409,7 +21427,7 @@
       </c>
       <c r="E13" s="99"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>462</v>
       </c>
@@ -21424,7 +21442,7 @@
       </c>
       <c r="E14" s="100"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>262</v>
       </c>
@@ -21438,7 +21456,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>263</v>
       </c>
@@ -21452,7 +21470,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>264</v>
       </c>
@@ -21463,7 +21481,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>265</v>
       </c>
@@ -21474,7 +21492,7 @@
         <v>2.2916666666666669E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>266</v>
       </c>
@@ -21497,7 +21515,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>267</v>
       </c>
@@ -21520,7 +21538,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>268</v>
       </c>
@@ -21543,7 +21561,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>269</v>
       </c>
@@ -21566,7 +21584,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>270</v>
       </c>
@@ -21589,7 +21607,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>271</v>
       </c>
@@ -21600,7 +21618,7 @@
         <v>3.5416666666666666E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>272</v>
       </c>
@@ -21611,7 +21629,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>273</v>
       </c>
@@ -21625,7 +21643,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>274</v>
       </c>
@@ -21636,7 +21654,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>275</v>
       </c>
@@ -21656,7 +21674,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>276</v>
       </c>
@@ -21667,7 +21685,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>277</v>
       </c>
@@ -21678,7 +21696,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>278</v>
       </c>
@@ -21698,7 +21716,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>279</v>
       </c>
@@ -21718,7 +21736,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>280</v>
       </c>
@@ -21738,7 +21756,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>281</v>
       </c>
@@ -21749,7 +21767,7 @@
         <v>1.8749999999999999E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>282</v>
       </c>
@@ -21760,7 +21778,7 @@
         <v>4.9999999999999996E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>283</v>
       </c>
@@ -21774,7 +21792,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>284</v>
       </c>
@@ -21788,7 +21806,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>285</v>
       </c>
@@ -21802,7 +21820,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>286</v>
       </c>
@@ -21813,7 +21831,7 @@
         <v>6.2499999999999995E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>287</v>
       </c>
@@ -21824,7 +21842,7 @@
         <v>6.2499999999999995E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>288</v>
       </c>
@@ -21835,7 +21853,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>289</v>
       </c>
@@ -21846,7 +21864,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>290</v>
       </c>
@@ -21860,7 +21878,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>463</v>
       </c>
@@ -21874,7 +21892,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>464</v>
       </c>
@@ -21888,7 +21906,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>291</v>
       </c>
@@ -21899,7 +21917,7 @@
         <v>1.8749999999999999E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>292</v>
       </c>
@@ -21919,7 +21937,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>293</v>
       </c>
@@ -21939,7 +21957,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>294</v>
       </c>
@@ -21959,7 +21977,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>295</v>
       </c>
@@ -21979,7 +21997,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>296</v>
       </c>
@@ -21990,7 +22008,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>297</v>
       </c>
@@ -22004,7 +22022,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>298</v>
       </c>
@@ -22015,7 +22033,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>299</v>
       </c>
@@ -22026,7 +22044,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>300</v>
       </c>
@@ -22037,7 +22055,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>301</v>
       </c>
@@ -22048,7 +22066,7 @@
         <v>2.0833333333333333E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>302</v>
       </c>
@@ -22059,7 +22077,7 @@
         <v>6.2499999999999995E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>303</v>
       </c>
@@ -22070,7 +22088,7 @@
         <v>4.5833333333333337E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>304</v>
       </c>
@@ -22090,7 +22108,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>305</v>
       </c>
@@ -22101,7 +22119,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>306</v>
       </c>
@@ -22112,7 +22130,7 @@
         <v>2.9166666666666664E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>307</v>
       </c>
@@ -22123,7 +22141,7 @@
         <v>1.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>308</v>
       </c>
@@ -22134,7 +22152,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>309</v>
       </c>
@@ -22145,7 +22163,7 @@
         <v>2.7083333333333334E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>310</v>
       </c>
@@ -22156,7 +22174,7 @@
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>311</v>
       </c>
@@ -22170,7 +22188,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>312</v>
       </c>
@@ -22184,7 +22202,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>313</v>
       </c>
@@ -22195,7 +22213,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>314</v>
       </c>
@@ -22215,7 +22233,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>315</v>
       </c>
@@ -22239,7 +22257,7 @@
       </c>
       <c r="H70" s="14"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>316</v>
       </c>
@@ -22259,7 +22277,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>317</v>
       </c>
@@ -22279,7 +22297,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>318</v>
       </c>
@@ -22290,7 +22308,7 @@
         <v>1.4583333333333332E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>319</v>
       </c>
@@ -22301,7 +22319,7 @@
         <v>2.9166666666666664E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>320</v>
       </c>
@@ -22315,7 +22333,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="13" t="s">
         <v>321</v>
       </c>
@@ -22326,7 +22344,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>322</v>
       </c>
@@ -22337,7 +22355,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>323</v>
       </c>
@@ -22351,7 +22369,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>324</v>
       </c>
@@ -22362,7 +22380,7 @@
         <v>2.9166666666666664E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>325</v>
       </c>
@@ -22376,7 +22394,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>326</v>
       </c>
@@ -22387,7 +22405,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>327</v>
       </c>
@@ -22398,7 +22416,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>328</v>
       </c>
@@ -22418,7 +22436,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>329</v>
       </c>
@@ -22438,7 +22456,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>330</v>
       </c>
@@ -22449,7 +22467,7 @@
         <v>2.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>331</v>
       </c>
@@ -22469,7 +22487,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>332</v>
       </c>
@@ -22489,7 +22507,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>333</v>
       </c>
@@ -22503,7 +22521,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>334</v>
       </c>
@@ -22514,7 +22532,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>335</v>
       </c>
@@ -22525,7 +22543,7 @@
         <v>2.2916666666666669E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>336</v>
       </c>
@@ -22536,7 +22554,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>337</v>
       </c>
@@ -22547,7 +22565,7 @@
         <v>6.0416666666666667E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>338</v>
       </c>
@@ -22567,7 +22585,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>339</v>
       </c>
@@ -22587,7 +22605,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>340</v>
       </c>
@@ -22607,7 +22625,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>341</v>
       </c>
@@ -22647,22 +22665,22 @@
       <selection pane="bottomLeft" activeCell="A45" sqref="A45:C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.08984375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.26953125" style="2"/>
+    <col min="1" max="1" width="24.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.21875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>854</v>
       </c>
@@ -22679,7 +22697,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>342</v>
       </c>
@@ -22696,7 +22714,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>343</v>
       </c>
@@ -22710,7 +22728,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>344</v>
       </c>
@@ -22724,7 +22742,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>345</v>
       </c>
@@ -22738,7 +22756,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>346</v>
       </c>
@@ -22752,7 +22770,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>347</v>
       </c>
@@ -22766,7 +22784,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>348</v>
       </c>
@@ -22780,7 +22798,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>349</v>
       </c>
@@ -22794,7 +22812,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>350</v>
       </c>
@@ -22808,7 +22826,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>351</v>
       </c>
@@ -22822,7 +22840,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>352</v>
       </c>
@@ -22836,7 +22854,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>353</v>
       </c>
@@ -22850,7 +22868,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>354</v>
       </c>
@@ -22864,7 +22882,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>355</v>
       </c>
@@ -22878,7 +22896,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>356</v>
       </c>
@@ -22895,7 +22913,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>357</v>
       </c>
@@ -22909,7 +22927,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>358</v>
       </c>
@@ -22926,7 +22944,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>359</v>
       </c>
@@ -22943,7 +22961,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>360</v>
       </c>
@@ -22960,7 +22978,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>361</v>
       </c>
@@ -22974,7 +22992,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>362</v>
       </c>
@@ -22988,7 +23006,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>465</v>
       </c>
@@ -23002,7 +23020,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>363</v>
       </c>
@@ -23019,7 +23037,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>262</v>
       </c>
@@ -23033,7 +23051,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>364</v>
       </c>
@@ -23047,7 +23065,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>365</v>
       </c>
@@ -23061,7 +23079,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>366</v>
       </c>
@@ -23078,7 +23096,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>367</v>
       </c>
@@ -23092,7 +23110,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>368</v>
       </c>
@@ -23106,7 +23124,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>369</v>
       </c>
@@ -23120,7 +23138,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>370</v>
       </c>
@@ -23137,7 +23155,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>275</v>
       </c>
@@ -23151,7 +23169,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>371</v>
       </c>
@@ -23168,7 +23186,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>372</v>
       </c>
@@ -23185,7 +23203,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>373</v>
       </c>
@@ -23199,7 +23217,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>374</v>
       </c>
@@ -23213,7 +23231,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>375</v>
       </c>
@@ -23230,7 +23248,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>376</v>
       </c>
@@ -23247,7 +23265,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>377</v>
       </c>
@@ -23264,7 +23282,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>378</v>
       </c>
@@ -23281,7 +23299,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>303</v>
       </c>
@@ -23295,7 +23313,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>379</v>
       </c>
@@ -23309,7 +23327,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>380</v>
       </c>
@@ -23323,7 +23341,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>381</v>
       </c>
@@ -23337,7 +23355,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>311</v>
       </c>
@@ -23351,7 +23369,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>382</v>
       </c>
@@ -23368,7 +23386,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>383</v>
       </c>
@@ -23385,7 +23403,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>384</v>
       </c>
@@ -23399,7 +23417,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>385</v>
       </c>
@@ -23413,7 +23431,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>386</v>
       </c>
@@ -23427,7 +23445,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>387</v>
       </c>
@@ -23444,7 +23462,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>388</v>
       </c>
@@ -23461,7 +23479,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>389</v>
       </c>
@@ -23475,7 +23493,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>466</v>
       </c>
@@ -23492,7 +23510,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>467</v>
       </c>
@@ -23507,7 +23525,7 @@
       </c>
       <c r="E57" s="101"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>468</v>
       </c>
@@ -23522,7 +23540,7 @@
       </c>
       <c r="E58" s="101"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>469</v>
       </c>
@@ -23539,7 +23557,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>470</v>
       </c>
@@ -23554,7 +23572,7 @@
       </c>
       <c r="E60" s="101"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>471</v>
       </c>
@@ -23569,7 +23587,7 @@
       </c>
       <c r="E61" s="101"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>390</v>
       </c>
@@ -23603,16 +23621,16 @@
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.90625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="85.7265625" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="9.26953125" style="4"/>
+    <col min="1" max="1" width="34.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="85.77734375" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9.21875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>884</v>
       </c>
@@ -23624,7 +23642,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>472</v>
       </c>
@@ -23638,7 +23656,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>473</v>
       </c>
@@ -23652,7 +23670,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>474</v>
       </c>
@@ -23664,7 +23682,7 @@
       </c>
       <c r="D4" s="23"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
         <v>475</v>
       </c>
@@ -23678,7 +23696,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>476</v>
       </c>
@@ -23690,7 +23708,7 @@
       </c>
       <c r="D6" s="23"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>477</v>
       </c>
@@ -23702,7 +23720,7 @@
       </c>
       <c r="D7" s="23"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
         <v>502</v>
       </c>
@@ -23716,7 +23734,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
         <v>478</v>
       </c>
@@ -23728,7 +23746,7 @@
       </c>
       <c r="D9" s="23"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
         <v>479</v>
       </c>
@@ -23742,7 +23760,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>480</v>
       </c>
@@ -23756,7 +23774,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
         <v>481</v>
       </c>
@@ -23768,7 +23786,7 @@
       </c>
       <c r="D12" s="23"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
         <v>482</v>
       </c>
@@ -23782,7 +23800,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
         <v>483</v>
       </c>
@@ -23794,7 +23812,7 @@
       </c>
       <c r="D14" s="23"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
         <v>484</v>
       </c>
@@ -23806,7 +23824,7 @@
       </c>
       <c r="D15" s="23"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
         <v>485</v>
       </c>
@@ -23820,7 +23838,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
         <v>486</v>
       </c>
@@ -23834,7 +23852,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
         <v>487</v>
       </c>
@@ -23848,7 +23866,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
         <v>488</v>
       </c>
@@ -23862,7 +23880,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>489</v>
       </c>
@@ -23876,7 +23894,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="21" t="s">
         <v>490</v>
       </c>
@@ -23890,7 +23908,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
         <v>491</v>
       </c>
@@ -23904,7 +23922,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="21" t="s">
         <v>492</v>
       </c>
@@ -23918,7 +23936,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
         <v>493</v>
       </c>
@@ -23932,7 +23950,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="21" t="s">
         <v>494</v>
       </c>
@@ -23946,7 +23964,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
         <v>495</v>
       </c>
@@ -23960,7 +23978,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="21" t="s">
         <v>496</v>
       </c>
@@ -23974,7 +23992,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="21" t="s">
         <v>497</v>
       </c>
@@ -23988,7 +24006,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="21" t="s">
         <v>498</v>
       </c>
@@ -24002,7 +24020,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="21" t="s">
         <v>499</v>
       </c>
@@ -24014,7 +24032,7 @@
       </c>
       <c r="D30" s="23"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="21" t="s">
         <v>500</v>
       </c>
@@ -24026,7 +24044,7 @@
       </c>
       <c r="D31" s="23"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="21" t="s">
         <v>501</v>
       </c>
@@ -24038,52 +24056,52 @@
       </c>
       <c r="D32" s="23"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>1138</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>1139</v>
       </c>
@@ -24103,22 +24121,22 @@
       <selection pane="bottomLeft" activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.7265625" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" style="68"/>
-    <col min="4" max="4" width="59.7265625" style="26" customWidth="1"/>
-    <col min="5" max="16384" width="9.26953125" style="25"/>
+    <col min="2" max="2" width="4.77734375" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" style="68"/>
+    <col min="4" max="4" width="59.77734375" style="26" customWidth="1"/>
+    <col min="5" max="16384" width="9.21875" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>514</v>
       </c>
       <c r="C1" s="67"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>515</v>
       </c>
@@ -24132,7 +24150,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>516</v>
       </c>
@@ -24146,7 +24164,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>517</v>
       </c>
@@ -24160,7 +24178,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>518</v>
       </c>
@@ -24174,7 +24192,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>519</v>
       </c>
@@ -24188,7 +24206,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>520</v>
       </c>
@@ -24202,7 +24220,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>521</v>
       </c>
@@ -24216,7 +24234,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>522</v>
       </c>
@@ -24230,7 +24248,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
         <v>523</v>
       </c>
@@ -24244,7 +24262,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
         <v>524</v>
       </c>
@@ -24255,7 +24273,7 @@
         <v>6.0416666666666667E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
         <v>525</v>
       </c>
@@ -24266,7 +24284,7 @@
         <v>8.6805555555555559E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
         <v>526</v>
       </c>
@@ -24277,7 +24295,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
         <v>527</v>
       </c>
@@ -24291,7 +24309,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
         <v>528</v>
       </c>
@@ -24302,7 +24320,7 @@
         <v>8.2638888888888887E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
         <v>529</v>
       </c>
@@ -24313,7 +24331,7 @@
         <v>7.6388888888888895E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
         <v>530</v>
       </c>
@@ -24327,7 +24345,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="25" t="s">
         <v>531</v>
       </c>
@@ -24341,7 +24359,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="25" t="s">
         <v>532</v>
       </c>
@@ -24355,7 +24373,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="25" t="s">
         <v>533</v>
       </c>
@@ -24369,7 +24387,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="25" t="s">
         <v>534</v>
       </c>
@@ -24383,7 +24401,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="25" t="s">
         <v>535</v>
       </c>
@@ -24397,7 +24415,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="25" t="s">
         <v>536</v>
       </c>
@@ -24411,7 +24429,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="25" t="s">
         <v>681</v>
       </c>
@@ -24425,7 +24443,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="25" t="s">
         <v>537</v>
       </c>
@@ -24439,7 +24457,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="25" t="s">
         <v>538</v>
       </c>
@@ -24453,7 +24471,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="25" t="s">
         <v>539</v>
       </c>
@@ -24467,7 +24485,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="25" t="s">
         <v>353</v>
       </c>
@@ -24478,7 +24496,7 @@
         <v>2.2916666666666669E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="25" t="s">
         <v>540</v>
       </c>
@@ -24492,7 +24510,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="25" t="s">
         <v>541</v>
       </c>
@@ -24506,7 +24524,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="25" t="s">
         <v>542</v>
       </c>
@@ -24520,7 +24538,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="25" t="s">
         <v>543</v>
       </c>
@@ -24534,7 +24552,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="25" t="s">
         <v>544</v>
       </c>
@@ -24548,7 +24566,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="25" t="s">
         <v>545</v>
       </c>
@@ -24562,7 +24580,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="25" t="s">
         <v>546</v>
       </c>
@@ -24576,7 +24594,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="25" t="s">
         <v>682</v>
       </c>
@@ -24590,7 +24608,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="25" t="s">
         <v>683</v>
       </c>
@@ -24604,7 +24622,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="25" t="s">
         <v>547</v>
       </c>
@@ -24618,7 +24636,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="25" t="s">
         <v>548</v>
       </c>
@@ -24632,7 +24650,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="25" t="s">
         <v>549</v>
       </c>
@@ -24646,7 +24664,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="25" t="s">
         <v>550</v>
       </c>
@@ -24660,7 +24678,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="25" t="s">
         <v>551</v>
       </c>
@@ -24671,7 +24689,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="25" t="s">
         <v>552</v>
       </c>
@@ -24682,7 +24700,7 @@
         <v>4.9999999999999996E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="25" t="s">
         <v>553</v>
       </c>
@@ -24696,7 +24714,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="25" t="s">
         <v>554</v>
       </c>
@@ -24707,7 +24725,7 @@
         <v>6.9444444444444434E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="25" t="s">
         <v>555</v>
       </c>
@@ -24721,7 +24739,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="25" t="s">
         <v>556</v>
       </c>
@@ -24732,7 +24750,7 @@
         <v>4.5138888888888888E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="25" t="s">
         <v>557</v>
       </c>
@@ -24746,7 +24764,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="25" t="s">
         <v>558</v>
       </c>
@@ -24760,7 +24778,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="25" t="s">
         <v>559</v>
       </c>
@@ -24774,7 +24792,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="25" t="s">
         <v>560</v>
       </c>
@@ -24788,7 +24806,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="25" t="s">
         <v>561</v>
       </c>
@@ -24802,7 +24820,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="25" t="s">
         <v>562</v>
       </c>
@@ -24816,7 +24834,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="25" t="s">
         <v>563</v>
       </c>
@@ -24830,7 +24848,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="25" t="s">
         <v>564</v>
       </c>
@@ -24844,7 +24862,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="25" t="s">
         <v>565</v>
       </c>
@@ -24858,7 +24876,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="25" t="s">
         <v>566</v>
       </c>
@@ -24872,7 +24890,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="25" t="s">
         <v>567</v>
       </c>
@@ -24886,7 +24904,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="25" t="s">
         <v>568</v>
       </c>
@@ -24900,7 +24918,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="25" t="s">
         <v>569</v>
       </c>
@@ -24914,7 +24932,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="25" t="s">
         <v>570</v>
       </c>
@@ -24928,7 +24946,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="25" t="s">
         <v>571</v>
       </c>
@@ -24939,7 +24957,7 @@
         <v>4.3750000000000004E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="25" t="s">
         <v>572</v>
       </c>
@@ -24953,7 +24971,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="25" t="s">
         <v>573</v>
       </c>
@@ -24967,7 +24985,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="25" t="s">
         <v>574</v>
       </c>
@@ -24981,7 +24999,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66" s="25" t="s">
         <v>575</v>
       </c>
@@ -24995,7 +25013,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A67" s="25" t="s">
         <v>576</v>
       </c>
@@ -25009,7 +25027,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="25" t="s">
         <v>577</v>
       </c>
@@ -25023,7 +25041,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A69" s="25" t="s">
         <v>578</v>
       </c>
@@ -25037,7 +25055,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="25" t="s">
         <v>579</v>
       </c>
@@ -25051,7 +25069,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="25" t="s">
         <v>580</v>
       </c>
@@ -25065,7 +25083,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="25" t="s">
         <v>581</v>
       </c>
@@ -25079,7 +25097,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="25" t="s">
         <v>582</v>
       </c>
@@ -25093,7 +25111,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="25" t="s">
         <v>583</v>
       </c>
@@ -25107,7 +25125,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="25" t="s">
         <v>584</v>
       </c>
@@ -25121,7 +25139,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="25" t="s">
         <v>585</v>
       </c>
@@ -25135,7 +25153,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="25" t="s">
         <v>684</v>
       </c>
@@ -25149,7 +25167,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="25" t="s">
         <v>586</v>
       </c>
@@ -25163,7 +25181,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="25" t="s">
         <v>587</v>
       </c>
@@ -25177,7 +25195,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="25" t="s">
         <v>588</v>
       </c>
@@ -25188,7 +25206,7 @@
         <v>4.7916666666666663E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="25" t="s">
         <v>589</v>
       </c>
@@ -25202,7 +25220,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="25" t="s">
         <v>590</v>
       </c>
@@ -25216,7 +25234,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="25" t="s">
         <v>591</v>
       </c>
@@ -25230,7 +25248,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="25" t="s">
         <v>592</v>
       </c>
@@ -25244,7 +25262,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="25" t="s">
         <v>593</v>
       </c>
@@ -25258,7 +25276,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A86" s="25" t="s">
         <v>594</v>
       </c>
@@ -25272,7 +25290,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="25" t="s">
         <v>595</v>
       </c>
@@ -25286,7 +25304,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="25" t="s">
         <v>596</v>
       </c>
@@ -25300,7 +25318,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="25" t="s">
         <v>597</v>
       </c>
@@ -25314,7 +25332,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="25" t="s">
         <v>598</v>
       </c>
@@ -25328,7 +25346,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="25" t="s">
         <v>599</v>
       </c>
@@ -25339,7 +25357,7 @@
         <v>3.4722222222222224E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="25" t="s">
         <v>600</v>
       </c>
@@ -25350,7 +25368,7 @@
         <v>5.8333333333333327E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="25" t="s">
         <v>601</v>
       </c>
@@ -25361,7 +25379,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="25" t="s">
         <v>602</v>
       </c>
@@ -25375,7 +25393,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="25" t="s">
         <v>603</v>
       </c>
@@ -25389,7 +25407,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="25" t="s">
         <v>604</v>
       </c>
@@ -25403,7 +25421,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="25" t="s">
         <v>605</v>
       </c>
@@ -25417,7 +25435,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="25" t="s">
         <v>606</v>
       </c>
@@ -25431,7 +25449,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="25" t="s">
         <v>607</v>
       </c>
@@ -25445,7 +25463,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="25" t="s">
         <v>685</v>
       </c>
@@ -25459,7 +25477,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="25" t="s">
         <v>608</v>
       </c>
@@ -25473,7 +25491,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="25" t="s">
         <v>609</v>
       </c>
@@ -25484,7 +25502,7 @@
         <v>1.7361111111111112E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="25" t="s">
         <v>686</v>
       </c>
@@ -25498,7 +25516,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="25" t="s">
         <v>610</v>
       </c>
@@ -25512,7 +25530,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="25" t="s">
         <v>687</v>
       </c>
@@ -25526,7 +25544,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="25" t="s">
         <v>611</v>
       </c>
@@ -25537,7 +25555,7 @@
         <v>1.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="25" t="s">
         <v>612</v>
       </c>
@@ -25548,7 +25566,7 @@
         <v>8.3333333333333332E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="25" t="s">
         <v>613</v>
       </c>
@@ -25562,7 +25580,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="25" t="s">
         <v>614</v>
       </c>
@@ -25576,7 +25594,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="25" t="s">
         <v>615</v>
       </c>
@@ -25590,7 +25608,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="25" t="s">
         <v>688</v>
       </c>
@@ -25604,7 +25622,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="25" t="s">
         <v>689</v>
       </c>
@@ -25618,7 +25636,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="25" t="s">
         <v>690</v>
       </c>
@@ -25632,7 +25650,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="25" t="s">
         <v>691</v>
       </c>
@@ -25646,7 +25664,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="25" t="s">
         <v>692</v>
       </c>
@@ -25660,7 +25678,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="25" t="s">
         <v>693</v>
       </c>
@@ -25674,7 +25692,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="25" t="s">
         <v>616</v>
       </c>
@@ -25688,7 +25706,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="25" t="s">
         <v>617</v>
       </c>
@@ -25702,7 +25720,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="25" t="s">
         <v>694</v>
       </c>
@@ -25716,7 +25734,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" s="25" t="s">
         <v>618</v>
       </c>
@@ -25730,7 +25748,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" s="25" t="s">
         <v>619</v>
       </c>
@@ -25744,7 +25762,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="25" t="s">
         <v>620</v>
       </c>
@@ -25755,7 +25773,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="25" t="s">
         <v>621</v>
       </c>
@@ -25766,7 +25784,7 @@
         <v>3.4722222222222224E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="25" t="s">
         <v>622</v>
       </c>
@@ -25777,7 +25795,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="25" t="s">
         <v>623</v>
       </c>
@@ -25791,7 +25809,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A126" s="25" t="s">
         <v>624</v>
       </c>
@@ -25805,7 +25823,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="92" t="s">
         <v>625</v>
       </c>
@@ -25816,7 +25834,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="25" t="s">
         <v>626</v>
       </c>
@@ -25830,7 +25848,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="25" t="s">
         <v>695</v>
       </c>
@@ -25841,7 +25859,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A130" s="25" t="s">
         <v>627</v>
       </c>
@@ -25855,7 +25873,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="25" t="s">
         <v>696</v>
       </c>
@@ -25869,7 +25887,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="25" t="s">
         <v>628</v>
       </c>
@@ -25883,7 +25901,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="25" t="s">
         <v>629</v>
       </c>
@@ -25897,7 +25915,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="25" t="s">
         <v>630</v>
       </c>
@@ -25911,7 +25929,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="25" t="s">
         <v>631</v>
       </c>
@@ -25925,7 +25943,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="25" t="s">
         <v>632</v>
       </c>
@@ -25939,7 +25957,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="25" t="s">
         <v>633</v>
       </c>
@@ -25953,7 +25971,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="25" t="s">
         <v>634</v>
       </c>
@@ -25967,7 +25985,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="25" t="s">
         <v>635</v>
       </c>
@@ -25981,7 +25999,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="25" t="s">
         <v>636</v>
       </c>
@@ -25995,7 +26013,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="92" t="s">
         <v>637</v>
       </c>
@@ -26006,7 +26024,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="25" t="s">
         <v>638</v>
       </c>
@@ -26017,7 +26035,7 @@
         <v>3.4722222222222224E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A143" s="25" t="s">
         <v>639</v>
       </c>
@@ -26031,7 +26049,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="25" t="s">
         <v>640</v>
       </c>
@@ -26045,7 +26063,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="25" t="s">
         <v>641</v>
       </c>
@@ -26056,7 +26074,7 @@
         <v>4.5833333333333337E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="25" t="s">
         <v>642</v>
       </c>
@@ -26070,7 +26088,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="25" t="s">
         <v>643</v>
       </c>
@@ -26084,7 +26102,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="25" t="s">
         <v>644</v>
       </c>
@@ -26098,7 +26116,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="25" t="s">
         <v>645</v>
       </c>
@@ -26109,7 +26127,7 @@
         <v>4.3750000000000004E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="25" t="s">
         <v>697</v>
       </c>
@@ -26120,7 +26138,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="25" t="s">
         <v>698</v>
       </c>
@@ -26131,7 +26149,7 @@
         <v>0.14583333333333334</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="25" t="s">
         <v>699</v>
       </c>
@@ -26142,7 +26160,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="25" t="s">
         <v>646</v>
       </c>
@@ -26153,7 +26171,7 @@
         <v>7.8703703703703706E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="25" t="s">
         <v>647</v>
       </c>
@@ -26164,7 +26182,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="25" t="s">
         <v>700</v>
       </c>
@@ -26175,7 +26193,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="25" t="s">
         <v>701</v>
       </c>
@@ -26186,7 +26204,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="25" t="s">
         <v>702</v>
       </c>
@@ -26197,7 +26215,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="25" t="s">
         <v>648</v>
       </c>
@@ -26211,7 +26229,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="25" t="s">
         <v>649</v>
       </c>
@@ -26222,7 +26240,7 @@
         <v>2.7083333333333334E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="25" t="s">
         <v>650</v>
       </c>
@@ -26236,7 +26254,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="25" t="s">
         <v>651</v>
       </c>
@@ -26250,7 +26268,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="25" t="s">
         <v>652</v>
       </c>
@@ -26264,7 +26282,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="25" t="s">
         <v>653</v>
       </c>
@@ -26278,7 +26296,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="25" t="s">
         <v>654</v>
       </c>
@@ -26292,7 +26310,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="25" t="s">
         <v>655</v>
       </c>
@@ -26303,7 +26321,7 @@
         <v>3.8194444444444441E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="25" t="s">
         <v>656</v>
       </c>
@@ -26314,7 +26332,7 @@
         <v>3.4722222222222224E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="25" t="s">
         <v>657</v>
       </c>
@@ -26328,7 +26346,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="25" t="s">
         <v>658</v>
       </c>
@@ -26342,7 +26360,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="25" t="s">
         <v>659</v>
       </c>
@@ -26356,7 +26374,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="25" t="s">
         <v>660</v>
       </c>
@@ -26367,7 +26385,7 @@
         <v>4.1666666666666666E-3</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="25" t="s">
         <v>661</v>
       </c>
@@ -26381,7 +26399,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="25" t="s">
         <v>662</v>
       </c>
@@ -26395,7 +26413,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="25" t="s">
         <v>663</v>
       </c>
@@ -26409,7 +26427,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A174" s="25" t="s">
         <v>664</v>
       </c>
@@ -26423,7 +26441,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="92" t="s">
         <v>665</v>
       </c>
@@ -26434,7 +26452,7 @@
         <v>4.3750000000000004E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="25" t="s">
         <v>666</v>
       </c>
@@ -26448,7 +26466,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="92" t="s">
         <v>667</v>
       </c>
@@ -26462,7 +26480,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="25" t="s">
         <v>668</v>
       </c>
@@ -26473,7 +26491,7 @@
         <v>3.4722222222222224E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="92" t="s">
         <v>669</v>
       </c>
@@ -26484,7 +26502,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="25" t="s">
         <v>670</v>
       </c>
@@ -26495,7 +26513,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="25" t="s">
         <v>671</v>
       </c>
@@ -26506,7 +26524,7 @@
         <v>8.3333333333333332E-3</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="25" t="s">
         <v>672</v>
       </c>
@@ -26517,7 +26535,7 @@
         <v>4.8611111111111112E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="25" t="s">
         <v>673</v>
       </c>
@@ -26528,7 +26546,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="25" t="s">
         <v>674</v>
       </c>
@@ -26539,7 +26557,7 @@
         <v>5.6250000000000001E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="25" t="s">
         <v>675</v>
       </c>
@@ -26550,7 +26568,7 @@
         <v>6.0416666666666667E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="25" t="s">
         <v>676</v>
       </c>
@@ -26561,7 +26579,7 @@
         <v>3.5416666666666666E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="70" t="s">
         <v>677</v>
       </c>
@@ -26575,7 +26593,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="25" t="s">
         <v>678</v>
       </c>
@@ -26586,7 +26604,7 @@
         <v>2.7083333333333334E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="25" t="s">
         <v>679</v>
       </c>
@@ -26597,7 +26615,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="25" t="s">
         <v>680</v>
       </c>
@@ -26608,27 +26626,27 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" s="24" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" s="24" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" s="24" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" s="24" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" s="27" t="s">
         <v>782</v>
       </c>
@@ -26648,16 +26666,16 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31" style="4" customWidth="1"/>
-    <col min="2" max="2" width="2.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" style="4"/>
-    <col min="4" max="4" width="41.453125" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="9.26953125" style="4"/>
+    <col min="2" max="2" width="2.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" style="4"/>
+    <col min="4" max="4" width="41.44140625" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9.21875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>503</v>
       </c>
@@ -26665,7 +26683,7 @@
       <c r="C1" s="66"/>
       <c r="D1" s="66"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>504</v>
       </c>
@@ -26679,7 +26697,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>505</v>
       </c>
@@ -26690,7 +26708,7 @@
         <v>1.3194444444444444E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>506</v>
       </c>
@@ -26701,7 +26719,7 @@
         <v>5.8333333333333327E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>507</v>
       </c>
@@ -26712,7 +26730,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>508</v>
       </c>
@@ -26723,7 +26741,7 @@
         <v>2.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>509</v>
       </c>
@@ -26734,7 +26752,7 @@
         <v>5.8333333333333327E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>510</v>
       </c>
@@ -26748,7 +26766,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>511</v>
       </c>
@@ -26762,7 +26780,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>512</v>
       </c>
@@ -26776,7 +26794,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>513</v>
       </c>
@@ -26790,27 +26808,27 @@
         <v>781</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>1142</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>1143</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>1240</v>
       </c>
@@ -26829,29 +26847,29 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.26953125" style="2" customWidth="1"/>
-    <col min="4" max="5" width="9.26953125" style="2"/>
-    <col min="6" max="6" width="3.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="4.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="2.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="3.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="4.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="4.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.21875" style="2" customWidth="1"/>
+    <col min="4" max="5" width="9.21875" style="2"/>
+    <col min="6" max="6" width="3.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="2.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="3.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="4.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="4" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="3.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="2.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="29" width="2.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="3.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="1.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.26953125" style="2"/>
+    <col min="24" max="24" width="3.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="2.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="29" width="2.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="3.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="1.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.21875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C1" s="8" t="s">
         <v>391</v>
       </c>
@@ -26937,7 +26955,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>452</v>
       </c>
@@ -26955,7 +26973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>251</v>
       </c>
@@ -26976,7 +26994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>252</v>
       </c>
@@ -26994,7 +27012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>253</v>
       </c>
@@ -27015,7 +27033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>254</v>
       </c>
@@ -27033,7 +27051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>453</v>
       </c>
@@ -27051,7 +27069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>1236</v>
       </c>
@@ -27066,38 +27084,38 @@
   <dimension ref="A1:W39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.54296875" customWidth="1"/>
-    <col min="2" max="2" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.08984375" customWidth="1"/>
-    <col min="4" max="4" width="5.36328125" customWidth="1"/>
-    <col min="5" max="5" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="5.33203125" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.54296875" hidden="1" customWidth="1"/>
-    <col min="19" max="20" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.453125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.5546875" hidden="1" customWidth="1"/>
+    <col min="19" max="20" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.44140625" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="6" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="5.26953125" hidden="1" customWidth="1"/>
-    <col min="24" max="27" width="5.36328125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.26953125" customWidth="1"/>
+    <col min="23" max="23" width="5.21875" hidden="1" customWidth="1"/>
+    <col min="24" max="27" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>7</v>
       </c>
@@ -27123,7 +27141,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="73" t="s">
         <v>727</v>
       </c>
@@ -27150,7 +27168,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="73" t="s">
         <v>1094</v>
       </c>
@@ -27182,7 +27200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>728</v>
       </c>
@@ -27206,7 +27224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>729</v>
       </c>
@@ -27230,7 +27248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="74" t="s">
         <v>730</v>
       </c>
@@ -27257,7 +27275,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="73" t="s">
         <v>1093</v>
       </c>
@@ -27289,7 +27307,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>731</v>
       </c>
@@ -27313,7 +27331,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>732</v>
       </c>
@@ -27337,7 +27355,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>733</v>
       </c>
@@ -27361,7 +27379,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="73" t="s">
         <v>1092</v>
       </c>
@@ -27393,7 +27411,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>734</v>
       </c>
@@ -27417,7 +27435,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>735</v>
       </c>
@@ -27441,7 +27459,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>736</v>
       </c>
@@ -27465,7 +27483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>737</v>
       </c>
@@ -27489,7 +27507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="73" t="s">
         <v>1091</v>
       </c>
@@ -27521,7 +27539,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>738</v>
       </c>
@@ -27545,7 +27563,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>739</v>
       </c>
@@ -27569,7 +27587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>740</v>
       </c>
@@ -27593,7 +27611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="74" t="s">
         <v>741</v>
       </c>
@@ -27620,7 +27638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="73" t="s">
         <v>1090</v>
       </c>
@@ -27652,7 +27670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>742</v>
       </c>
@@ -27676,7 +27694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>743</v>
       </c>
@@ -27700,7 +27718,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="73" t="s">
         <v>744</v>
       </c>
@@ -27727,7 +27745,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="73" t="s">
         <v>745</v>
       </c>
@@ -27754,7 +27772,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="73" t="s">
         <v>746</v>
       </c>
@@ -27781,7 +27799,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="73" t="s">
         <v>1089</v>
       </c>
@@ -27813,7 +27831,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>747</v>
       </c>
@@ -27837,7 +27855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>748</v>
       </c>
@@ -27861,7 +27879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>749</v>
       </c>
@@ -27885,7 +27903,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>750</v>
       </c>
@@ -27909,7 +27927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="72" t="s">
         <v>751</v>
       </c>
@@ -27936,7 +27954,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="18"/>
     </row>
   </sheetData>

--- a/definice/1 Plazma tabulky.xlsx
+++ b/definice/1 Plazma tabulky.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projekty\tritium\definice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\dev\Tritium\definice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7298DA3E-566F-40EE-9C43-22370F76A3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461E1912-1AC3-4B70-AAE7-7765C8DB210D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{6F042B71-7817-4D45-938A-4B8F3E1BBE08}"/>
+    <workbookView xWindow="-30380" yWindow="5290" windowWidth="28800" windowHeight="15460" activeTab="6" xr2:uid="{6F042B71-7817-4D45-938A-4B8F3E1BBE08}"/>
   </bookViews>
   <sheets>
     <sheet name="všechny patogeny" sheetId="12" r:id="rId1"/>
@@ -26,17 +26,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -4621,7 +4610,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
     <cellStyle name="Normální 2" xfId="1" xr:uid="{BD769B5C-5369-4B04-80BB-71306B1D6291}"/>
     <cellStyle name="Normální 3" xfId="2" xr:uid="{A1B28C8E-5FFC-4613-9D0F-2AEAF2F190E2}"/>
     <cellStyle name="Normální 4" xfId="3" xr:uid="{4BBF5A81-0E0E-47BE-AFF5-45C385491A1E}"/>
@@ -4910,47 +4899,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F1428D0-7435-470B-93EB-4B64DA428810}">
   <dimension ref="A1:AU304"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="H86" sqref="H86"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" style="85" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" style="83" customWidth="1"/>
-    <col min="3" max="3" width="8.21875" style="86" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" style="83" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="83" customWidth="1"/>
-    <col min="6" max="6" width="4.21875" style="83" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" style="85" customWidth="1"/>
-    <col min="8" max="8" width="19.88671875" style="85" customWidth="1"/>
-    <col min="9" max="9" width="18.5546875" style="85" customWidth="1"/>
-    <col min="10" max="10" width="15.77734375" style="85" customWidth="1"/>
-    <col min="11" max="11" width="4.21875" style="85" customWidth="1"/>
-    <col min="12" max="13" width="4.77734375" style="83" customWidth="1"/>
-    <col min="14" max="18" width="5.77734375" style="83" customWidth="1"/>
+    <col min="1" max="1" width="24.90625" style="85" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.54296875" style="83" customWidth="1"/>
+    <col min="3" max="3" width="8.1796875" style="86" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" style="83" customWidth="1"/>
+    <col min="5" max="5" width="8.08984375" style="83" customWidth="1"/>
+    <col min="6" max="6" width="4.1796875" style="83" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.54296875" style="85" customWidth="1"/>
+    <col min="8" max="8" width="19.90625" style="85" customWidth="1"/>
+    <col min="9" max="9" width="18.54296875" style="85" customWidth="1"/>
+    <col min="10" max="10" width="15.81640625" style="85" customWidth="1"/>
+    <col min="11" max="11" width="4.1796875" style="85" customWidth="1"/>
+    <col min="12" max="13" width="4.81640625" style="83" customWidth="1"/>
+    <col min="14" max="18" width="5.81640625" style="83" customWidth="1"/>
     <col min="19" max="19" width="4" style="83" customWidth="1"/>
-    <col min="20" max="20" width="3.109375" style="83" customWidth="1"/>
-    <col min="21" max="22" width="4.33203125" style="83" customWidth="1"/>
-    <col min="23" max="23" width="2.44140625" style="83" customWidth="1"/>
-    <col min="24" max="26" width="2.88671875" style="83" customWidth="1"/>
-    <col min="27" max="30" width="3.21875" style="83" customWidth="1"/>
-    <col min="31" max="33" width="4.33203125" style="83" customWidth="1"/>
-    <col min="34" max="34" width="3.21875" style="83" customWidth="1"/>
-    <col min="35" max="36" width="4.21875" style="83" customWidth="1"/>
+    <col min="20" max="20" width="3.08984375" style="83" customWidth="1"/>
+    <col min="21" max="22" width="4.36328125" style="83" customWidth="1"/>
+    <col min="23" max="23" width="2.453125" style="83" customWidth="1"/>
+    <col min="24" max="26" width="2.90625" style="83" customWidth="1"/>
+    <col min="27" max="30" width="3.1796875" style="83" customWidth="1"/>
+    <col min="31" max="33" width="4.36328125" style="83" customWidth="1"/>
+    <col min="34" max="34" width="3.1796875" style="83" customWidth="1"/>
+    <col min="35" max="36" width="4.1796875" style="83" customWidth="1"/>
     <col min="37" max="37" width="4" style="83" customWidth="1"/>
-    <col min="38" max="38" width="3.109375" style="83" customWidth="1"/>
-    <col min="39" max="39" width="2.6640625" style="83" customWidth="1"/>
-    <col min="40" max="42" width="2.77734375" style="83" customWidth="1"/>
-    <col min="43" max="43" width="5.5546875" style="83" customWidth="1"/>
-    <col min="44" max="44" width="3.109375" style="83" customWidth="1"/>
+    <col min="38" max="38" width="3.08984375" style="83" customWidth="1"/>
+    <col min="39" max="39" width="2.6328125" style="83" customWidth="1"/>
+    <col min="40" max="42" width="2.81640625" style="83" customWidth="1"/>
+    <col min="43" max="43" width="5.54296875" style="83" customWidth="1"/>
+    <col min="44" max="44" width="3.08984375" style="83" customWidth="1"/>
     <col min="45" max="45" width="3" style="83" customWidth="1"/>
-    <col min="46" max="16384" width="9.21875" style="83"/>
+    <col min="46" max="16384" width="9.1796875" style="83"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="95" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:44" s="95" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="93" t="s">
         <v>1095</v>
       </c>
@@ -5084,7 +5073,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="2" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="76" t="s">
         <v>9</v>
       </c>
@@ -5135,7 +5124,7 @@
       <c r="AQ2" s="77"/>
       <c r="AR2" s="77"/>
     </row>
-    <row r="3" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="76" t="s">
         <v>114</v>
       </c>
@@ -5201,7 +5190,7 @@
       <c r="AQ3" s="77"/>
       <c r="AR3" s="77"/>
     </row>
-    <row r="4" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="76" t="s">
         <v>59</v>
       </c>
@@ -5268,7 +5257,7 @@
       <c r="AQ4" s="77"/>
       <c r="AR4" s="77"/>
     </row>
-    <row r="5" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="76" t="s">
         <v>115</v>
       </c>
@@ -5320,7 +5309,7 @@
       <c r="AQ5" s="77"/>
       <c r="AR5" s="77"/>
     </row>
-    <row r="6" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="76" t="s">
         <v>116</v>
       </c>
@@ -5372,7 +5361,7 @@
       <c r="AQ6" s="77"/>
       <c r="AR6" s="77"/>
     </row>
-    <row r="7" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="76" t="s">
         <v>117</v>
       </c>
@@ -5424,7 +5413,7 @@
       <c r="AQ7" s="77"/>
       <c r="AR7" s="77"/>
     </row>
-    <row r="8" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="76" t="s">
         <v>118</v>
       </c>
@@ -5476,7 +5465,7 @@
       <c r="AQ8" s="77"/>
       <c r="AR8" s="77"/>
     </row>
-    <row r="9" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="76" t="s">
         <v>119</v>
       </c>
@@ -5533,7 +5522,7 @@
       <c r="AQ9" s="77"/>
       <c r="AR9" s="77"/>
     </row>
-    <row r="10" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="76" t="s">
         <v>120</v>
       </c>
@@ -5585,7 +5574,7 @@
       <c r="AQ10" s="77"/>
       <c r="AR10" s="77"/>
     </row>
-    <row r="11" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="76" t="s">
         <v>10</v>
       </c>
@@ -5641,7 +5630,7 @@
       <c r="AQ11" s="77"/>
       <c r="AR11" s="77"/>
     </row>
-    <row r="12" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="76" t="s">
         <v>11</v>
       </c>
@@ -5700,7 +5689,7 @@
       <c r="AQ12" s="77"/>
       <c r="AR12" s="77"/>
     </row>
-    <row r="13" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="76" t="s">
         <v>12</v>
       </c>
@@ -5749,7 +5738,7 @@
       <c r="AQ13" s="77"/>
       <c r="AR13" s="77"/>
     </row>
-    <row r="14" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="76" t="s">
         <v>426</v>
       </c>
@@ -5801,7 +5790,7 @@
       <c r="AQ14" s="77"/>
       <c r="AR14" s="77"/>
     </row>
-    <row r="15" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="76" t="s">
         <v>121</v>
       </c>
@@ -5849,7 +5838,7 @@
       <c r="AQ15" s="77"/>
       <c r="AR15" s="77"/>
     </row>
-    <row r="16" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="76" t="s">
         <v>13</v>
       </c>
@@ -5911,7 +5900,7 @@
       <c r="AQ16" s="77"/>
       <c r="AR16" s="77"/>
     </row>
-    <row r="17" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="76" t="s">
         <v>218</v>
       </c>
@@ -5969,7 +5958,7 @@
       <c r="AQ17" s="77"/>
       <c r="AR17" s="77"/>
     </row>
-    <row r="18" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="76" t="s">
         <v>14</v>
       </c>
@@ -6031,7 +6020,7 @@
       <c r="AQ18" s="77"/>
       <c r="AR18" s="77"/>
     </row>
-    <row r="19" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="76" t="s">
         <v>15</v>
       </c>
@@ -6095,7 +6084,7 @@
       <c r="AQ19" s="77"/>
       <c r="AR19" s="77"/>
     </row>
-    <row r="20" spans="1:44" s="79" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:44" s="79" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A20" s="76" t="s">
         <v>122</v>
       </c>
@@ -6148,7 +6137,7 @@
       <c r="AQ20" s="77"/>
       <c r="AR20" s="77"/>
     </row>
-    <row r="21" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="76" t="s">
         <v>123</v>
       </c>
@@ -6209,7 +6198,7 @@
       <c r="AQ21" s="77"/>
       <c r="AR21" s="77"/>
     </row>
-    <row r="22" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="76" t="s">
         <v>124</v>
       </c>
@@ -6273,7 +6262,7 @@
       <c r="AQ22" s="77"/>
       <c r="AR22" s="77"/>
     </row>
-    <row r="23" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="76" t="s">
         <v>125</v>
       </c>
@@ -6328,7 +6317,7 @@
       <c r="AQ23" s="77"/>
       <c r="AR23" s="77"/>
     </row>
-    <row r="24" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="76" t="s">
         <v>16</v>
       </c>
@@ -6384,7 +6373,7 @@
       <c r="AQ24" s="77"/>
       <c r="AR24" s="77"/>
     </row>
-    <row r="25" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="76" t="s">
         <v>127</v>
       </c>
@@ -6432,7 +6421,7 @@
       <c r="AQ25" s="77"/>
       <c r="AR25" s="77"/>
     </row>
-    <row r="26" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="76" t="s">
         <v>128</v>
       </c>
@@ -6489,7 +6478,7 @@
       <c r="AQ26" s="77"/>
       <c r="AR26" s="77"/>
     </row>
-    <row r="27" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="76" t="s">
         <v>129</v>
       </c>
@@ -6541,7 +6530,7 @@
       <c r="AQ27" s="77"/>
       <c r="AR27" s="77"/>
     </row>
-    <row r="28" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="76" t="s">
         <v>130</v>
       </c>
@@ -6593,7 +6582,7 @@
       <c r="AQ28" s="77"/>
       <c r="AR28" s="77"/>
     </row>
-    <row r="29" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="76" t="s">
         <v>131</v>
       </c>
@@ -6645,7 +6634,7 @@
       <c r="AQ29" s="77"/>
       <c r="AR29" s="77"/>
     </row>
-    <row r="30" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="76" t="s">
         <v>60</v>
       </c>
@@ -6696,7 +6685,7 @@
       <c r="AQ30" s="77"/>
       <c r="AR30" s="77"/>
     </row>
-    <row r="31" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="76" t="s">
         <v>17</v>
       </c>
@@ -6754,7 +6743,7 @@
       <c r="AQ31" s="77"/>
       <c r="AR31" s="77"/>
     </row>
-    <row r="32" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="76" t="s">
         <v>132</v>
       </c>
@@ -6811,7 +6800,7 @@
       <c r="AQ32" s="77"/>
       <c r="AR32" s="77"/>
     </row>
-    <row r="33" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="76" t="s">
         <v>61</v>
       </c>
@@ -6860,7 +6849,7 @@
       <c r="AQ33" s="77"/>
       <c r="AR33" s="77"/>
     </row>
-    <row r="34" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="76" t="s">
         <v>133</v>
       </c>
@@ -6918,7 +6907,7 @@
       <c r="AQ34" s="77"/>
       <c r="AR34" s="77"/>
     </row>
-    <row r="35" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="76" t="s">
         <v>427</v>
       </c>
@@ -6963,7 +6952,7 @@
       <c r="AQ35" s="77"/>
       <c r="AR35" s="77"/>
     </row>
-    <row r="36" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="76" t="s">
         <v>428</v>
       </c>
@@ -7008,7 +6997,7 @@
       <c r="AQ36" s="77"/>
       <c r="AR36" s="77"/>
     </row>
-    <row r="37" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="76" t="s">
         <v>429</v>
       </c>
@@ -7053,7 +7042,7 @@
       <c r="AQ37" s="77"/>
       <c r="AR37" s="77"/>
     </row>
-    <row r="38" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="76" t="s">
         <v>134</v>
       </c>
@@ -7111,7 +7100,7 @@
       <c r="AQ38" s="77"/>
       <c r="AR38" s="77"/>
     </row>
-    <row r="39" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="76" t="s">
         <v>430</v>
       </c>
@@ -7156,7 +7145,7 @@
       <c r="AQ39" s="77"/>
       <c r="AR39" s="77"/>
     </row>
-    <row r="40" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="76" t="s">
         <v>431</v>
       </c>
@@ -7201,7 +7190,7 @@
       <c r="AQ40" s="77"/>
       <c r="AR40" s="77"/>
     </row>
-    <row r="41" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="76" t="s">
         <v>432</v>
       </c>
@@ -7246,7 +7235,7 @@
       <c r="AQ41" s="77"/>
       <c r="AR41" s="77"/>
     </row>
-    <row r="42" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="76" t="s">
         <v>433</v>
       </c>
@@ -7291,7 +7280,7 @@
       <c r="AQ42" s="77"/>
       <c r="AR42" s="77"/>
     </row>
-    <row r="43" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="76" t="s">
         <v>135</v>
       </c>
@@ -7349,7 +7338,7 @@
       <c r="AQ43" s="77"/>
       <c r="AR43" s="77"/>
     </row>
-    <row r="44" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="76" t="s">
         <v>434</v>
       </c>
@@ -7394,7 +7383,7 @@
       <c r="AQ44" s="77"/>
       <c r="AR44" s="77"/>
     </row>
-    <row r="45" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="76" t="s">
         <v>435</v>
       </c>
@@ -7439,7 +7428,7 @@
       <c r="AQ45" s="77"/>
       <c r="AR45" s="77"/>
     </row>
-    <row r="46" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="76" t="s">
         <v>136</v>
       </c>
@@ -7490,7 +7479,7 @@
       <c r="AQ46" s="77"/>
       <c r="AR46" s="77"/>
     </row>
-    <row r="47" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="76" t="s">
         <v>436</v>
       </c>
@@ -7535,7 +7524,7 @@
       <c r="AQ47" s="77"/>
       <c r="AR47" s="77"/>
     </row>
-    <row r="48" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="76" t="s">
         <v>437</v>
       </c>
@@ -7580,7 +7569,7 @@
       <c r="AQ48" s="77"/>
       <c r="AR48" s="77"/>
     </row>
-    <row r="49" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="76" t="s">
         <v>438</v>
       </c>
@@ -7625,7 +7614,7 @@
       <c r="AQ49" s="77"/>
       <c r="AR49" s="77"/>
     </row>
-    <row r="50" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="76" t="s">
         <v>439</v>
       </c>
@@ -7670,7 +7659,7 @@
       <c r="AQ50" s="77"/>
       <c r="AR50" s="77"/>
     </row>
-    <row r="51" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="76" t="s">
         <v>440</v>
       </c>
@@ -7715,7 +7704,7 @@
       <c r="AQ51" s="77"/>
       <c r="AR51" s="77"/>
     </row>
-    <row r="52" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="76" t="s">
         <v>137</v>
       </c>
@@ -7760,7 +7749,7 @@
       <c r="AQ52" s="77"/>
       <c r="AR52" s="77"/>
     </row>
-    <row r="53" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="76" t="s">
         <v>138</v>
       </c>
@@ -7812,7 +7801,7 @@
       <c r="AQ53" s="77"/>
       <c r="AR53" s="77"/>
     </row>
-    <row r="54" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="76" t="s">
         <v>18</v>
       </c>
@@ -7861,7 +7850,7 @@
       <c r="AQ54" s="77"/>
       <c r="AR54" s="77"/>
     </row>
-    <row r="55" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="76" t="s">
         <v>139</v>
       </c>
@@ -7917,7 +7906,7 @@
       <c r="AQ55" s="77"/>
       <c r="AR55" s="77"/>
     </row>
-    <row r="56" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="76" t="s">
         <v>140</v>
       </c>
@@ -7977,7 +7966,7 @@
       <c r="AQ56" s="77"/>
       <c r="AR56" s="77"/>
     </row>
-    <row r="57" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="76" t="s">
         <v>141</v>
       </c>
@@ -8037,7 +8026,7 @@
       <c r="AQ57" s="77"/>
       <c r="AR57" s="77"/>
     </row>
-    <row r="58" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="76" t="s">
         <v>142</v>
       </c>
@@ -8094,7 +8083,7 @@
       <c r="AQ58" s="77"/>
       <c r="AR58" s="77"/>
     </row>
-    <row r="59" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="76" t="s">
         <v>143</v>
       </c>
@@ -8154,7 +8143,7 @@
       <c r="AQ59" s="77"/>
       <c r="AR59" s="77"/>
     </row>
-    <row r="60" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="76" t="s">
         <v>144</v>
       </c>
@@ -8214,7 +8203,7 @@
       <c r="AQ60" s="77"/>
       <c r="AR60" s="77"/>
     </row>
-    <row r="61" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="76" t="s">
         <v>219</v>
       </c>
@@ -8275,7 +8264,7 @@
       <c r="AQ61" s="77"/>
       <c r="AR61" s="77"/>
     </row>
-    <row r="62" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="76" t="s">
         <v>451</v>
       </c>
@@ -8322,7 +8311,7 @@
       <c r="AQ62" s="77"/>
       <c r="AR62" s="77"/>
     </row>
-    <row r="63" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="76" t="s">
         <v>220</v>
       </c>
@@ -8376,7 +8365,7 @@
       <c r="AQ63" s="77"/>
       <c r="AR63" s="77"/>
     </row>
-    <row r="64" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="76" t="s">
         <v>221</v>
       </c>
@@ -8430,7 +8419,7 @@
       <c r="AQ64" s="77"/>
       <c r="AR64" s="77"/>
     </row>
-    <row r="65" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="76" t="s">
         <v>222</v>
       </c>
@@ -8484,7 +8473,7 @@
       <c r="AQ65" s="77"/>
       <c r="AR65" s="77"/>
     </row>
-    <row r="66" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="76" t="s">
         <v>223</v>
       </c>
@@ -8538,7 +8527,7 @@
       <c r="AQ66" s="77"/>
       <c r="AR66" s="77"/>
     </row>
-    <row r="67" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="76" t="s">
         <v>224</v>
       </c>
@@ -8592,7 +8581,7 @@
       <c r="AQ67" s="77"/>
       <c r="AR67" s="77"/>
     </row>
-    <row r="68" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="76" t="s">
         <v>225</v>
       </c>
@@ -8646,7 +8635,7 @@
       <c r="AQ68" s="77"/>
       <c r="AR68" s="77"/>
     </row>
-    <row r="69" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="76" t="s">
         <v>226</v>
       </c>
@@ -8700,7 +8689,7 @@
       <c r="AQ69" s="77"/>
       <c r="AR69" s="77"/>
     </row>
-    <row r="70" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A70" s="76" t="s">
         <v>227</v>
       </c>
@@ -8770,7 +8759,7 @@
       <c r="AQ70" s="77"/>
       <c r="AR70" s="77"/>
     </row>
-    <row r="71" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A71" s="76" t="s">
         <v>145</v>
       </c>
@@ -8822,7 +8811,7 @@
       <c r="AQ71" s="77"/>
       <c r="AR71" s="77"/>
     </row>
-    <row r="72" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="76" t="s">
         <v>146</v>
       </c>
@@ -8876,7 +8865,7 @@
       <c r="AQ72" s="77"/>
       <c r="AR72" s="77"/>
     </row>
-    <row r="73" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A73" s="76" t="s">
         <v>147</v>
       </c>
@@ -8928,7 +8917,7 @@
       <c r="AQ73" s="77"/>
       <c r="AR73" s="77"/>
     </row>
-    <row r="74" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="76" t="s">
         <v>148</v>
       </c>
@@ -8984,7 +8973,7 @@
       <c r="AQ74" s="77"/>
       <c r="AR74" s="77"/>
     </row>
-    <row r="75" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="76" t="s">
         <v>149</v>
       </c>
@@ -9036,7 +9025,7 @@
       <c r="AQ75" s="77"/>
       <c r="AR75" s="77"/>
     </row>
-    <row r="76" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="76" t="s">
         <v>228</v>
       </c>
@@ -9085,7 +9074,7 @@
       <c r="AQ76" s="77"/>
       <c r="AR76" s="77"/>
     </row>
-    <row r="77" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="76" t="s">
         <v>20</v>
       </c>
@@ -9149,7 +9138,7 @@
       <c r="AQ77" s="77"/>
       <c r="AR77" s="77"/>
     </row>
-    <row r="78" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="76" t="s">
         <v>152</v>
       </c>
@@ -9206,7 +9195,7 @@
       <c r="AQ78" s="77"/>
       <c r="AR78" s="77"/>
     </row>
-    <row r="79" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="76" t="s">
         <v>153</v>
       </c>
@@ -9263,7 +9252,7 @@
       <c r="AQ79" s="77"/>
       <c r="AR79" s="77"/>
     </row>
-    <row r="80" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="76" t="s">
         <v>154</v>
       </c>
@@ -9317,7 +9306,7 @@
       <c r="AQ80" s="77"/>
       <c r="AR80" s="77"/>
     </row>
-    <row r="81" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A81" s="76" t="s">
         <v>62</v>
       </c>
@@ -9386,7 +9375,7 @@
       <c r="AQ81" s="77"/>
       <c r="AR81" s="77"/>
     </row>
-    <row r="82" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="76" t="s">
         <v>155</v>
       </c>
@@ -9446,7 +9435,7 @@
       <c r="AQ82" s="77"/>
       <c r="AR82" s="77"/>
     </row>
-    <row r="83" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="76" t="s">
         <v>63</v>
       </c>
@@ -9497,7 +9486,7 @@
       <c r="AQ83" s="77"/>
       <c r="AR83" s="77"/>
     </row>
-    <row r="84" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="76" t="s">
         <v>64</v>
       </c>
@@ -9551,7 +9540,7 @@
       <c r="AQ84" s="77"/>
       <c r="AR84" s="77"/>
     </row>
-    <row r="85" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="76" t="s">
         <v>65</v>
       </c>
@@ -9605,7 +9594,7 @@
       <c r="AQ85" s="77"/>
       <c r="AR85" s="77"/>
     </row>
-    <row r="86" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="76" t="s">
         <v>66</v>
       </c>
@@ -9659,7 +9648,7 @@
       <c r="AQ86" s="77"/>
       <c r="AR86" s="77"/>
     </row>
-    <row r="87" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="76" t="s">
         <v>67</v>
       </c>
@@ -9713,7 +9702,7 @@
       <c r="AQ87" s="77"/>
       <c r="AR87" s="77"/>
     </row>
-    <row r="88" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="76" t="s">
         <v>68</v>
       </c>
@@ -9767,7 +9756,7 @@
       <c r="AQ88" s="77"/>
       <c r="AR88" s="77"/>
     </row>
-    <row r="89" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A89" s="76" t="s">
         <v>69</v>
       </c>
@@ -9821,7 +9810,7 @@
       <c r="AQ89" s="77"/>
       <c r="AR89" s="77"/>
     </row>
-    <row r="90" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="76" t="s">
         <v>70</v>
       </c>
@@ -9875,7 +9864,7 @@
       <c r="AQ90" s="77"/>
       <c r="AR90" s="77"/>
     </row>
-    <row r="91" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="76" t="s">
         <v>156</v>
       </c>
@@ -9927,7 +9916,7 @@
       <c r="AQ91" s="77"/>
       <c r="AR91" s="77"/>
     </row>
-    <row r="92" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A92" s="76" t="s">
         <v>71</v>
       </c>
@@ -9988,7 +9977,7 @@
       <c r="AQ92" s="77"/>
       <c r="AR92" s="77"/>
     </row>
-    <row r="93" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="76" t="s">
         <v>72</v>
       </c>
@@ -10049,7 +10038,7 @@
       <c r="AQ93" s="77"/>
       <c r="AR93" s="77"/>
     </row>
-    <row r="94" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A94" s="76" t="s">
         <v>229</v>
       </c>
@@ -10114,7 +10103,7 @@
       <c r="AQ94" s="77"/>
       <c r="AR94" s="77"/>
     </row>
-    <row r="95" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="76" t="s">
         <v>416</v>
       </c>
@@ -10169,7 +10158,7 @@
       <c r="AQ95" s="77"/>
       <c r="AR95" s="77"/>
     </row>
-    <row r="96" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="76" t="s">
         <v>157</v>
       </c>
@@ -10223,7 +10212,7 @@
       <c r="AQ96" s="77"/>
       <c r="AR96" s="77"/>
     </row>
-    <row r="97" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="76" t="s">
         <v>73</v>
       </c>
@@ -10287,7 +10276,7 @@
       <c r="AQ97" s="77"/>
       <c r="AR97" s="77"/>
     </row>
-    <row r="98" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="76" t="s">
         <v>21</v>
       </c>
@@ -10345,7 +10334,7 @@
       <c r="AQ98" s="77"/>
       <c r="AR98" s="77"/>
     </row>
-    <row r="99" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="76" t="s">
         <v>22</v>
       </c>
@@ -10401,7 +10390,7 @@
       <c r="AQ99" s="77"/>
       <c r="AR99" s="77"/>
     </row>
-    <row r="100" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="76" t="s">
         <v>23</v>
       </c>
@@ -10453,7 +10442,7 @@
       <c r="AQ100" s="77"/>
       <c r="AR100" s="77"/>
     </row>
-    <row r="101" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="76" t="s">
         <v>24</v>
       </c>
@@ -10516,7 +10505,7 @@
       <c r="AQ101" s="77"/>
       <c r="AR101" s="77"/>
     </row>
-    <row r="102" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="76" t="s">
         <v>25</v>
       </c>
@@ -10576,7 +10565,7 @@
       <c r="AQ102" s="77"/>
       <c r="AR102" s="77"/>
     </row>
-    <row r="103" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="76" t="s">
         <v>158</v>
       </c>
@@ -10624,7 +10613,7 @@
       <c r="AQ103" s="77"/>
       <c r="AR103" s="77"/>
     </row>
-    <row r="104" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="76" t="s">
         <v>26</v>
       </c>
@@ -10682,7 +10671,7 @@
       <c r="AQ104" s="77"/>
       <c r="AR104" s="77"/>
     </row>
-    <row r="105" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="76" t="s">
         <v>27</v>
       </c>
@@ -10740,7 +10729,7 @@
       <c r="AQ105" s="77"/>
       <c r="AR105" s="77"/>
     </row>
-    <row r="106" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="76" t="s">
         <v>74</v>
       </c>
@@ -10801,7 +10790,7 @@
       <c r="AQ106" s="77"/>
       <c r="AR106" s="77"/>
     </row>
-    <row r="107" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="76" t="s">
         <v>159</v>
       </c>
@@ -10863,7 +10852,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="108" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="76" t="s">
         <v>417</v>
       </c>
@@ -10908,7 +10897,7 @@
       <c r="AQ108" s="77"/>
       <c r="AR108" s="77"/>
     </row>
-    <row r="109" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="76" t="s">
         <v>418</v>
       </c>
@@ -10953,7 +10942,7 @@
       <c r="AQ109" s="77"/>
       <c r="AR109" s="77"/>
     </row>
-    <row r="110" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" s="76" t="s">
         <v>419</v>
       </c>
@@ -10998,7 +10987,7 @@
       <c r="AQ110" s="77"/>
       <c r="AR110" s="77"/>
     </row>
-    <row r="111" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" s="76" t="s">
         <v>420</v>
       </c>
@@ -11043,7 +11032,7 @@
       <c r="AQ111" s="77"/>
       <c r="AR111" s="77"/>
     </row>
-    <row r="112" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="76" t="s">
         <v>421</v>
       </c>
@@ -11088,7 +11077,7 @@
       <c r="AQ112" s="77"/>
       <c r="AR112" s="77"/>
     </row>
-    <row r="113" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="76" t="s">
         <v>422</v>
       </c>
@@ -11133,7 +11122,7 @@
       <c r="AQ113" s="77"/>
       <c r="AR113" s="77"/>
     </row>
-    <row r="114" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A114" s="76" t="s">
         <v>28</v>
       </c>
@@ -11189,7 +11178,7 @@
       <c r="AQ114" s="77"/>
       <c r="AR114" s="77"/>
     </row>
-    <row r="115" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A115" s="76" t="s">
         <v>29</v>
       </c>
@@ -11256,7 +11245,7 @@
       <c r="AQ115" s="77"/>
       <c r="AR115" s="77"/>
     </row>
-    <row r="116" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A116" s="76" t="s">
         <v>441</v>
       </c>
@@ -11304,7 +11293,7 @@
       <c r="AQ116" s="77"/>
       <c r="AR116" s="77"/>
     </row>
-    <row r="117" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A117" s="76" t="s">
         <v>30</v>
       </c>
@@ -11363,7 +11352,7 @@
       <c r="AQ117" s="77"/>
       <c r="AR117" s="77"/>
     </row>
-    <row r="118" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A118" s="76" t="s">
         <v>160</v>
       </c>
@@ -11419,7 +11408,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="119" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A119" s="76" t="s">
         <v>161</v>
       </c>
@@ -11477,7 +11466,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="120" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A120" s="76" t="s">
         <v>75</v>
       </c>
@@ -11552,7 +11541,7 @@
       <c r="AQ120" s="77"/>
       <c r="AR120" s="77"/>
     </row>
-    <row r="121" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A121" s="76" t="s">
         <v>230</v>
       </c>
@@ -11606,7 +11595,7 @@
       <c r="AQ121" s="77"/>
       <c r="AR121" s="77"/>
     </row>
-    <row r="122" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A122" s="76" t="s">
         <v>76</v>
       </c>
@@ -11673,7 +11662,7 @@
       <c r="AQ122" s="77"/>
       <c r="AR122" s="77"/>
     </row>
-    <row r="123" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A123" s="76" t="s">
         <v>162</v>
       </c>
@@ -11734,7 +11723,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="124" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A124" s="76" t="s">
         <v>163</v>
       </c>
@@ -11801,7 +11790,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="125" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A125" s="76" t="s">
         <v>164</v>
       </c>
@@ -11853,7 +11842,7 @@
       <c r="AQ125" s="77"/>
       <c r="AR125" s="77"/>
     </row>
-    <row r="126" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A126" s="76" t="s">
         <v>31</v>
       </c>
@@ -11911,7 +11900,7 @@
       <c r="AQ126" s="77"/>
       <c r="AR126" s="77"/>
     </row>
-    <row r="127" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A127" s="76" t="s">
         <v>32</v>
       </c>
@@ -11970,7 +11959,7 @@
       <c r="AQ127" s="77"/>
       <c r="AR127" s="77"/>
     </row>
-    <row r="128" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A128" s="76" t="s">
         <v>33</v>
       </c>
@@ -12019,7 +12008,7 @@
       <c r="AQ128" s="77"/>
       <c r="AR128" s="77"/>
     </row>
-    <row r="129" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A129" s="76" t="s">
         <v>34</v>
       </c>
@@ -12080,7 +12069,7 @@
       <c r="AQ129" s="77"/>
       <c r="AR129" s="77"/>
     </row>
-    <row r="130" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A130" s="76" t="s">
         <v>77</v>
       </c>
@@ -12123,7 +12112,7 @@
       <c r="AQ130" s="77"/>
       <c r="AR130" s="77"/>
     </row>
-    <row r="131" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A131" s="76" t="s">
         <v>78</v>
       </c>
@@ -12175,7 +12164,7 @@
       <c r="AQ131" s="77"/>
       <c r="AR131" s="77"/>
     </row>
-    <row r="132" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A132" s="76" t="s">
         <v>165</v>
       </c>
@@ -12227,7 +12216,7 @@
       <c r="AQ132" s="77"/>
       <c r="AR132" s="77"/>
     </row>
-    <row r="133" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A133" s="76" t="s">
         <v>442</v>
       </c>
@@ -12279,7 +12268,7 @@
       <c r="AQ133" s="77"/>
       <c r="AR133" s="77"/>
     </row>
-    <row r="134" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A134" s="76" t="s">
         <v>166</v>
       </c>
@@ -12331,7 +12320,7 @@
       <c r="AQ134" s="77"/>
       <c r="AR134" s="77"/>
     </row>
-    <row r="135" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A135" s="76" t="s">
         <v>167</v>
       </c>
@@ -12383,7 +12372,7 @@
       <c r="AQ135" s="77"/>
       <c r="AR135" s="77"/>
     </row>
-    <row r="136" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A136" s="76" t="s">
         <v>168</v>
       </c>
@@ -12442,7 +12431,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="137" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A137" s="76" t="s">
         <v>169</v>
       </c>
@@ -12501,7 +12490,7 @@
       <c r="AQ137" s="77"/>
       <c r="AR137" s="77"/>
     </row>
-    <row r="138" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A138" s="76" t="s">
         <v>170</v>
       </c>
@@ -12558,7 +12547,7 @@
       <c r="AQ138" s="77"/>
       <c r="AR138" s="77"/>
     </row>
-    <row r="139" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A139" s="76" t="s">
         <v>79</v>
       </c>
@@ -12615,7 +12604,7 @@
       <c r="AQ139" s="77"/>
       <c r="AR139" s="77"/>
     </row>
-    <row r="140" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A140" s="76" t="s">
         <v>80</v>
       </c>
@@ -12681,7 +12670,7 @@
       <c r="AQ140" s="77"/>
       <c r="AR140" s="77"/>
     </row>
-    <row r="141" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A141" s="76" t="s">
         <v>81</v>
       </c>
@@ -12738,7 +12727,7 @@
       <c r="AQ141" s="77"/>
       <c r="AR141" s="77"/>
     </row>
-    <row r="142" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A142" s="76" t="s">
         <v>82</v>
       </c>
@@ -12790,7 +12779,7 @@
       <c r="AQ142" s="77"/>
       <c r="AR142" s="77"/>
     </row>
-    <row r="143" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A143" s="76" t="s">
         <v>83</v>
       </c>
@@ -12853,7 +12842,7 @@
       <c r="AQ143" s="77"/>
       <c r="AR143" s="77"/>
     </row>
-    <row r="144" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A144" s="76" t="s">
         <v>84</v>
       </c>
@@ -12928,7 +12917,7 @@
       <c r="AQ144" s="77"/>
       <c r="AR144" s="77"/>
     </row>
-    <row r="145" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A145" s="76" t="s">
         <v>85</v>
       </c>
@@ -12988,7 +12977,7 @@
       <c r="AQ145" s="77"/>
       <c r="AR145" s="77"/>
     </row>
-    <row r="146" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A146" s="76" t="s">
         <v>35</v>
       </c>
@@ -13044,7 +13033,7 @@
       <c r="AQ146" s="77"/>
       <c r="AR146" s="77"/>
     </row>
-    <row r="147" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A147" s="76" t="s">
         <v>231</v>
       </c>
@@ -13100,7 +13089,7 @@
       <c r="AQ147" s="77"/>
       <c r="AR147" s="77"/>
     </row>
-    <row r="148" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A148" s="76" t="s">
         <v>1085</v>
       </c>
@@ -13157,7 +13146,7 @@
       <c r="AQ148" s="77"/>
       <c r="AR148" s="77"/>
     </row>
-    <row r="149" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A149" s="76" t="s">
         <v>928</v>
       </c>
@@ -13214,7 +13203,7 @@
       <c r="AQ149" s="77"/>
       <c r="AR149" s="77"/>
     </row>
-    <row r="150" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A150" s="76" t="s">
         <v>86</v>
       </c>
@@ -13262,7 +13251,7 @@
       <c r="AQ150" s="77"/>
       <c r="AR150" s="77"/>
     </row>
-    <row r="151" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A151" s="76" t="s">
         <v>87</v>
       </c>
@@ -13310,7 +13299,7 @@
       <c r="AQ151" s="77"/>
       <c r="AR151" s="77"/>
     </row>
-    <row r="152" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A152" s="76" t="s">
         <v>19</v>
       </c>
@@ -13369,7 +13358,7 @@
       <c r="AQ152" s="77"/>
       <c r="AR152" s="77"/>
     </row>
-    <row r="153" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A153" s="76" t="s">
         <v>150</v>
       </c>
@@ -13432,7 +13421,7 @@
       <c r="AQ153" s="77"/>
       <c r="AR153" s="77"/>
     </row>
-    <row r="154" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A154" s="76" t="s">
         <v>151</v>
       </c>
@@ -13505,7 +13494,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="155" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A155" s="76" t="s">
         <v>88</v>
       </c>
@@ -13566,7 +13555,7 @@
       <c r="AQ155" s="77"/>
       <c r="AR155" s="77"/>
     </row>
-    <row r="156" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A156" s="76" t="s">
         <v>89</v>
       </c>
@@ -13627,7 +13616,7 @@
       <c r="AQ156" s="77"/>
       <c r="AR156" s="77"/>
     </row>
-    <row r="157" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A157" s="76" t="s">
         <v>90</v>
       </c>
@@ -13683,7 +13672,7 @@
       <c r="AQ157" s="77"/>
       <c r="AR157" s="77"/>
     </row>
-    <row r="158" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A158" s="76" t="s">
         <v>718</v>
       </c>
@@ -13739,7 +13728,7 @@
       <c r="AQ158" s="77"/>
       <c r="AR158" s="77"/>
     </row>
-    <row r="159" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A159" s="76" t="s">
         <v>171</v>
       </c>
@@ -13797,7 +13786,7 @@
       <c r="AQ159" s="77"/>
       <c r="AR159" s="77"/>
     </row>
-    <row r="160" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A160" s="76" t="s">
         <v>172</v>
       </c>
@@ -13860,7 +13849,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="161" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A161" s="76" t="s">
         <v>173</v>
       </c>
@@ -13917,7 +13906,7 @@
       <c r="AQ161" s="77"/>
       <c r="AR161" s="77"/>
     </row>
-    <row r="162" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A162" s="76" t="s">
         <v>174</v>
       </c>
@@ -13974,7 +13963,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="163" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A163" s="76" t="s">
         <v>36</v>
       </c>
@@ -14033,7 +14022,7 @@
       <c r="AQ163" s="77"/>
       <c r="AR163" s="77"/>
     </row>
-    <row r="164" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A164" s="76" t="s">
         <v>175</v>
       </c>
@@ -14085,7 +14074,7 @@
       <c r="AQ164" s="77"/>
       <c r="AR164" s="77"/>
     </row>
-    <row r="165" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A165" s="76" t="s">
         <v>37</v>
       </c>
@@ -14144,7 +14133,7 @@
       <c r="AQ165" s="77"/>
       <c r="AR165" s="77"/>
     </row>
-    <row r="166" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A166" s="76" t="s">
         <v>38</v>
       </c>
@@ -14203,7 +14192,7 @@
       <c r="AQ166" s="77"/>
       <c r="AR166" s="77"/>
     </row>
-    <row r="167" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A167" s="76" t="s">
         <v>39</v>
       </c>
@@ -14262,7 +14251,7 @@
       <c r="AQ167" s="77"/>
       <c r="AR167" s="77"/>
     </row>
-    <row r="168" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A168" s="76" t="s">
         <v>176</v>
       </c>
@@ -14319,7 +14308,7 @@
       <c r="AQ168" s="77"/>
       <c r="AR168" s="77"/>
     </row>
-    <row r="169" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A169" s="76" t="s">
         <v>177</v>
       </c>
@@ -14381,7 +14370,7 @@
       <c r="AQ169" s="77"/>
       <c r="AR169" s="77"/>
     </row>
-    <row r="170" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A170" s="76" t="s">
         <v>40</v>
       </c>
@@ -14439,7 +14428,7 @@
       <c r="AQ170" s="77"/>
       <c r="AR170" s="77"/>
     </row>
-    <row r="171" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A171" s="76" t="s">
         <v>91</v>
       </c>
@@ -14486,7 +14475,7 @@
       <c r="AQ171" s="77"/>
       <c r="AR171" s="77"/>
     </row>
-    <row r="172" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A172" s="76" t="s">
         <v>92</v>
       </c>
@@ -14533,7 +14522,7 @@
       <c r="AQ172" s="77"/>
       <c r="AR172" s="77"/>
     </row>
-    <row r="173" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A173" s="76" t="s">
         <v>41</v>
       </c>
@@ -14583,7 +14572,7 @@
       <c r="AQ173" s="77"/>
       <c r="AR173" s="77"/>
     </row>
-    <row r="174" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A174" s="76" t="s">
         <v>178</v>
       </c>
@@ -14635,7 +14624,7 @@
       <c r="AQ174" s="77"/>
       <c r="AR174" s="77"/>
     </row>
-    <row r="175" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A175" s="76" t="s">
         <v>179</v>
       </c>
@@ -14687,7 +14676,7 @@
       <c r="AQ175" s="77"/>
       <c r="AR175" s="77"/>
     </row>
-    <row r="176" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A176" s="76" t="s">
         <v>180</v>
       </c>
@@ -14739,7 +14728,7 @@
       <c r="AQ176" s="77"/>
       <c r="AR176" s="77"/>
     </row>
-    <row r="177" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A177" s="76" t="s">
         <v>443</v>
       </c>
@@ -14791,7 +14780,7 @@
       <c r="AQ177" s="77"/>
       <c r="AR177" s="77"/>
     </row>
-    <row r="178" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A178" s="76" t="s">
         <v>232</v>
       </c>
@@ -14848,7 +14837,7 @@
       <c r="AQ178" s="77"/>
       <c r="AR178" s="77"/>
     </row>
-    <row r="179" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A179" s="76" t="s">
         <v>233</v>
       </c>
@@ -14895,7 +14884,7 @@
       <c r="AQ179" s="77"/>
       <c r="AR179" s="77"/>
     </row>
-    <row r="180" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A180" s="76" t="s">
         <v>93</v>
       </c>
@@ -14942,7 +14931,7 @@
       <c r="AQ180" s="77"/>
       <c r="AR180" s="77"/>
     </row>
-    <row r="181" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A181" s="76" t="s">
         <v>181</v>
       </c>
@@ -15000,7 +14989,7 @@
       <c r="AQ181" s="77"/>
       <c r="AR181" s="77"/>
     </row>
-    <row r="182" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A182" s="76" t="s">
         <v>234</v>
       </c>
@@ -15047,7 +15036,7 @@
       <c r="AQ182" s="77"/>
       <c r="AR182" s="77"/>
     </row>
-    <row r="183" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A183" s="76" t="s">
         <v>235</v>
       </c>
@@ -15100,7 +15089,7 @@
       <c r="AQ183" s="77"/>
       <c r="AR183" s="77"/>
     </row>
-    <row r="184" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A184" s="76" t="s">
         <v>236</v>
       </c>
@@ -15157,7 +15146,7 @@
       <c r="AQ184" s="77"/>
       <c r="AR184" s="77"/>
     </row>
-    <row r="185" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A185" s="76" t="s">
         <v>94</v>
       </c>
@@ -15204,7 +15193,7 @@
       <c r="AQ185" s="77"/>
       <c r="AR185" s="77"/>
     </row>
-    <row r="186" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A186" s="76" t="s">
         <v>182</v>
       </c>
@@ -15263,7 +15252,7 @@
       <c r="AQ186" s="77"/>
       <c r="AR186" s="77"/>
     </row>
-    <row r="187" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A187" s="76" t="s">
         <v>183</v>
       </c>
@@ -15326,7 +15315,7 @@
       <c r="AQ187" s="77"/>
       <c r="AR187" s="77"/>
     </row>
-    <row r="188" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A188" s="76" t="s">
         <v>184</v>
       </c>
@@ -15389,7 +15378,7 @@
       <c r="AQ188" s="77"/>
       <c r="AR188" s="77"/>
     </row>
-    <row r="189" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A189" s="76" t="s">
         <v>185</v>
       </c>
@@ -15452,7 +15441,7 @@
       <c r="AQ189" s="77"/>
       <c r="AR189" s="77"/>
     </row>
-    <row r="190" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A190" s="76" t="s">
         <v>42</v>
       </c>
@@ -15501,7 +15490,7 @@
       <c r="AQ190" s="77"/>
       <c r="AR190" s="77"/>
     </row>
-    <row r="191" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A191" s="76" t="s">
         <v>186</v>
       </c>
@@ -15564,7 +15553,7 @@
       <c r="AQ191" s="77"/>
       <c r="AR191" s="77"/>
     </row>
-    <row r="192" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A192" s="76" t="s">
         <v>187</v>
       </c>
@@ -15620,7 +15609,7 @@
       <c r="AQ192" s="77"/>
       <c r="AR192" s="77"/>
     </row>
-    <row r="193" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A193" s="76" t="s">
         <v>188</v>
       </c>
@@ -15680,7 +15669,7 @@
       <c r="AQ193" s="77"/>
       <c r="AR193" s="77"/>
     </row>
-    <row r="194" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A194" s="76" t="s">
         <v>95</v>
       </c>
@@ -15723,7 +15712,7 @@
       <c r="AQ194" s="77"/>
       <c r="AR194" s="77"/>
     </row>
-    <row r="195" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A195" s="76" t="s">
         <v>96</v>
       </c>
@@ -15770,7 +15759,7 @@
       </c>
       <c r="AR195" s="77"/>
     </row>
-    <row r="196" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A196" s="76" t="s">
         <v>97</v>
       </c>
@@ -15813,7 +15802,7 @@
       <c r="AQ196" s="77"/>
       <c r="AR196" s="77"/>
     </row>
-    <row r="197" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A197" s="76" t="s">
         <v>98</v>
       </c>
@@ -15856,7 +15845,7 @@
       <c r="AQ197" s="77"/>
       <c r="AR197" s="77"/>
     </row>
-    <row r="198" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A198" s="76" t="s">
         <v>43</v>
       </c>
@@ -15916,7 +15905,7 @@
       <c r="AQ198" s="77"/>
       <c r="AR198" s="77"/>
     </row>
-    <row r="199" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A199" s="76" t="s">
         <v>44</v>
       </c>
@@ -15974,7 +15963,7 @@
       <c r="AQ199" s="77"/>
       <c r="AR199" s="77"/>
     </row>
-    <row r="200" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A200" s="76" t="s">
         <v>99</v>
       </c>
@@ -16046,7 +16035,7 @@
       <c r="AQ200" s="77"/>
       <c r="AR200" s="77"/>
     </row>
-    <row r="201" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A201" s="76" t="s">
         <v>423</v>
       </c>
@@ -16104,7 +16093,7 @@
       <c r="AQ201" s="77"/>
       <c r="AR201" s="77"/>
     </row>
-    <row r="202" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A202" s="76" t="s">
         <v>100</v>
       </c>
@@ -16156,7 +16145,7 @@
       <c r="AQ202" s="77"/>
       <c r="AR202" s="77"/>
     </row>
-    <row r="203" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A203" s="76" t="s">
         <v>189</v>
       </c>
@@ -16208,7 +16197,7 @@
       <c r="AQ203" s="77"/>
       <c r="AR203" s="77"/>
     </row>
-    <row r="204" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A204" s="76" t="s">
         <v>45</v>
       </c>
@@ -16263,7 +16252,7 @@
       <c r="AQ204" s="77"/>
       <c r="AR204" s="77"/>
     </row>
-    <row r="205" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A205" s="76" t="s">
         <v>444</v>
       </c>
@@ -16316,7 +16305,7 @@
       <c r="AQ205" s="77"/>
       <c r="AR205" s="77"/>
     </row>
-    <row r="206" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A206" s="76" t="s">
         <v>237</v>
       </c>
@@ -16363,7 +16352,7 @@
       <c r="AQ206" s="77"/>
       <c r="AR206" s="77"/>
     </row>
-    <row r="207" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A207" s="76" t="s">
         <v>238</v>
       </c>
@@ -16419,7 +16408,7 @@
       <c r="AQ207" s="77"/>
       <c r="AR207" s="77"/>
     </row>
-    <row r="208" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A208" s="76" t="s">
         <v>239</v>
       </c>
@@ -16473,7 +16462,7 @@
       <c r="AQ208" s="77"/>
       <c r="AR208" s="77"/>
     </row>
-    <row r="209" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A209" s="76" t="s">
         <v>240</v>
       </c>
@@ -16520,7 +16509,7 @@
       <c r="AQ209" s="77"/>
       <c r="AR209" s="77"/>
     </row>
-    <row r="210" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A210" s="76" t="s">
         <v>445</v>
       </c>
@@ -16573,7 +16562,7 @@
       <c r="AQ210" s="77"/>
       <c r="AR210" s="77"/>
     </row>
-    <row r="211" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A211" s="76" t="s">
         <v>241</v>
       </c>
@@ -16628,7 +16617,7 @@
       </c>
       <c r="AR211" s="77"/>
     </row>
-    <row r="212" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A212" s="76" t="s">
         <v>242</v>
       </c>
@@ -16675,7 +16664,7 @@
       <c r="AQ212" s="77"/>
       <c r="AR212" s="77"/>
     </row>
-    <row r="213" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A213" s="76" t="s">
         <v>46</v>
       </c>
@@ -16735,7 +16724,7 @@
       <c r="AQ213" s="77"/>
       <c r="AR213" s="77"/>
     </row>
-    <row r="214" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A214" s="76" t="s">
         <v>47</v>
       </c>
@@ -16798,7 +16787,7 @@
       <c r="AQ214" s="77"/>
       <c r="AR214" s="77"/>
     </row>
-    <row r="215" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A215" s="76" t="s">
         <v>243</v>
       </c>
@@ -16857,7 +16846,7 @@
       <c r="AQ215" s="77"/>
       <c r="AR215" s="77"/>
     </row>
-    <row r="216" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A216" s="76" t="s">
         <v>101</v>
       </c>
@@ -16909,7 +16898,7 @@
       <c r="AQ216" s="77"/>
       <c r="AR216" s="77"/>
     </row>
-    <row r="217" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A217" s="76" t="s">
         <v>190</v>
       </c>
@@ -16963,7 +16952,7 @@
       <c r="AQ217" s="77"/>
       <c r="AR217" s="77"/>
     </row>
-    <row r="218" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A218" s="76" t="s">
         <v>102</v>
       </c>
@@ -17010,7 +16999,7 @@
       <c r="AQ218" s="77"/>
       <c r="AR218" s="77"/>
     </row>
-    <row r="219" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A219" s="76" t="s">
         <v>191</v>
       </c>
@@ -17064,7 +17053,7 @@
       <c r="AQ219" s="77"/>
       <c r="AR219" s="77"/>
     </row>
-    <row r="220" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A220" s="76" t="s">
         <v>192</v>
       </c>
@@ -17116,7 +17105,7 @@
       <c r="AQ220" s="77"/>
       <c r="AR220" s="77"/>
     </row>
-    <row r="221" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A221" s="76" t="s">
         <v>193</v>
       </c>
@@ -17168,7 +17157,7 @@
       <c r="AQ221" s="77"/>
       <c r="AR221" s="77"/>
     </row>
-    <row r="222" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A222" s="76" t="s">
         <v>446</v>
       </c>
@@ -17216,7 +17205,7 @@
       <c r="AQ222" s="77"/>
       <c r="AR222" s="77"/>
     </row>
-    <row r="223" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A223" s="76" t="s">
         <v>194</v>
       </c>
@@ -17275,7 +17264,7 @@
       <c r="AQ223" s="77"/>
       <c r="AR223" s="77"/>
     </row>
-    <row r="224" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A224" s="76" t="s">
         <v>195</v>
       </c>
@@ -17335,7 +17324,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="225" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A225" s="76" t="s">
         <v>196</v>
       </c>
@@ -17396,7 +17385,7 @@
       <c r="AQ225" s="77"/>
       <c r="AR225" s="77"/>
     </row>
-    <row r="226" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A226" s="76" t="s">
         <v>103</v>
       </c>
@@ -17445,7 +17434,7 @@
       </c>
       <c r="AR226" s="77"/>
     </row>
-    <row r="227" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A227" s="76" t="s">
         <v>425</v>
       </c>
@@ -17494,7 +17483,7 @@
       <c r="AQ227" s="77"/>
       <c r="AR227" s="77"/>
     </row>
-    <row r="228" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A228" s="76" t="s">
         <v>104</v>
       </c>
@@ -17556,7 +17545,7 @@
       <c r="AQ228" s="77"/>
       <c r="AR228" s="77"/>
     </row>
-    <row r="229" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A229" s="76" t="s">
         <v>244</v>
       </c>
@@ -17609,7 +17598,7 @@
       <c r="AQ229" s="77"/>
       <c r="AR229" s="77"/>
     </row>
-    <row r="230" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A230" s="76" t="s">
         <v>447</v>
       </c>
@@ -17662,7 +17651,7 @@
       <c r="AQ230" s="77"/>
       <c r="AR230" s="77"/>
     </row>
-    <row r="231" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A231" s="76" t="s">
         <v>105</v>
       </c>
@@ -17714,7 +17703,7 @@
       </c>
       <c r="AR231" s="77"/>
     </row>
-    <row r="232" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A232" s="76" t="s">
         <v>106</v>
       </c>
@@ -17777,7 +17766,7 @@
       <c r="AQ232" s="77"/>
       <c r="AR232" s="77"/>
     </row>
-    <row r="233" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A233" s="76" t="s">
         <v>197</v>
       </c>
@@ -17836,7 +17825,7 @@
       </c>
       <c r="AR233" s="77"/>
     </row>
-    <row r="234" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A234" s="76" t="s">
         <v>198</v>
       </c>
@@ -17895,7 +17884,7 @@
       </c>
       <c r="AR234" s="77"/>
     </row>
-    <row r="235" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A235" s="76" t="s">
         <v>245</v>
       </c>
@@ -17942,7 +17931,7 @@
       <c r="AQ235" s="77"/>
       <c r="AR235" s="77"/>
     </row>
-    <row r="236" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A236" s="76" t="s">
         <v>199</v>
       </c>
@@ -17999,7 +17988,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="237" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A237" s="76" t="s">
         <v>200</v>
       </c>
@@ -18063,7 +18052,7 @@
       </c>
       <c r="AR237" s="77"/>
     </row>
-    <row r="238" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A238" s="76" t="s">
         <v>201</v>
       </c>
@@ -18124,7 +18113,7 @@
       </c>
       <c r="AR238" s="77"/>
     </row>
-    <row r="239" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A239" s="76" t="s">
         <v>202</v>
       </c>
@@ -18188,7 +18177,7 @@
       </c>
       <c r="AR239" s="77"/>
     </row>
-    <row r="240" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A240" s="76" t="s">
         <v>49</v>
       </c>
@@ -18244,7 +18233,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="241" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A241" s="76" t="s">
         <v>48</v>
       </c>
@@ -18305,7 +18294,7 @@
       </c>
       <c r="AR241" s="77"/>
     </row>
-    <row r="242" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A242" s="76" t="s">
         <v>107</v>
       </c>
@@ -18352,7 +18341,7 @@
       <c r="AQ242" s="77"/>
       <c r="AR242" s="77"/>
     </row>
-    <row r="243" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A243" s="76" t="s">
         <v>246</v>
       </c>
@@ -18399,7 +18388,7 @@
       <c r="AQ243" s="77"/>
       <c r="AR243" s="77"/>
     </row>
-    <row r="244" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A244" s="76" t="s">
         <v>203</v>
       </c>
@@ -18470,7 +18459,7 @@
       <c r="AQ244" s="77"/>
       <c r="AR244" s="77"/>
     </row>
-    <row r="245" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A245" s="76" t="s">
         <v>449</v>
       </c>
@@ -18518,7 +18507,7 @@
       <c r="AQ245" s="77"/>
       <c r="AR245" s="77"/>
     </row>
-    <row r="246" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A246" s="76" t="s">
         <v>448</v>
       </c>
@@ -18566,7 +18555,7 @@
       <c r="AQ246" s="77"/>
       <c r="AR246" s="77"/>
     </row>
-    <row r="247" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A247" s="76" t="s">
         <v>204</v>
       </c>
@@ -18614,7 +18603,7 @@
       <c r="AQ247" s="77"/>
       <c r="AR247" s="77"/>
     </row>
-    <row r="248" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A248" s="76" t="s">
         <v>726</v>
       </c>
@@ -18681,7 +18670,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="249" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A249" s="76" t="s">
         <v>205</v>
       </c>
@@ -18733,7 +18722,7 @@
       <c r="AQ249" s="77"/>
       <c r="AR249" s="77"/>
     </row>
-    <row r="250" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A250" s="76" t="s">
         <v>206</v>
       </c>
@@ -18789,7 +18778,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="251" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A251" s="76" t="s">
         <v>207</v>
       </c>
@@ -18861,7 +18850,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="252" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A252" s="76" t="s">
         <v>450</v>
       </c>
@@ -18909,7 +18898,7 @@
       <c r="AQ252" s="77"/>
       <c r="AR252" s="77"/>
     </row>
-    <row r="253" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A253" s="76" t="s">
         <v>724</v>
       </c>
@@ -18971,7 +18960,7 @@
       <c r="AQ253" s="77"/>
       <c r="AR253" s="77"/>
     </row>
-    <row r="254" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A254" s="76" t="s">
         <v>725</v>
       </c>
@@ -19028,7 +19017,7 @@
       <c r="AQ254" s="77"/>
       <c r="AR254" s="77"/>
     </row>
-    <row r="255" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A255" s="76" t="s">
         <v>208</v>
       </c>
@@ -19098,7 +19087,7 @@
       <c r="AQ255" s="77"/>
       <c r="AR255" s="77"/>
     </row>
-    <row r="256" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A256" s="76" t="s">
         <v>209</v>
       </c>
@@ -19168,7 +19157,7 @@
       <c r="AQ256" s="77"/>
       <c r="AR256" s="77"/>
     </row>
-    <row r="257" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A257" s="76" t="s">
         <v>210</v>
       </c>
@@ -19220,7 +19209,7 @@
       <c r="AQ257" s="77"/>
       <c r="AR257" s="77"/>
     </row>
-    <row r="258" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A258" s="76" t="s">
         <v>723</v>
       </c>
@@ -19279,7 +19268,7 @@
       <c r="AQ258" s="77"/>
       <c r="AR258" s="77"/>
     </row>
-    <row r="259" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A259" s="76" t="s">
         <v>211</v>
       </c>
@@ -19341,7 +19330,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="260" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A260" s="76" t="s">
         <v>50</v>
       </c>
@@ -19407,7 +19396,7 @@
       </c>
       <c r="AR260" s="77"/>
     </row>
-    <row r="261" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A261" s="76" t="s">
         <v>108</v>
       </c>
@@ -19454,7 +19443,7 @@
       <c r="AQ261" s="77"/>
       <c r="AR261" s="77"/>
     </row>
-    <row r="262" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A262" s="76" t="s">
         <v>212</v>
       </c>
@@ -19508,7 +19497,7 @@
       <c r="AQ262" s="77"/>
       <c r="AR262" s="77"/>
     </row>
-    <row r="263" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A263" s="76" t="s">
         <v>51</v>
       </c>
@@ -19557,7 +19546,7 @@
       <c r="AQ263" s="77"/>
       <c r="AR263" s="77"/>
     </row>
-    <row r="264" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A264" s="76" t="s">
         <v>109</v>
       </c>
@@ -19604,7 +19593,7 @@
       <c r="AQ264" s="77"/>
       <c r="AR264" s="77"/>
     </row>
-    <row r="265" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A265" s="76" t="s">
         <v>52</v>
       </c>
@@ -19657,7 +19646,7 @@
       </c>
       <c r="AR265" s="77"/>
     </row>
-    <row r="266" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A266" s="76" t="s">
         <v>424</v>
       </c>
@@ -19702,7 +19691,7 @@
       <c r="AQ266" s="77"/>
       <c r="AR266" s="77"/>
     </row>
-    <row r="267" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A267" s="76" t="s">
         <v>53</v>
       </c>
@@ -19763,7 +19752,7 @@
       <c r="AQ267" s="77"/>
       <c r="AR267" s="77"/>
     </row>
-    <row r="268" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A268" s="76" t="s">
         <v>213</v>
       </c>
@@ -19820,7 +19809,7 @@
       <c r="AQ268" s="77"/>
       <c r="AR268" s="77"/>
     </row>
-    <row r="269" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A269" s="76" t="s">
         <v>214</v>
       </c>
@@ -19880,7 +19869,7 @@
       <c r="AQ269" s="77"/>
       <c r="AR269" s="77"/>
     </row>
-    <row r="270" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A270" s="76" t="s">
         <v>54</v>
       </c>
@@ -19940,7 +19929,7 @@
       </c>
       <c r="AR270" s="77"/>
     </row>
-    <row r="271" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A271" s="76" t="s">
         <v>55</v>
       </c>
@@ -19989,7 +19978,7 @@
       </c>
       <c r="AR271" s="77"/>
     </row>
-    <row r="272" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A272" s="76" t="s">
         <v>56</v>
       </c>
@@ -20049,7 +20038,7 @@
       <c r="AQ272" s="77"/>
       <c r="AR272" s="77"/>
     </row>
-    <row r="273" spans="1:47" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:47" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A273" s="76" t="s">
         <v>247</v>
       </c>
@@ -20096,7 +20085,7 @@
       <c r="AQ273" s="77"/>
       <c r="AR273" s="77"/>
     </row>
-    <row r="274" spans="1:47" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:47" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A274" s="76" t="s">
         <v>248</v>
       </c>
@@ -20143,7 +20132,7 @@
       <c r="AQ274" s="77"/>
       <c r="AR274" s="77"/>
     </row>
-    <row r="275" spans="1:47" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:47" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A275" s="76" t="s">
         <v>249</v>
       </c>
@@ -20190,7 +20179,7 @@
       <c r="AQ275" s="77"/>
       <c r="AR275" s="77"/>
     </row>
-    <row r="276" spans="1:47" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:47" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A276" s="76" t="s">
         <v>250</v>
       </c>
@@ -20237,7 +20226,7 @@
       <c r="AQ276" s="77"/>
       <c r="AR276" s="77"/>
     </row>
-    <row r="277" spans="1:47" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:47" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A277" s="76" t="s">
         <v>57</v>
       </c>
@@ -20299,7 +20288,7 @@
       <c r="AQ277" s="77"/>
       <c r="AR277" s="77"/>
     </row>
-    <row r="278" spans="1:47" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:47" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A278" s="76" t="s">
         <v>215</v>
       </c>
@@ -20358,7 +20347,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="279" spans="1:47" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:47" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A279" s="76" t="s">
         <v>110</v>
       </c>
@@ -20405,7 +20394,7 @@
       <c r="AQ279" s="77"/>
       <c r="AR279" s="77"/>
     </row>
-    <row r="280" spans="1:47" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:47" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A280" s="76" t="s">
         <v>808</v>
       </c>
@@ -20466,7 +20455,7 @@
       <c r="AQ280" s="77"/>
       <c r="AR280" s="77"/>
     </row>
-    <row r="281" spans="1:47" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:47" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A281" s="76" t="s">
         <v>111</v>
       </c>
@@ -20523,7 +20512,7 @@
       <c r="AQ281" s="77"/>
       <c r="AR281" s="77"/>
     </row>
-    <row r="282" spans="1:47" s="79" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:47" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A282" s="76" t="s">
         <v>216</v>
       </c>
@@ -20579,7 +20568,7 @@
       <c r="AQ282" s="77"/>
       <c r="AR282" s="77"/>
     </row>
-    <row r="283" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A283" s="80" t="s">
         <v>58</v>
       </c>
@@ -20632,7 +20621,7 @@
       <c r="AR283" s="81"/>
       <c r="AU283" s="79"/>
     </row>
-    <row r="284" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:47" ht="29" x14ac:dyDescent="0.35">
       <c r="A284" s="80" t="s">
         <v>112</v>
       </c>
@@ -20687,7 +20676,7 @@
       <c r="AR284" s="81"/>
       <c r="AU284" s="79"/>
     </row>
-    <row r="285" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A285" s="80" t="s">
         <v>113</v>
       </c>
@@ -20740,7 +20729,7 @@
       <c r="AR285" s="81"/>
       <c r="AU285" s="79"/>
     </row>
-    <row r="286" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A286" s="80" t="s">
         <v>217</v>
       </c>
@@ -20794,13 +20783,13 @@
       <c r="AR286" s="81"/>
       <c r="AU286" s="79"/>
     </row>
-    <row r="287" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:47" x14ac:dyDescent="0.35">
       <c r="AU287" s="79"/>
     </row>
-    <row r="288" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:47" x14ac:dyDescent="0.35">
       <c r="AU288" s="79"/>
     </row>
-    <row r="289" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A289" s="80"/>
       <c r="B289" s="87"/>
       <c r="P289" s="88" t="s">
@@ -20808,7 +20797,7 @@
       </c>
       <c r="AU289" s="79"/>
     </row>
-    <row r="290" spans="1:47" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:47" ht="29" x14ac:dyDescent="0.35">
       <c r="A290" s="89" t="s">
         <v>886</v>
       </c>
@@ -20859,7 +20848,7 @@
       <c r="AR290" s="81"/>
       <c r="AU290" s="79"/>
     </row>
-    <row r="291" spans="1:47" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:47" ht="29" x14ac:dyDescent="0.35">
       <c r="A291" s="89" t="s">
         <v>887</v>
       </c>
@@ -20910,7 +20899,7 @@
       <c r="AR291" s="81"/>
       <c r="AU291" s="79"/>
     </row>
-    <row r="292" spans="1:47" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:47" ht="29" x14ac:dyDescent="0.35">
       <c r="A292" s="89" t="s">
         <v>888</v>
       </c>
@@ -20961,7 +20950,7 @@
       <c r="AR292" s="81"/>
       <c r="AU292" s="79"/>
     </row>
-    <row r="293" spans="1:47" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:47" ht="29" x14ac:dyDescent="0.35">
       <c r="A293" s="89" t="s">
         <v>889</v>
       </c>
@@ -21014,7 +21003,7 @@
       <c r="AR293" s="81"/>
       <c r="AU293" s="79"/>
     </row>
-    <row r="294" spans="1:47" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:47" ht="29" x14ac:dyDescent="0.35">
       <c r="A294" s="89" t="s">
         <v>890</v>
       </c>
@@ -21059,7 +21048,7 @@
       <c r="AR294" s="81"/>
       <c r="AU294" s="79"/>
     </row>
-    <row r="295" spans="1:47" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:47" ht="29" x14ac:dyDescent="0.35">
       <c r="A295" s="89" t="s">
         <v>891</v>
       </c>
@@ -21104,7 +21093,7 @@
       <c r="AR295" s="81"/>
       <c r="AU295" s="79"/>
     </row>
-    <row r="296" spans="1:47" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:47" ht="58" x14ac:dyDescent="0.35">
       <c r="A296" s="80" t="s">
         <v>126</v>
       </c>
@@ -21120,7 +21109,7 @@
       <c r="K296" s="83"/>
       <c r="AU296" s="79"/>
     </row>
-    <row r="297" spans="1:47" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:47" ht="29" x14ac:dyDescent="0.35">
       <c r="A297" s="80" t="s">
         <v>892</v>
       </c>
@@ -21133,7 +21122,7 @@
       <c r="K297" s="83"/>
       <c r="AU297" s="79"/>
     </row>
-    <row r="298" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A298" s="80" t="s">
         <v>893</v>
       </c>
@@ -21146,7 +21135,7 @@
       <c r="K298" s="83"/>
       <c r="AU298" s="79"/>
     </row>
-    <row r="299" spans="1:47" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:47" ht="29" x14ac:dyDescent="0.35">
       <c r="A299" s="80" t="s">
         <v>894</v>
       </c>
@@ -21159,12 +21148,12 @@
       <c r="K299" s="83"/>
       <c r="AU299" s="79"/>
     </row>
-    <row r="300" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A300" s="80"/>
       <c r="B300" s="81"/>
       <c r="C300" s="82"/>
     </row>
-    <row r="301" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:47" x14ac:dyDescent="0.35">
       <c r="D301" s="81"/>
       <c r="E301" s="81"/>
       <c r="F301" s="81"/>
@@ -21199,17 +21188,17 @@
       <c r="AR301" s="81"/>
       <c r="AS301" s="81"/>
     </row>
-    <row r="302" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A302" s="80" t="s">
         <v>1237</v>
       </c>
     </row>
-    <row r="303" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A303" s="85" t="s">
         <v>1238</v>
       </c>
     </row>
-    <row r="304" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A304" s="85" t="s">
         <v>1239</v>
       </c>
@@ -21234,29 +21223,29 @@
   <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19:C19"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.21875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.21875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.21875" style="2"/>
+    <col min="1" max="1" width="24.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1796875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
         <v>396</v>
       </c>
@@ -21279,7 +21268,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>255</v>
       </c>
@@ -21290,7 +21279,7 @@
         <v>2.0833333333333333E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>256</v>
       </c>
@@ -21301,7 +21290,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>257</v>
       </c>
@@ -21312,7 +21301,7 @@
         <v>8.3333333333333332E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>258</v>
       </c>
@@ -21323,7 +21312,7 @@
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>259</v>
       </c>
@@ -21337,7 +21326,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>260</v>
       </c>
@@ -21351,7 +21340,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>261</v>
       </c>
@@ -21365,7 +21354,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>458</v>
       </c>
@@ -21382,7 +21371,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>459</v>
       </c>
@@ -21397,7 +21386,7 @@
       </c>
       <c r="E11" s="99"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>460</v>
       </c>
@@ -21412,7 +21401,7 @@
       </c>
       <c r="E12" s="99"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>461</v>
       </c>
@@ -21427,7 +21416,7 @@
       </c>
       <c r="E13" s="99"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>462</v>
       </c>
@@ -21442,7 +21431,7 @@
       </c>
       <c r="E14" s="100"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>262</v>
       </c>
@@ -21456,7 +21445,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>263</v>
       </c>
@@ -21470,7 +21459,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>264</v>
       </c>
@@ -21481,7 +21470,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>265</v>
       </c>
@@ -21492,7 +21481,7 @@
         <v>2.2916666666666669E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>266</v>
       </c>
@@ -21515,7 +21504,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>267</v>
       </c>
@@ -21538,7 +21527,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>268</v>
       </c>
@@ -21561,7 +21550,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>269</v>
       </c>
@@ -21584,7 +21573,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>270</v>
       </c>
@@ -21607,7 +21596,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>271</v>
       </c>
@@ -21618,7 +21607,7 @@
         <v>3.5416666666666666E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>272</v>
       </c>
@@ -21629,7 +21618,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>273</v>
       </c>
@@ -21643,7 +21632,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>274</v>
       </c>
@@ -21654,7 +21643,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>275</v>
       </c>
@@ -21674,7 +21663,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>276</v>
       </c>
@@ -21685,7 +21674,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>277</v>
       </c>
@@ -21696,7 +21685,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>278</v>
       </c>
@@ -21716,7 +21705,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>279</v>
       </c>
@@ -21736,7 +21725,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>280</v>
       </c>
@@ -21756,7 +21745,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>281</v>
       </c>
@@ -21767,7 +21756,7 @@
         <v>1.8749999999999999E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>282</v>
       </c>
@@ -21778,7 +21767,7 @@
         <v>4.9999999999999996E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>283</v>
       </c>
@@ -21792,7 +21781,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>284</v>
       </c>
@@ -21806,7 +21795,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>285</v>
       </c>
@@ -21820,7 +21809,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>286</v>
       </c>
@@ -21831,7 +21820,7 @@
         <v>6.2499999999999995E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>287</v>
       </c>
@@ -21842,7 +21831,7 @@
         <v>6.2499999999999995E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>288</v>
       </c>
@@ -21853,7 +21842,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>289</v>
       </c>
@@ -21864,7 +21853,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>290</v>
       </c>
@@ -21878,7 +21867,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>463</v>
       </c>
@@ -21892,7 +21881,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>464</v>
       </c>
@@ -21906,7 +21895,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>291</v>
       </c>
@@ -21917,7 +21906,7 @@
         <v>1.8749999999999999E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>292</v>
       </c>
@@ -21937,7 +21926,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>293</v>
       </c>
@@ -21957,7 +21946,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>294</v>
       </c>
@@ -21977,7 +21966,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>295</v>
       </c>
@@ -21997,7 +21986,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>296</v>
       </c>
@@ -22008,7 +21997,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>297</v>
       </c>
@@ -22022,7 +22011,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>298</v>
       </c>
@@ -22033,7 +22022,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>299</v>
       </c>
@@ -22044,7 +22033,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>300</v>
       </c>
@@ -22055,7 +22044,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>301</v>
       </c>
@@ -22066,7 +22055,7 @@
         <v>2.0833333333333333E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>302</v>
       </c>
@@ -22077,7 +22066,7 @@
         <v>6.2499999999999995E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>303</v>
       </c>
@@ -22088,7 +22077,7 @@
         <v>4.5833333333333337E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>304</v>
       </c>
@@ -22108,7 +22097,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>305</v>
       </c>
@@ -22119,7 +22108,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>306</v>
       </c>
@@ -22130,7 +22119,7 @@
         <v>2.9166666666666664E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>307</v>
       </c>
@@ -22141,7 +22130,7 @@
         <v>1.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>308</v>
       </c>
@@ -22152,7 +22141,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>309</v>
       </c>
@@ -22163,7 +22152,7 @@
         <v>2.7083333333333334E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>310</v>
       </c>
@@ -22174,7 +22163,7 @@
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>311</v>
       </c>
@@ -22188,7 +22177,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>312</v>
       </c>
@@ -22202,7 +22191,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>313</v>
       </c>
@@ -22213,7 +22202,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>314</v>
       </c>
@@ -22233,7 +22222,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>315</v>
       </c>
@@ -22257,7 +22246,7 @@
       </c>
       <c r="H70" s="14"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>316</v>
       </c>
@@ -22277,7 +22266,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>317</v>
       </c>
@@ -22297,7 +22286,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>318</v>
       </c>
@@ -22308,7 +22297,7 @@
         <v>1.4583333333333332E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>319</v>
       </c>
@@ -22319,7 +22308,7 @@
         <v>2.9166666666666664E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>320</v>
       </c>
@@ -22333,7 +22322,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" s="13" t="s">
         <v>321</v>
       </c>
@@ -22344,7 +22333,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>322</v>
       </c>
@@ -22355,7 +22344,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>323</v>
       </c>
@@ -22369,7 +22358,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>324</v>
       </c>
@@ -22380,7 +22369,7 @@
         <v>2.9166666666666664E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>325</v>
       </c>
@@ -22394,7 +22383,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
         <v>326</v>
       </c>
@@ -22405,7 +22394,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
         <v>327</v>
       </c>
@@ -22416,7 +22405,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
         <v>328</v>
       </c>
@@ -22436,7 +22425,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
         <v>329</v>
       </c>
@@ -22456,7 +22445,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
         <v>330</v>
       </c>
@@ -22467,7 +22456,7 @@
         <v>2.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
         <v>331</v>
       </c>
@@ -22487,7 +22476,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
         <v>332</v>
       </c>
@@ -22507,7 +22496,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
         <v>333</v>
       </c>
@@ -22521,7 +22510,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
         <v>334</v>
       </c>
@@ -22532,7 +22521,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
         <v>335</v>
       </c>
@@ -22543,7 +22532,7 @@
         <v>2.2916666666666669E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
         <v>336</v>
       </c>
@@ -22554,7 +22543,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
         <v>337</v>
       </c>
@@ -22565,7 +22554,7 @@
         <v>6.0416666666666667E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
         <v>338</v>
       </c>
@@ -22585,7 +22574,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
         <v>339</v>
       </c>
@@ -22605,7 +22594,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
         <v>340</v>
       </c>
@@ -22625,7 +22614,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
         <v>341</v>
       </c>
@@ -22662,25 +22651,25 @@
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="A45" sqref="A45:C45"/>
+      <selection pane="bottomLeft" activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.109375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.21875" style="2"/>
+    <col min="1" max="1" width="24.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.08984375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
         <v>854</v>
       </c>
@@ -22697,7 +22686,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>342</v>
       </c>
@@ -22714,7 +22703,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>343</v>
       </c>
@@ -22728,7 +22717,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>344</v>
       </c>
@@ -22742,7 +22731,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>345</v>
       </c>
@@ -22756,7 +22745,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>346</v>
       </c>
@@ -22770,7 +22759,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>347</v>
       </c>
@@ -22784,7 +22773,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>348</v>
       </c>
@@ -22798,7 +22787,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>349</v>
       </c>
@@ -22812,7 +22801,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>350</v>
       </c>
@@ -22826,7 +22815,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>351</v>
       </c>
@@ -22840,7 +22829,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>352</v>
       </c>
@@ -22854,7 +22843,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>353</v>
       </c>
@@ -22868,7 +22857,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>354</v>
       </c>
@@ -22882,7 +22871,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>355</v>
       </c>
@@ -22896,7 +22885,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>356</v>
       </c>
@@ -22913,7 +22902,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>357</v>
       </c>
@@ -22927,7 +22916,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>358</v>
       </c>
@@ -22944,7 +22933,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>359</v>
       </c>
@@ -22961,7 +22950,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>360</v>
       </c>
@@ -22978,7 +22967,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>361</v>
       </c>
@@ -22992,7 +22981,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>362</v>
       </c>
@@ -23006,7 +22995,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>465</v>
       </c>
@@ -23020,7 +23009,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>363</v>
       </c>
@@ -23037,7 +23026,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>262</v>
       </c>
@@ -23051,7 +23040,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>364</v>
       </c>
@@ -23065,7 +23054,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>365</v>
       </c>
@@ -23079,7 +23068,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>366</v>
       </c>
@@ -23096,7 +23085,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>367</v>
       </c>
@@ -23110,7 +23099,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>368</v>
       </c>
@@ -23124,7 +23113,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>369</v>
       </c>
@@ -23138,7 +23127,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>370</v>
       </c>
@@ -23155,7 +23144,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>275</v>
       </c>
@@ -23169,7 +23158,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>371</v>
       </c>
@@ -23186,7 +23175,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>372</v>
       </c>
@@ -23203,7 +23192,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>373</v>
       </c>
@@ -23217,7 +23206,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>374</v>
       </c>
@@ -23231,7 +23220,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>375</v>
       </c>
@@ -23248,7 +23237,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>376</v>
       </c>
@@ -23265,7 +23254,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>377</v>
       </c>
@@ -23282,7 +23271,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>378</v>
       </c>
@@ -23299,7 +23288,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>303</v>
       </c>
@@ -23313,7 +23302,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>379</v>
       </c>
@@ -23327,7 +23316,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>380</v>
       </c>
@@ -23341,7 +23330,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>381</v>
       </c>
@@ -23355,7 +23344,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>311</v>
       </c>
@@ -23369,7 +23358,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>382</v>
       </c>
@@ -23386,7 +23375,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>383</v>
       </c>
@@ -23403,7 +23392,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>384</v>
       </c>
@@ -23417,7 +23406,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>385</v>
       </c>
@@ -23431,7 +23420,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>386</v>
       </c>
@@ -23445,7 +23434,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>387</v>
       </c>
@@ -23462,7 +23451,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>388</v>
       </c>
@@ -23479,7 +23468,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>389</v>
       </c>
@@ -23493,7 +23482,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>466</v>
       </c>
@@ -23510,7 +23499,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>467</v>
       </c>
@@ -23525,7 +23514,7 @@
       </c>
       <c r="E57" s="101"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>468</v>
       </c>
@@ -23540,7 +23529,7 @@
       </c>
       <c r="E58" s="101"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>469</v>
       </c>
@@ -23557,7 +23546,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>470</v>
       </c>
@@ -23572,7 +23561,7 @@
       </c>
       <c r="E60" s="101"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>471</v>
       </c>
@@ -23587,7 +23576,7 @@
       </c>
       <c r="E61" s="101"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>390</v>
       </c>
@@ -23621,16 +23610,16 @@
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="85.77734375" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="9.21875" style="4"/>
+    <col min="1" max="1" width="34.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="85.81640625" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>884</v>
       </c>
@@ -23642,7 +23631,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
         <v>472</v>
       </c>
@@ -23656,7 +23645,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="21" t="s">
         <v>473</v>
       </c>
@@ -23670,7 +23659,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="21" t="s">
         <v>474</v>
       </c>
@@ -23682,7 +23671,7 @@
       </c>
       <c r="D4" s="23"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="21" t="s">
         <v>475</v>
       </c>
@@ -23696,7 +23685,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="21" t="s">
         <v>476</v>
       </c>
@@ -23708,7 +23697,7 @@
       </c>
       <c r="D6" s="23"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="21" t="s">
         <v>477</v>
       </c>
@@ -23720,7 +23709,7 @@
       </c>
       <c r="D7" s="23"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="21" t="s">
         <v>502</v>
       </c>
@@ -23734,7 +23723,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="21" t="s">
         <v>478</v>
       </c>
@@ -23746,7 +23735,7 @@
       </c>
       <c r="D9" s="23"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="21" t="s">
         <v>479</v>
       </c>
@@ -23760,7 +23749,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="21" t="s">
         <v>480</v>
       </c>
@@ -23774,7 +23763,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="21" t="s">
         <v>481</v>
       </c>
@@ -23786,7 +23775,7 @@
       </c>
       <c r="D12" s="23"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="21" t="s">
         <v>482</v>
       </c>
@@ -23800,7 +23789,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="21" t="s">
         <v>483</v>
       </c>
@@ -23812,7 +23801,7 @@
       </c>
       <c r="D14" s="23"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="21" t="s">
         <v>484</v>
       </c>
@@ -23824,7 +23813,7 @@
       </c>
       <c r="D15" s="23"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="21" t="s">
         <v>485</v>
       </c>
@@ -23838,7 +23827,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="21" t="s">
         <v>486</v>
       </c>
@@ -23852,7 +23841,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="21" t="s">
         <v>487</v>
       </c>
@@ -23866,7 +23855,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="21" t="s">
         <v>488</v>
       </c>
@@ -23880,7 +23869,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="21" t="s">
         <v>489</v>
       </c>
@@ -23894,7 +23883,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="21" t="s">
         <v>490</v>
       </c>
@@ -23908,7 +23897,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="21" t="s">
         <v>491</v>
       </c>
@@ -23922,7 +23911,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="21" t="s">
         <v>492</v>
       </c>
@@ -23936,7 +23925,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="21" t="s">
         <v>493</v>
       </c>
@@ -23950,7 +23939,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="21" t="s">
         <v>494</v>
       </c>
@@ -23964,7 +23953,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="21" t="s">
         <v>495</v>
       </c>
@@ -23978,7 +23967,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="21" t="s">
         <v>496</v>
       </c>
@@ -23992,7 +23981,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="21" t="s">
         <v>497</v>
       </c>
@@ -24006,7 +23995,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="21" t="s">
         <v>498</v>
       </c>
@@ -24020,7 +24009,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="21" t="s">
         <v>499</v>
       </c>
@@ -24032,7 +24021,7 @@
       </c>
       <c r="D30" s="23"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="21" t="s">
         <v>500</v>
       </c>
@@ -24044,7 +24033,7 @@
       </c>
       <c r="D31" s="23"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="21" t="s">
         <v>501</v>
       </c>
@@ -24056,52 +24045,52 @@
       </c>
       <c r="D32" s="23"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
         <v>1138</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
         <v>1139</v>
       </c>
@@ -24117,26 +24106,26 @@
   <dimension ref="A1:D197"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="33" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.77734375" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.21875" style="68"/>
-    <col min="4" max="4" width="59.77734375" style="26" customWidth="1"/>
-    <col min="5" max="16384" width="9.21875" style="25"/>
+    <col min="2" max="2" width="4.81640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="68"/>
+    <col min="4" max="4" width="59.81640625" style="26" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>514</v>
       </c>
       <c r="C1" s="67"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="25" t="s">
         <v>515</v>
       </c>
@@ -24150,7 +24139,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="25" t="s">
         <v>516</v>
       </c>
@@ -24164,7 +24153,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="25" t="s">
         <v>517</v>
       </c>
@@ -24178,7 +24167,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="25" t="s">
         <v>518</v>
       </c>
@@ -24192,7 +24181,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="25" t="s">
         <v>519</v>
       </c>
@@ -24206,7 +24195,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="25" t="s">
         <v>520</v>
       </c>
@@ -24220,7 +24209,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="25" t="s">
         <v>521</v>
       </c>
@@ -24234,7 +24223,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="25" t="s">
         <v>522</v>
       </c>
@@ -24248,7 +24237,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="25" t="s">
         <v>523</v>
       </c>
@@ -24262,7 +24251,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="25" t="s">
         <v>524</v>
       </c>
@@ -24273,7 +24262,7 @@
         <v>6.0416666666666667E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="25" t="s">
         <v>525</v>
       </c>
@@ -24284,7 +24273,7 @@
         <v>8.6805555555555559E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="25" t="s">
         <v>526</v>
       </c>
@@ -24295,7 +24284,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="25" t="s">
         <v>527</v>
       </c>
@@ -24309,7 +24298,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="25" t="s">
         <v>528</v>
       </c>
@@ -24320,7 +24309,7 @@
         <v>8.2638888888888887E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="25" t="s">
         <v>529</v>
       </c>
@@ -24331,7 +24320,7 @@
         <v>7.6388888888888895E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="25" t="s">
         <v>530</v>
       </c>
@@ -24345,7 +24334,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="25" t="s">
         <v>531</v>
       </c>
@@ -24359,7 +24348,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="25" t="s">
         <v>532</v>
       </c>
@@ -24373,7 +24362,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="25" t="s">
         <v>533</v>
       </c>
@@ -24387,7 +24376,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="25" t="s">
         <v>534</v>
       </c>
@@ -24401,7 +24390,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="25" t="s">
         <v>535</v>
       </c>
@@ -24415,7 +24404,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="25" t="s">
         <v>536</v>
       </c>
@@ -24429,7 +24418,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="25" t="s">
         <v>681</v>
       </c>
@@ -24443,7 +24432,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="25" t="s">
         <v>537</v>
       </c>
@@ -24457,7 +24446,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="25" t="s">
         <v>538</v>
       </c>
@@ -24471,7 +24460,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="25" t="s">
         <v>539</v>
       </c>
@@ -24485,7 +24474,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="25" t="s">
         <v>353</v>
       </c>
@@ -24496,7 +24485,7 @@
         <v>2.2916666666666669E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="25" t="s">
         <v>540</v>
       </c>
@@ -24510,7 +24499,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="25" t="s">
         <v>541</v>
       </c>
@@ -24524,7 +24513,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="25" t="s">
         <v>542</v>
       </c>
@@ -24538,7 +24527,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="25" t="s">
         <v>543</v>
       </c>
@@ -24552,7 +24541,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="25" t="s">
         <v>544</v>
       </c>
@@ -24566,7 +24555,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="25" t="s">
         <v>545</v>
       </c>
@@ -24580,7 +24569,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="25" t="s">
         <v>546</v>
       </c>
@@ -24594,7 +24583,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="25" t="s">
         <v>682</v>
       </c>
@@ -24608,7 +24597,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="25" t="s">
         <v>683</v>
       </c>
@@ -24622,7 +24611,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="25" t="s">
         <v>547</v>
       </c>
@@ -24636,7 +24625,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="25" t="s">
         <v>548</v>
       </c>
@@ -24650,7 +24639,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="25" t="s">
         <v>549</v>
       </c>
@@ -24664,7 +24653,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="25" t="s">
         <v>550</v>
       </c>
@@ -24678,7 +24667,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="25" t="s">
         <v>551</v>
       </c>
@@ -24689,7 +24678,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="25" t="s">
         <v>552</v>
       </c>
@@ -24700,7 +24689,7 @@
         <v>4.9999999999999996E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="25" t="s">
         <v>553</v>
       </c>
@@ -24714,7 +24703,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="25" t="s">
         <v>554</v>
       </c>
@@ -24725,7 +24714,7 @@
         <v>6.9444444444444434E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="25" t="s">
         <v>555</v>
       </c>
@@ -24739,7 +24728,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="25" t="s">
         <v>556</v>
       </c>
@@ -24750,7 +24739,7 @@
         <v>4.5138888888888888E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="25" t="s">
         <v>557</v>
       </c>
@@ -24764,7 +24753,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="25" t="s">
         <v>558</v>
       </c>
@@ -24778,7 +24767,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="25" t="s">
         <v>559</v>
       </c>
@@ -24792,7 +24781,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="25" t="s">
         <v>560</v>
       </c>
@@ -24806,7 +24795,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="25" t="s">
         <v>561</v>
       </c>
@@ -24820,7 +24809,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="25" t="s">
         <v>562</v>
       </c>
@@ -24834,7 +24823,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="25" t="s">
         <v>563</v>
       </c>
@@ -24848,7 +24837,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="25" t="s">
         <v>564</v>
       </c>
@@ -24862,7 +24851,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="25" t="s">
         <v>565</v>
       </c>
@@ -24876,7 +24865,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="25" t="s">
         <v>566</v>
       </c>
@@ -24890,7 +24879,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="25" t="s">
         <v>567</v>
       </c>
@@ -24904,7 +24893,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="25" t="s">
         <v>568</v>
       </c>
@@ -24918,7 +24907,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="25" t="s">
         <v>569</v>
       </c>
@@ -24932,7 +24921,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="25" t="s">
         <v>570</v>
       </c>
@@ -24946,7 +24935,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="25" t="s">
         <v>571</v>
       </c>
@@ -24957,7 +24946,7 @@
         <v>4.3750000000000004E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="25" t="s">
         <v>572</v>
       </c>
@@ -24971,7 +24960,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="25" t="s">
         <v>573</v>
       </c>
@@ -24985,7 +24974,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A65" s="25" t="s">
         <v>574</v>
       </c>
@@ -24999,7 +24988,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A66" s="25" t="s">
         <v>575</v>
       </c>
@@ -25013,7 +25002,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A67" s="25" t="s">
         <v>576</v>
       </c>
@@ -25027,7 +25016,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A68" s="25" t="s">
         <v>577</v>
       </c>
@@ -25041,7 +25030,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A69" s="25" t="s">
         <v>578</v>
       </c>
@@ -25055,7 +25044,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="25" t="s">
         <v>579</v>
       </c>
@@ -25069,7 +25058,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A71" s="25" t="s">
         <v>580</v>
       </c>
@@ -25083,7 +25072,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="25" t="s">
         <v>581</v>
       </c>
@@ -25097,7 +25086,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="25" t="s">
         <v>582</v>
       </c>
@@ -25111,7 +25100,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="25" t="s">
         <v>583</v>
       </c>
@@ -25125,7 +25114,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="25" t="s">
         <v>584</v>
       </c>
@@ -25139,7 +25128,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="25" t="s">
         <v>585</v>
       </c>
@@ -25153,7 +25142,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="25" t="s">
         <v>684</v>
       </c>
@@ -25167,7 +25156,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A78" s="25" t="s">
         <v>586</v>
       </c>
@@ -25181,7 +25170,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="25" t="s">
         <v>587</v>
       </c>
@@ -25195,7 +25184,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="25" t="s">
         <v>588</v>
       </c>
@@ -25206,7 +25195,7 @@
         <v>4.7916666666666663E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="25" t="s">
         <v>589</v>
       </c>
@@ -25220,7 +25209,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="25" t="s">
         <v>590</v>
       </c>
@@ -25234,7 +25223,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A83" s="25" t="s">
         <v>591</v>
       </c>
@@ -25248,7 +25237,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="25" t="s">
         <v>592</v>
       </c>
@@ -25262,7 +25251,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="25" t="s">
         <v>593</v>
       </c>
@@ -25276,7 +25265,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A86" s="25" t="s">
         <v>594</v>
       </c>
@@ -25290,7 +25279,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="25" t="s">
         <v>595</v>
       </c>
@@ -25304,7 +25293,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="25" t="s">
         <v>596</v>
       </c>
@@ -25318,7 +25307,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A89" s="25" t="s">
         <v>597</v>
       </c>
@@ -25332,7 +25321,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="25" t="s">
         <v>598</v>
       </c>
@@ -25346,7 +25335,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="25" t="s">
         <v>599</v>
       </c>
@@ -25357,7 +25346,7 @@
         <v>3.4722222222222224E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="25" t="s">
         <v>600</v>
       </c>
@@ -25368,7 +25357,7 @@
         <v>5.8333333333333327E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="25" t="s">
         <v>601</v>
       </c>
@@ -25379,7 +25368,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="25" t="s">
         <v>602</v>
       </c>
@@ -25393,7 +25382,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="25" t="s">
         <v>603</v>
       </c>
@@ -25407,7 +25396,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="25" t="s">
         <v>604</v>
       </c>
@@ -25421,7 +25410,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="25" t="s">
         <v>605</v>
       </c>
@@ -25435,7 +25424,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="25" t="s">
         <v>606</v>
       </c>
@@ -25449,7 +25438,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="25" t="s">
         <v>607</v>
       </c>
@@ -25463,7 +25452,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="25" t="s">
         <v>685</v>
       </c>
@@ -25477,7 +25466,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="25" t="s">
         <v>608</v>
       </c>
@@ -25491,7 +25480,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="25" t="s">
         <v>609</v>
       </c>
@@ -25502,7 +25491,7 @@
         <v>1.7361111111111112E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="25" t="s">
         <v>686</v>
       </c>
@@ -25516,7 +25505,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="25" t="s">
         <v>610</v>
       </c>
@@ -25530,7 +25519,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="25" t="s">
         <v>687</v>
       </c>
@@ -25544,7 +25533,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="25" t="s">
         <v>611</v>
       </c>
@@ -25555,7 +25544,7 @@
         <v>1.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="25" t="s">
         <v>612</v>
       </c>
@@ -25566,7 +25555,7 @@
         <v>8.3333333333333332E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="25" t="s">
         <v>613</v>
       </c>
@@ -25580,7 +25569,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="25" t="s">
         <v>614</v>
       </c>
@@ -25594,7 +25583,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="25" t="s">
         <v>615</v>
       </c>
@@ -25608,7 +25597,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="25" t="s">
         <v>688</v>
       </c>
@@ -25622,7 +25611,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="25" t="s">
         <v>689</v>
       </c>
@@ -25636,7 +25625,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="25" t="s">
         <v>690</v>
       </c>
@@ -25650,7 +25639,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="25" t="s">
         <v>691</v>
       </c>
@@ -25664,7 +25653,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" s="25" t="s">
         <v>692</v>
       </c>
@@ -25678,7 +25667,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="25" t="s">
         <v>693</v>
       </c>
@@ -25692,7 +25681,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" s="25" t="s">
         <v>616</v>
       </c>
@@ -25706,7 +25695,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" s="25" t="s">
         <v>617</v>
       </c>
@@ -25720,7 +25709,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="25" t="s">
         <v>694</v>
       </c>
@@ -25734,7 +25723,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A120" s="25" t="s">
         <v>618</v>
       </c>
@@ -25748,7 +25737,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A121" s="25" t="s">
         <v>619</v>
       </c>
@@ -25762,7 +25751,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="25" t="s">
         <v>620</v>
       </c>
@@ -25773,7 +25762,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" s="25" t="s">
         <v>621</v>
       </c>
@@ -25784,7 +25773,7 @@
         <v>3.4722222222222224E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" s="25" t="s">
         <v>622</v>
       </c>
@@ -25795,7 +25784,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="25" t="s">
         <v>623</v>
       </c>
@@ -25809,7 +25798,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A126" s="25" t="s">
         <v>624</v>
       </c>
@@ -25823,7 +25812,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" s="92" t="s">
         <v>625</v>
       </c>
@@ -25834,7 +25823,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="25" t="s">
         <v>626</v>
       </c>
@@ -25848,7 +25837,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" s="25" t="s">
         <v>695</v>
       </c>
@@ -25859,7 +25848,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A130" s="25" t="s">
         <v>627</v>
       </c>
@@ -25873,7 +25862,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="25" t="s">
         <v>696</v>
       </c>
@@ -25887,7 +25876,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" s="25" t="s">
         <v>628</v>
       </c>
@@ -25901,7 +25890,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" s="25" t="s">
         <v>629</v>
       </c>
@@ -25915,7 +25904,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="25" t="s">
         <v>630</v>
       </c>
@@ -25929,7 +25918,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" s="25" t="s">
         <v>631</v>
       </c>
@@ -25943,7 +25932,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" s="25" t="s">
         <v>632</v>
       </c>
@@ -25957,7 +25946,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="25" t="s">
         <v>633</v>
       </c>
@@ -25971,7 +25960,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" s="25" t="s">
         <v>634</v>
       </c>
@@ -25985,7 +25974,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" s="25" t="s">
         <v>635</v>
       </c>
@@ -25999,7 +25988,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" s="25" t="s">
         <v>636</v>
       </c>
@@ -26013,7 +26002,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" s="92" t="s">
         <v>637</v>
       </c>
@@ -26024,7 +26013,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" s="25" t="s">
         <v>638</v>
       </c>
@@ -26035,7 +26024,7 @@
         <v>3.4722222222222224E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A143" s="25" t="s">
         <v>639</v>
       </c>
@@ -26049,7 +26038,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" s="25" t="s">
         <v>640</v>
       </c>
@@ -26063,7 +26052,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" s="25" t="s">
         <v>641</v>
       </c>
@@ -26074,7 +26063,7 @@
         <v>4.5833333333333337E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" s="25" t="s">
         <v>642</v>
       </c>
@@ -26088,7 +26077,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" s="25" t="s">
         <v>643</v>
       </c>
@@ -26102,7 +26091,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" s="25" t="s">
         <v>644</v>
       </c>
@@ -26116,7 +26105,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" s="25" t="s">
         <v>645</v>
       </c>
@@ -26127,7 +26116,7 @@
         <v>4.3750000000000004E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" s="25" t="s">
         <v>697</v>
       </c>
@@ -26138,7 +26127,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" s="25" t="s">
         <v>698</v>
       </c>
@@ -26149,7 +26138,7 @@
         <v>0.14583333333333334</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" s="25" t="s">
         <v>699</v>
       </c>
@@ -26160,7 +26149,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" s="25" t="s">
         <v>646</v>
       </c>
@@ -26171,7 +26160,7 @@
         <v>7.8703703703703706E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" s="25" t="s">
         <v>647</v>
       </c>
@@ -26182,7 +26171,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" s="25" t="s">
         <v>700</v>
       </c>
@@ -26193,7 +26182,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" s="25" t="s">
         <v>701</v>
       </c>
@@ -26204,7 +26193,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" s="25" t="s">
         <v>702</v>
       </c>
@@ -26215,7 +26204,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" s="25" t="s">
         <v>648</v>
       </c>
@@ -26229,7 +26218,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" s="25" t="s">
         <v>649</v>
       </c>
@@ -26240,7 +26229,7 @@
         <v>2.7083333333333334E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" s="25" t="s">
         <v>650</v>
       </c>
@@ -26254,7 +26243,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" s="25" t="s">
         <v>651</v>
       </c>
@@ -26268,7 +26257,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" s="25" t="s">
         <v>652</v>
       </c>
@@ -26282,7 +26271,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" s="25" t="s">
         <v>653</v>
       </c>
@@ -26296,7 +26285,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" s="25" t="s">
         <v>654</v>
       </c>
@@ -26310,7 +26299,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" s="25" t="s">
         <v>655</v>
       </c>
@@ -26321,7 +26310,7 @@
         <v>3.8194444444444441E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" s="25" t="s">
         <v>656</v>
       </c>
@@ -26332,7 +26321,7 @@
         <v>3.4722222222222224E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" s="25" t="s">
         <v>657</v>
       </c>
@@ -26346,7 +26335,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" s="25" t="s">
         <v>658</v>
       </c>
@@ -26360,7 +26349,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" s="25" t="s">
         <v>659</v>
       </c>
@@ -26374,7 +26363,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" s="25" t="s">
         <v>660</v>
       </c>
@@ -26385,7 +26374,7 @@
         <v>4.1666666666666666E-3</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" s="25" t="s">
         <v>661</v>
       </c>
@@ -26399,7 +26388,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" s="25" t="s">
         <v>662</v>
       </c>
@@ -26413,7 +26402,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" s="25" t="s">
         <v>663</v>
       </c>
@@ -26427,7 +26416,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A174" s="25" t="s">
         <v>664</v>
       </c>
@@ -26441,7 +26430,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" s="92" t="s">
         <v>665</v>
       </c>
@@ -26452,7 +26441,7 @@
         <v>4.3750000000000004E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" s="25" t="s">
         <v>666</v>
       </c>
@@ -26466,7 +26455,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" s="92" t="s">
         <v>667</v>
       </c>
@@ -26480,7 +26469,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" s="25" t="s">
         <v>668</v>
       </c>
@@ -26491,7 +26480,7 @@
         <v>3.4722222222222224E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" s="92" t="s">
         <v>669</v>
       </c>
@@ -26502,7 +26491,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" s="25" t="s">
         <v>670</v>
       </c>
@@ -26513,7 +26502,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" s="25" t="s">
         <v>671</v>
       </c>
@@ -26524,7 +26513,7 @@
         <v>8.3333333333333332E-3</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" s="25" t="s">
         <v>672</v>
       </c>
@@ -26535,7 +26524,7 @@
         <v>4.8611111111111112E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" s="25" t="s">
         <v>673</v>
       </c>
@@ -26546,7 +26535,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" s="25" t="s">
         <v>674</v>
       </c>
@@ -26557,7 +26546,7 @@
         <v>5.6250000000000001E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" s="25" t="s">
         <v>675</v>
       </c>
@@ -26568,7 +26557,7 @@
         <v>6.0416666666666667E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" s="25" t="s">
         <v>676</v>
       </c>
@@ -26579,7 +26568,7 @@
         <v>3.5416666666666666E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" s="70" t="s">
         <v>677</v>
       </c>
@@ -26593,7 +26582,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" s="25" t="s">
         <v>678</v>
       </c>
@@ -26604,7 +26593,7 @@
         <v>2.7083333333333334E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" s="25" t="s">
         <v>679</v>
       </c>
@@ -26615,7 +26604,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" s="25" t="s">
         <v>680</v>
       </c>
@@ -26626,27 +26615,27 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A193" s="24" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A194" s="24" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A195" s="24" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A196" s="24" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A197" s="27" t="s">
         <v>782</v>
       </c>
@@ -26666,16 +26655,16 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="31" style="4" customWidth="1"/>
-    <col min="2" max="2" width="2.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.21875" style="4"/>
-    <col min="4" max="4" width="41.44140625" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="9.21875" style="4"/>
+    <col min="2" max="2" width="2.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="4"/>
+    <col min="4" max="4" width="41.453125" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>503</v>
       </c>
@@ -26683,7 +26672,7 @@
       <c r="C1" s="66"/>
       <c r="D1" s="66"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>504</v>
       </c>
@@ -26697,7 +26686,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>505</v>
       </c>
@@ -26708,7 +26697,7 @@
         <v>1.3194444444444444E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>506</v>
       </c>
@@ -26719,7 +26708,7 @@
         <v>5.8333333333333327E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>507</v>
       </c>
@@ -26730,7 +26719,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>508</v>
       </c>
@@ -26741,7 +26730,7 @@
         <v>2.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>509</v>
       </c>
@@ -26752,7 +26741,7 @@
         <v>5.8333333333333327E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>510</v>
       </c>
@@ -26766,7 +26755,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>511</v>
       </c>
@@ -26780,7 +26769,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>512</v>
       </c>
@@ -26794,7 +26783,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>513</v>
       </c>
@@ -26808,27 +26797,27 @@
         <v>781</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>1142</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>1143</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>1240</v>
       </c>
@@ -26843,33 +26832,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF869DB7-0784-4194-AB30-92BE5EB54BFF}">
   <dimension ref="A1:AE10"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.21875" style="2" customWidth="1"/>
-    <col min="4" max="5" width="9.21875" style="2"/>
-    <col min="6" max="6" width="3.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="2.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="3.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="4.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.1796875" style="2" customWidth="1"/>
+    <col min="4" max="5" width="9.1796875" style="2"/>
+    <col min="6" max="6" width="3.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="4.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="2.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="3.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="4.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="4.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="4" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="3.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="2.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="29" width="2.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="3.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="1.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.21875" style="2"/>
+    <col min="24" max="24" width="3.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="2.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="29" width="2.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="3.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="1.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" ht="29" x14ac:dyDescent="0.35">
       <c r="C1" s="8" t="s">
         <v>391</v>
       </c>
@@ -26955,7 +26944,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>452</v>
       </c>
@@ -26973,7 +26962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>251</v>
       </c>
@@ -26994,7 +26983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>252</v>
       </c>
@@ -27012,7 +27001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>253</v>
       </c>
@@ -27033,7 +27022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>254</v>
       </c>
@@ -27051,7 +27040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>453</v>
       </c>
@@ -27069,7 +27058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>1236</v>
       </c>
@@ -27087,35 +27076,35 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1"/>
-    <col min="4" max="4" width="5.33203125" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.54296875" customWidth="1"/>
+    <col min="2" max="2" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.08984375" customWidth="1"/>
+    <col min="4" max="4" width="5.36328125" customWidth="1"/>
+    <col min="5" max="5" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.5546875" hidden="1" customWidth="1"/>
-    <col min="19" max="20" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.44140625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.54296875" hidden="1" customWidth="1"/>
+    <col min="19" max="20" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.453125" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="6" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="5.21875" hidden="1" customWidth="1"/>
-    <col min="24" max="27" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.21875" customWidth="1"/>
+    <col min="23" max="23" width="5.1796875" hidden="1" customWidth="1"/>
+    <col min="24" max="27" width="5.36328125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>7</v>
       </c>
@@ -27141,7 +27130,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="73" t="s">
         <v>727</v>
       </c>
@@ -27168,7 +27157,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="73" t="s">
         <v>1094</v>
       </c>
@@ -27200,7 +27189,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>728</v>
       </c>
@@ -27224,7 +27213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>729</v>
       </c>
@@ -27248,7 +27237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="74" t="s">
         <v>730</v>
       </c>
@@ -27275,7 +27264,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="73" t="s">
         <v>1093</v>
       </c>
@@ -27307,7 +27296,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>731</v>
       </c>
@@ -27331,7 +27320,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>732</v>
       </c>
@@ -27355,7 +27344,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>733</v>
       </c>
@@ -27379,7 +27368,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="73" t="s">
         <v>1092</v>
       </c>
@@ -27411,7 +27400,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>734</v>
       </c>
@@ -27435,7 +27424,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>735</v>
       </c>
@@ -27459,7 +27448,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
         <v>736</v>
       </c>
@@ -27483,7 +27472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
         <v>737</v>
       </c>
@@ -27507,7 +27496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="73" t="s">
         <v>1091</v>
       </c>
@@ -27539,7 +27528,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>738</v>
       </c>
@@ -27563,7 +27552,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
         <v>739</v>
       </c>
@@ -27587,7 +27576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
         <v>740</v>
       </c>
@@ -27611,7 +27600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="74" t="s">
         <v>741</v>
       </c>
@@ -27638,7 +27627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="73" t="s">
         <v>1090</v>
       </c>
@@ -27670,7 +27659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
         <v>742</v>
       </c>
@@ -27694,7 +27683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
         <v>743</v>
       </c>
@@ -27718,7 +27707,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="73" t="s">
         <v>744</v>
       </c>
@@ -27745,7 +27734,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="73" t="s">
         <v>745</v>
       </c>
@@ -27772,7 +27761,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="73" t="s">
         <v>746</v>
       </c>
@@ -27799,7 +27788,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="73" t="s">
         <v>1089</v>
       </c>
@@ -27831,7 +27820,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
         <v>747</v>
       </c>
@@ -27855,7 +27844,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="10" t="s">
         <v>748</v>
       </c>
@@ -27879,7 +27868,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
         <v>749</v>
       </c>
@@ -27903,7 +27892,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
         <v>750</v>
       </c>
@@ -27927,7 +27916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="72" t="s">
         <v>751</v>
       </c>
@@ -27954,7 +27943,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="18"/>
     </row>
   </sheetData>

--- a/definice/1 Plazma tabulky.xlsx
+++ b/definice/1 Plazma tabulky.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\dev\Tritium\definice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projekty\tritium\definice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461E1912-1AC3-4B70-AAE7-7765C8DB210D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB328315-B2E3-44F7-94E2-F6D3D478380A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30380" yWindow="5290" windowWidth="28800" windowHeight="15460" activeTab="6" xr2:uid="{6F042B71-7817-4D45-938A-4B8F3E1BBE08}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="13800" xr2:uid="{6F042B71-7817-4D45-938A-4B8F3E1BBE08}"/>
   </bookViews>
   <sheets>
     <sheet name="všechny patogeny" sheetId="12" r:id="rId1"/>
@@ -26,6 +26,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -4610,7 +4621,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normální 2" xfId="1" xr:uid="{BD769B5C-5369-4B04-80BB-71306B1D6291}"/>
     <cellStyle name="Normální 3" xfId="2" xr:uid="{A1B28C8E-5FFC-4613-9D0F-2AEAF2F190E2}"/>
     <cellStyle name="Normální 4" xfId="3" xr:uid="{4BBF5A81-0E0E-47BE-AFF5-45C385491A1E}"/>
@@ -4899,47 +4910,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F1428D0-7435-470B-93EB-4B64DA428810}">
   <dimension ref="A1:AU304"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:J286"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.90625" style="85" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.54296875" style="83" customWidth="1"/>
-    <col min="3" max="3" width="8.1796875" style="86" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.81640625" style="83" customWidth="1"/>
-    <col min="5" max="5" width="8.08984375" style="83" customWidth="1"/>
-    <col min="6" max="6" width="4.1796875" style="83" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.54296875" style="85" customWidth="1"/>
-    <col min="8" max="8" width="19.90625" style="85" customWidth="1"/>
-    <col min="9" max="9" width="18.54296875" style="85" customWidth="1"/>
-    <col min="10" max="10" width="15.81640625" style="85" customWidth="1"/>
-    <col min="11" max="11" width="4.1796875" style="85" customWidth="1"/>
-    <col min="12" max="13" width="4.81640625" style="83" customWidth="1"/>
-    <col min="14" max="18" width="5.81640625" style="83" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" style="85" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" style="83" customWidth="1"/>
+    <col min="3" max="3" width="8.21875" style="86" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" style="83" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" style="83" customWidth="1"/>
+    <col min="6" max="6" width="4.21875" style="83" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" style="85" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" style="85" customWidth="1"/>
+    <col min="9" max="9" width="18.5546875" style="85" customWidth="1"/>
+    <col min="10" max="10" width="15.77734375" style="85" customWidth="1"/>
+    <col min="11" max="11" width="4.21875" style="85" customWidth="1"/>
+    <col min="12" max="13" width="4.77734375" style="83" customWidth="1"/>
+    <col min="14" max="18" width="5.77734375" style="83" customWidth="1"/>
     <col min="19" max="19" width="4" style="83" customWidth="1"/>
-    <col min="20" max="20" width="3.08984375" style="83" customWidth="1"/>
-    <col min="21" max="22" width="4.36328125" style="83" customWidth="1"/>
-    <col min="23" max="23" width="2.453125" style="83" customWidth="1"/>
-    <col min="24" max="26" width="2.90625" style="83" customWidth="1"/>
-    <col min="27" max="30" width="3.1796875" style="83" customWidth="1"/>
-    <col min="31" max="33" width="4.36328125" style="83" customWidth="1"/>
-    <col min="34" max="34" width="3.1796875" style="83" customWidth="1"/>
-    <col min="35" max="36" width="4.1796875" style="83" customWidth="1"/>
+    <col min="20" max="20" width="3.109375" style="83" customWidth="1"/>
+    <col min="21" max="22" width="4.33203125" style="83" customWidth="1"/>
+    <col min="23" max="23" width="2.44140625" style="83" customWidth="1"/>
+    <col min="24" max="26" width="2.88671875" style="83" customWidth="1"/>
+    <col min="27" max="30" width="3.21875" style="83" customWidth="1"/>
+    <col min="31" max="33" width="4.33203125" style="83" customWidth="1"/>
+    <col min="34" max="34" width="3.21875" style="83" customWidth="1"/>
+    <col min="35" max="36" width="4.21875" style="83" customWidth="1"/>
     <col min="37" max="37" width="4" style="83" customWidth="1"/>
-    <col min="38" max="38" width="3.08984375" style="83" customWidth="1"/>
-    <col min="39" max="39" width="2.6328125" style="83" customWidth="1"/>
-    <col min="40" max="42" width="2.81640625" style="83" customWidth="1"/>
-    <col min="43" max="43" width="5.54296875" style="83" customWidth="1"/>
-    <col min="44" max="44" width="3.08984375" style="83" customWidth="1"/>
+    <col min="38" max="38" width="3.109375" style="83" customWidth="1"/>
+    <col min="39" max="39" width="2.6640625" style="83" customWidth="1"/>
+    <col min="40" max="42" width="2.77734375" style="83" customWidth="1"/>
+    <col min="43" max="43" width="5.5546875" style="83" customWidth="1"/>
+    <col min="44" max="44" width="3.109375" style="83" customWidth="1"/>
     <col min="45" max="45" width="3" style="83" customWidth="1"/>
-    <col min="46" max="16384" width="9.1796875" style="83"/>
+    <col min="46" max="16384" width="9.21875" style="83"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="95" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:44" s="95" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="93" t="s">
         <v>1095</v>
       </c>
@@ -5073,7 +5084,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="2" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="76" t="s">
         <v>9</v>
       </c>
@@ -5124,7 +5135,7 @@
       <c r="AQ2" s="77"/>
       <c r="AR2" s="77"/>
     </row>
-    <row r="3" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="76" t="s">
         <v>114</v>
       </c>
@@ -5190,7 +5201,7 @@
       <c r="AQ3" s="77"/>
       <c r="AR3" s="77"/>
     </row>
-    <row r="4" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="76" t="s">
         <v>59</v>
       </c>
@@ -5257,7 +5268,7 @@
       <c r="AQ4" s="77"/>
       <c r="AR4" s="77"/>
     </row>
-    <row r="5" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="76" t="s">
         <v>115</v>
       </c>
@@ -5309,7 +5320,7 @@
       <c r="AQ5" s="77"/>
       <c r="AR5" s="77"/>
     </row>
-    <row r="6" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="76" t="s">
         <v>116</v>
       </c>
@@ -5361,7 +5372,7 @@
       <c r="AQ6" s="77"/>
       <c r="AR6" s="77"/>
     </row>
-    <row r="7" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="76" t="s">
         <v>117</v>
       </c>
@@ -5413,7 +5424,7 @@
       <c r="AQ7" s="77"/>
       <c r="AR7" s="77"/>
     </row>
-    <row r="8" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="76" t="s">
         <v>118</v>
       </c>
@@ -5465,7 +5476,7 @@
       <c r="AQ8" s="77"/>
       <c r="AR8" s="77"/>
     </row>
-    <row r="9" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="76" t="s">
         <v>119</v>
       </c>
@@ -5522,7 +5533,7 @@
       <c r="AQ9" s="77"/>
       <c r="AR9" s="77"/>
     </row>
-    <row r="10" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="76" t="s">
         <v>120</v>
       </c>
@@ -5574,7 +5585,7 @@
       <c r="AQ10" s="77"/>
       <c r="AR10" s="77"/>
     </row>
-    <row r="11" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="76" t="s">
         <v>10</v>
       </c>
@@ -5630,7 +5641,7 @@
       <c r="AQ11" s="77"/>
       <c r="AR11" s="77"/>
     </row>
-    <row r="12" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="76" t="s">
         <v>11</v>
       </c>
@@ -5689,7 +5700,7 @@
       <c r="AQ12" s="77"/>
       <c r="AR12" s="77"/>
     </row>
-    <row r="13" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="76" t="s">
         <v>12</v>
       </c>
@@ -5738,7 +5749,7 @@
       <c r="AQ13" s="77"/>
       <c r="AR13" s="77"/>
     </row>
-    <row r="14" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="76" t="s">
         <v>426</v>
       </c>
@@ -5790,7 +5801,7 @@
       <c r="AQ14" s="77"/>
       <c r="AR14" s="77"/>
     </row>
-    <row r="15" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="76" t="s">
         <v>121</v>
       </c>
@@ -5838,7 +5849,7 @@
       <c r="AQ15" s="77"/>
       <c r="AR15" s="77"/>
     </row>
-    <row r="16" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="76" t="s">
         <v>13</v>
       </c>
@@ -5900,7 +5911,7 @@
       <c r="AQ16" s="77"/>
       <c r="AR16" s="77"/>
     </row>
-    <row r="17" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="76" t="s">
         <v>218</v>
       </c>
@@ -5958,7 +5969,7 @@
       <c r="AQ17" s="77"/>
       <c r="AR17" s="77"/>
     </row>
-    <row r="18" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="76" t="s">
         <v>14</v>
       </c>
@@ -6020,7 +6031,7 @@
       <c r="AQ18" s="77"/>
       <c r="AR18" s="77"/>
     </row>
-    <row r="19" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="76" t="s">
         <v>15</v>
       </c>
@@ -6084,7 +6095,7 @@
       <c r="AQ19" s="77"/>
       <c r="AR19" s="77"/>
     </row>
-    <row r="20" spans="1:44" s="79" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:44" s="79" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="76" t="s">
         <v>122</v>
       </c>
@@ -6137,7 +6148,7 @@
       <c r="AQ20" s="77"/>
       <c r="AR20" s="77"/>
     </row>
-    <row r="21" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="76" t="s">
         <v>123</v>
       </c>
@@ -6198,7 +6209,7 @@
       <c r="AQ21" s="77"/>
       <c r="AR21" s="77"/>
     </row>
-    <row r="22" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="76" t="s">
         <v>124</v>
       </c>
@@ -6262,7 +6273,7 @@
       <c r="AQ22" s="77"/>
       <c r="AR22" s="77"/>
     </row>
-    <row r="23" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="76" t="s">
         <v>125</v>
       </c>
@@ -6317,7 +6328,7 @@
       <c r="AQ23" s="77"/>
       <c r="AR23" s="77"/>
     </row>
-    <row r="24" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="76" t="s">
         <v>16</v>
       </c>
@@ -6373,7 +6384,7 @@
       <c r="AQ24" s="77"/>
       <c r="AR24" s="77"/>
     </row>
-    <row r="25" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="76" t="s">
         <v>127</v>
       </c>
@@ -6421,7 +6432,7 @@
       <c r="AQ25" s="77"/>
       <c r="AR25" s="77"/>
     </row>
-    <row r="26" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="76" t="s">
         <v>128</v>
       </c>
@@ -6478,7 +6489,7 @@
       <c r="AQ26" s="77"/>
       <c r="AR26" s="77"/>
     </row>
-    <row r="27" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="76" t="s">
         <v>129</v>
       </c>
@@ -6530,7 +6541,7 @@
       <c r="AQ27" s="77"/>
       <c r="AR27" s="77"/>
     </row>
-    <row r="28" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="76" t="s">
         <v>130</v>
       </c>
@@ -6582,7 +6593,7 @@
       <c r="AQ28" s="77"/>
       <c r="AR28" s="77"/>
     </row>
-    <row r="29" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="76" t="s">
         <v>131</v>
       </c>
@@ -6634,7 +6645,7 @@
       <c r="AQ29" s="77"/>
       <c r="AR29" s="77"/>
     </row>
-    <row r="30" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="76" t="s">
         <v>60</v>
       </c>
@@ -6685,7 +6696,7 @@
       <c r="AQ30" s="77"/>
       <c r="AR30" s="77"/>
     </row>
-    <row r="31" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="76" t="s">
         <v>17</v>
       </c>
@@ -6743,7 +6754,7 @@
       <c r="AQ31" s="77"/>
       <c r="AR31" s="77"/>
     </row>
-    <row r="32" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="76" t="s">
         <v>132</v>
       </c>
@@ -6800,7 +6811,7 @@
       <c r="AQ32" s="77"/>
       <c r="AR32" s="77"/>
     </row>
-    <row r="33" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="76" t="s">
         <v>61</v>
       </c>
@@ -6849,7 +6860,7 @@
       <c r="AQ33" s="77"/>
       <c r="AR33" s="77"/>
     </row>
-    <row r="34" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="76" t="s">
         <v>133</v>
       </c>
@@ -6907,7 +6918,7 @@
       <c r="AQ34" s="77"/>
       <c r="AR34" s="77"/>
     </row>
-    <row r="35" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="76" t="s">
         <v>427</v>
       </c>
@@ -6952,7 +6963,7 @@
       <c r="AQ35" s="77"/>
       <c r="AR35" s="77"/>
     </row>
-    <row r="36" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="76" t="s">
         <v>428</v>
       </c>
@@ -6997,7 +7008,7 @@
       <c r="AQ36" s="77"/>
       <c r="AR36" s="77"/>
     </row>
-    <row r="37" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="76" t="s">
         <v>429</v>
       </c>
@@ -7042,7 +7053,7 @@
       <c r="AQ37" s="77"/>
       <c r="AR37" s="77"/>
     </row>
-    <row r="38" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="76" t="s">
         <v>134</v>
       </c>
@@ -7100,7 +7111,7 @@
       <c r="AQ38" s="77"/>
       <c r="AR38" s="77"/>
     </row>
-    <row r="39" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="76" t="s">
         <v>430</v>
       </c>
@@ -7145,7 +7156,7 @@
       <c r="AQ39" s="77"/>
       <c r="AR39" s="77"/>
     </row>
-    <row r="40" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="76" t="s">
         <v>431</v>
       </c>
@@ -7190,7 +7201,7 @@
       <c r="AQ40" s="77"/>
       <c r="AR40" s="77"/>
     </row>
-    <row r="41" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="76" t="s">
         <v>432</v>
       </c>
@@ -7235,7 +7246,7 @@
       <c r="AQ41" s="77"/>
       <c r="AR41" s="77"/>
     </row>
-    <row r="42" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="76" t="s">
         <v>433</v>
       </c>
@@ -7280,7 +7291,7 @@
       <c r="AQ42" s="77"/>
       <c r="AR42" s="77"/>
     </row>
-    <row r="43" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="76" t="s">
         <v>135</v>
       </c>
@@ -7338,7 +7349,7 @@
       <c r="AQ43" s="77"/>
       <c r="AR43" s="77"/>
     </row>
-    <row r="44" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="76" t="s">
         <v>434</v>
       </c>
@@ -7383,7 +7394,7 @@
       <c r="AQ44" s="77"/>
       <c r="AR44" s="77"/>
     </row>
-    <row r="45" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="76" t="s">
         <v>435</v>
       </c>
@@ -7428,7 +7439,7 @@
       <c r="AQ45" s="77"/>
       <c r="AR45" s="77"/>
     </row>
-    <row r="46" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="76" t="s">
         <v>136</v>
       </c>
@@ -7479,7 +7490,7 @@
       <c r="AQ46" s="77"/>
       <c r="AR46" s="77"/>
     </row>
-    <row r="47" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="76" t="s">
         <v>436</v>
       </c>
@@ -7524,7 +7535,7 @@
       <c r="AQ47" s="77"/>
       <c r="AR47" s="77"/>
     </row>
-    <row r="48" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="76" t="s">
         <v>437</v>
       </c>
@@ -7569,7 +7580,7 @@
       <c r="AQ48" s="77"/>
       <c r="AR48" s="77"/>
     </row>
-    <row r="49" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="76" t="s">
         <v>438</v>
       </c>
@@ -7614,7 +7625,7 @@
       <c r="AQ49" s="77"/>
       <c r="AR49" s="77"/>
     </row>
-    <row r="50" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="76" t="s">
         <v>439</v>
       </c>
@@ -7659,7 +7670,7 @@
       <c r="AQ50" s="77"/>
       <c r="AR50" s="77"/>
     </row>
-    <row r="51" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="76" t="s">
         <v>440</v>
       </c>
@@ -7704,7 +7715,7 @@
       <c r="AQ51" s="77"/>
       <c r="AR51" s="77"/>
     </row>
-    <row r="52" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="76" t="s">
         <v>137</v>
       </c>
@@ -7749,7 +7760,7 @@
       <c r="AQ52" s="77"/>
       <c r="AR52" s="77"/>
     </row>
-    <row r="53" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="76" t="s">
         <v>138</v>
       </c>
@@ -7801,7 +7812,7 @@
       <c r="AQ53" s="77"/>
       <c r="AR53" s="77"/>
     </row>
-    <row r="54" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="76" t="s">
         <v>18</v>
       </c>
@@ -7850,7 +7861,7 @@
       <c r="AQ54" s="77"/>
       <c r="AR54" s="77"/>
     </row>
-    <row r="55" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="76" t="s">
         <v>139</v>
       </c>
@@ -7906,7 +7917,7 @@
       <c r="AQ55" s="77"/>
       <c r="AR55" s="77"/>
     </row>
-    <row r="56" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="76" t="s">
         <v>140</v>
       </c>
@@ -7966,7 +7977,7 @@
       <c r="AQ56" s="77"/>
       <c r="AR56" s="77"/>
     </row>
-    <row r="57" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="76" t="s">
         <v>141</v>
       </c>
@@ -8026,7 +8037,7 @@
       <c r="AQ57" s="77"/>
       <c r="AR57" s="77"/>
     </row>
-    <row r="58" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="76" t="s">
         <v>142</v>
       </c>
@@ -8083,7 +8094,7 @@
       <c r="AQ58" s="77"/>
       <c r="AR58" s="77"/>
     </row>
-    <row r="59" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="76" t="s">
         <v>143</v>
       </c>
@@ -8143,7 +8154,7 @@
       <c r="AQ59" s="77"/>
       <c r="AR59" s="77"/>
     </row>
-    <row r="60" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="76" t="s">
         <v>144</v>
       </c>
@@ -8203,7 +8214,7 @@
       <c r="AQ60" s="77"/>
       <c r="AR60" s="77"/>
     </row>
-    <row r="61" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="76" t="s">
         <v>219</v>
       </c>
@@ -8264,7 +8275,7 @@
       <c r="AQ61" s="77"/>
       <c r="AR61" s="77"/>
     </row>
-    <row r="62" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="76" t="s">
         <v>451</v>
       </c>
@@ -8311,7 +8322,7 @@
       <c r="AQ62" s="77"/>
       <c r="AR62" s="77"/>
     </row>
-    <row r="63" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="76" t="s">
         <v>220</v>
       </c>
@@ -8365,7 +8376,7 @@
       <c r="AQ63" s="77"/>
       <c r="AR63" s="77"/>
     </row>
-    <row r="64" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="76" t="s">
         <v>221</v>
       </c>
@@ -8419,7 +8430,7 @@
       <c r="AQ64" s="77"/>
       <c r="AR64" s="77"/>
     </row>
-    <row r="65" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="76" t="s">
         <v>222</v>
       </c>
@@ -8473,7 +8484,7 @@
       <c r="AQ65" s="77"/>
       <c r="AR65" s="77"/>
     </row>
-    <row r="66" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="76" t="s">
         <v>223</v>
       </c>
@@ -8527,7 +8538,7 @@
       <c r="AQ66" s="77"/>
       <c r="AR66" s="77"/>
     </row>
-    <row r="67" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="76" t="s">
         <v>224</v>
       </c>
@@ -8581,7 +8592,7 @@
       <c r="AQ67" s="77"/>
       <c r="AR67" s="77"/>
     </row>
-    <row r="68" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="76" t="s">
         <v>225</v>
       </c>
@@ -8635,7 +8646,7 @@
       <c r="AQ68" s="77"/>
       <c r="AR68" s="77"/>
     </row>
-    <row r="69" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="76" t="s">
         <v>226</v>
       </c>
@@ -8689,7 +8700,7 @@
       <c r="AQ69" s="77"/>
       <c r="AR69" s="77"/>
     </row>
-    <row r="70" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="76" t="s">
         <v>227</v>
       </c>
@@ -8759,7 +8770,7 @@
       <c r="AQ70" s="77"/>
       <c r="AR70" s="77"/>
     </row>
-    <row r="71" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="76" t="s">
         <v>145</v>
       </c>
@@ -8811,7 +8822,7 @@
       <c r="AQ71" s="77"/>
       <c r="AR71" s="77"/>
     </row>
-    <row r="72" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="76" t="s">
         <v>146</v>
       </c>
@@ -8865,7 +8876,7 @@
       <c r="AQ72" s="77"/>
       <c r="AR72" s="77"/>
     </row>
-    <row r="73" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="76" t="s">
         <v>147</v>
       </c>
@@ -8917,7 +8928,7 @@
       <c r="AQ73" s="77"/>
       <c r="AR73" s="77"/>
     </row>
-    <row r="74" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="76" t="s">
         <v>148</v>
       </c>
@@ -8973,7 +8984,7 @@
       <c r="AQ74" s="77"/>
       <c r="AR74" s="77"/>
     </row>
-    <row r="75" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="76" t="s">
         <v>149</v>
       </c>
@@ -9025,7 +9036,7 @@
       <c r="AQ75" s="77"/>
       <c r="AR75" s="77"/>
     </row>
-    <row r="76" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="76" t="s">
         <v>228</v>
       </c>
@@ -9074,7 +9085,7 @@
       <c r="AQ76" s="77"/>
       <c r="AR76" s="77"/>
     </row>
-    <row r="77" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="76" t="s">
         <v>20</v>
       </c>
@@ -9138,7 +9149,7 @@
       <c r="AQ77" s="77"/>
       <c r="AR77" s="77"/>
     </row>
-    <row r="78" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="76" t="s">
         <v>152</v>
       </c>
@@ -9195,7 +9206,7 @@
       <c r="AQ78" s="77"/>
       <c r="AR78" s="77"/>
     </row>
-    <row r="79" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="76" t="s">
         <v>153</v>
       </c>
@@ -9252,7 +9263,7 @@
       <c r="AQ79" s="77"/>
       <c r="AR79" s="77"/>
     </row>
-    <row r="80" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="76" t="s">
         <v>154</v>
       </c>
@@ -9306,7 +9317,7 @@
       <c r="AQ80" s="77"/>
       <c r="AR80" s="77"/>
     </row>
-    <row r="81" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="76" t="s">
         <v>62</v>
       </c>
@@ -9375,7 +9386,7 @@
       <c r="AQ81" s="77"/>
       <c r="AR81" s="77"/>
     </row>
-    <row r="82" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="76" t="s">
         <v>155</v>
       </c>
@@ -9435,7 +9446,7 @@
       <c r="AQ82" s="77"/>
       <c r="AR82" s="77"/>
     </row>
-    <row r="83" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="76" t="s">
         <v>63</v>
       </c>
@@ -9486,7 +9497,7 @@
       <c r="AQ83" s="77"/>
       <c r="AR83" s="77"/>
     </row>
-    <row r="84" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="76" t="s">
         <v>64</v>
       </c>
@@ -9540,7 +9551,7 @@
       <c r="AQ84" s="77"/>
       <c r="AR84" s="77"/>
     </row>
-    <row r="85" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="76" t="s">
         <v>65</v>
       </c>
@@ -9594,7 +9605,7 @@
       <c r="AQ85" s="77"/>
       <c r="AR85" s="77"/>
     </row>
-    <row r="86" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="76" t="s">
         <v>66</v>
       </c>
@@ -9648,7 +9659,7 @@
       <c r="AQ86" s="77"/>
       <c r="AR86" s="77"/>
     </row>
-    <row r="87" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="76" t="s">
         <v>67</v>
       </c>
@@ -9702,7 +9713,7 @@
       <c r="AQ87" s="77"/>
       <c r="AR87" s="77"/>
     </row>
-    <row r="88" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="76" t="s">
         <v>68</v>
       </c>
@@ -9756,7 +9767,7 @@
       <c r="AQ88" s="77"/>
       <c r="AR88" s="77"/>
     </row>
-    <row r="89" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="76" t="s">
         <v>69</v>
       </c>
@@ -9810,7 +9821,7 @@
       <c r="AQ89" s="77"/>
       <c r="AR89" s="77"/>
     </row>
-    <row r="90" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="76" t="s">
         <v>70</v>
       </c>
@@ -9864,7 +9875,7 @@
       <c r="AQ90" s="77"/>
       <c r="AR90" s="77"/>
     </row>
-    <row r="91" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="76" t="s">
         <v>156</v>
       </c>
@@ -9916,7 +9927,7 @@
       <c r="AQ91" s="77"/>
       <c r="AR91" s="77"/>
     </row>
-    <row r="92" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="76" t="s">
         <v>71</v>
       </c>
@@ -9977,7 +9988,7 @@
       <c r="AQ92" s="77"/>
       <c r="AR92" s="77"/>
     </row>
-    <row r="93" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="76" t="s">
         <v>72</v>
       </c>
@@ -10038,7 +10049,7 @@
       <c r="AQ93" s="77"/>
       <c r="AR93" s="77"/>
     </row>
-    <row r="94" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="76" t="s">
         <v>229</v>
       </c>
@@ -10103,7 +10114,7 @@
       <c r="AQ94" s="77"/>
       <c r="AR94" s="77"/>
     </row>
-    <row r="95" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="76" t="s">
         <v>416</v>
       </c>
@@ -10158,7 +10169,7 @@
       <c r="AQ95" s="77"/>
       <c r="AR95" s="77"/>
     </row>
-    <row r="96" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="76" t="s">
         <v>157</v>
       </c>
@@ -10212,7 +10223,7 @@
       <c r="AQ96" s="77"/>
       <c r="AR96" s="77"/>
     </row>
-    <row r="97" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="76" t="s">
         <v>73</v>
       </c>
@@ -10276,7 +10287,7 @@
       <c r="AQ97" s="77"/>
       <c r="AR97" s="77"/>
     </row>
-    <row r="98" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="76" t="s">
         <v>21</v>
       </c>
@@ -10334,7 +10345,7 @@
       <c r="AQ98" s="77"/>
       <c r="AR98" s="77"/>
     </row>
-    <row r="99" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="76" t="s">
         <v>22</v>
       </c>
@@ -10390,7 +10401,7 @@
       <c r="AQ99" s="77"/>
       <c r="AR99" s="77"/>
     </row>
-    <row r="100" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="76" t="s">
         <v>23</v>
       </c>
@@ -10442,7 +10453,7 @@
       <c r="AQ100" s="77"/>
       <c r="AR100" s="77"/>
     </row>
-    <row r="101" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="76" t="s">
         <v>24</v>
       </c>
@@ -10505,7 +10516,7 @@
       <c r="AQ101" s="77"/>
       <c r="AR101" s="77"/>
     </row>
-    <row r="102" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="76" t="s">
         <v>25</v>
       </c>
@@ -10565,7 +10576,7 @@
       <c r="AQ102" s="77"/>
       <c r="AR102" s="77"/>
     </row>
-    <row r="103" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="76" t="s">
         <v>158</v>
       </c>
@@ -10613,7 +10624,7 @@
       <c r="AQ103" s="77"/>
       <c r="AR103" s="77"/>
     </row>
-    <row r="104" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="76" t="s">
         <v>26</v>
       </c>
@@ -10671,7 +10682,7 @@
       <c r="AQ104" s="77"/>
       <c r="AR104" s="77"/>
     </row>
-    <row r="105" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="76" t="s">
         <v>27</v>
       </c>
@@ -10729,7 +10740,7 @@
       <c r="AQ105" s="77"/>
       <c r="AR105" s="77"/>
     </row>
-    <row r="106" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="76" t="s">
         <v>74</v>
       </c>
@@ -10790,7 +10801,7 @@
       <c r="AQ106" s="77"/>
       <c r="AR106" s="77"/>
     </row>
-    <row r="107" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="76" t="s">
         <v>159</v>
       </c>
@@ -10852,7 +10863,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="108" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="76" t="s">
         <v>417</v>
       </c>
@@ -10897,7 +10908,7 @@
       <c r="AQ108" s="77"/>
       <c r="AR108" s="77"/>
     </row>
-    <row r="109" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="76" t="s">
         <v>418</v>
       </c>
@@ -10942,7 +10953,7 @@
       <c r="AQ109" s="77"/>
       <c r="AR109" s="77"/>
     </row>
-    <row r="110" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="76" t="s">
         <v>419</v>
       </c>
@@ -10987,7 +10998,7 @@
       <c r="AQ110" s="77"/>
       <c r="AR110" s="77"/>
     </row>
-    <row r="111" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="76" t="s">
         <v>420</v>
       </c>
@@ -11032,7 +11043,7 @@
       <c r="AQ111" s="77"/>
       <c r="AR111" s="77"/>
     </row>
-    <row r="112" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="76" t="s">
         <v>421</v>
       </c>
@@ -11077,7 +11088,7 @@
       <c r="AQ112" s="77"/>
       <c r="AR112" s="77"/>
     </row>
-    <row r="113" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="76" t="s">
         <v>422</v>
       </c>
@@ -11122,7 +11133,7 @@
       <c r="AQ113" s="77"/>
       <c r="AR113" s="77"/>
     </row>
-    <row r="114" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="76" t="s">
         <v>28</v>
       </c>
@@ -11178,7 +11189,7 @@
       <c r="AQ114" s="77"/>
       <c r="AR114" s="77"/>
     </row>
-    <row r="115" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" s="76" t="s">
         <v>29</v>
       </c>
@@ -11245,7 +11256,7 @@
       <c r="AQ115" s="77"/>
       <c r="AR115" s="77"/>
     </row>
-    <row r="116" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="76" t="s">
         <v>441</v>
       </c>
@@ -11293,7 +11304,7 @@
       <c r="AQ116" s="77"/>
       <c r="AR116" s="77"/>
     </row>
-    <row r="117" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="76" t="s">
         <v>30</v>
       </c>
@@ -11352,7 +11363,7 @@
       <c r="AQ117" s="77"/>
       <c r="AR117" s="77"/>
     </row>
-    <row r="118" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="76" t="s">
         <v>160</v>
       </c>
@@ -11408,7 +11419,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="119" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="76" t="s">
         <v>161</v>
       </c>
@@ -11466,7 +11477,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="120" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" s="76" t="s">
         <v>75</v>
       </c>
@@ -11541,7 +11552,7 @@
       <c r="AQ120" s="77"/>
       <c r="AR120" s="77"/>
     </row>
-    <row r="121" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="76" t="s">
         <v>230</v>
       </c>
@@ -11595,7 +11606,7 @@
       <c r="AQ121" s="77"/>
       <c r="AR121" s="77"/>
     </row>
-    <row r="122" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" s="76" t="s">
         <v>76</v>
       </c>
@@ -11662,7 +11673,7 @@
       <c r="AQ122" s="77"/>
       <c r="AR122" s="77"/>
     </row>
-    <row r="123" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A123" s="76" t="s">
         <v>162</v>
       </c>
@@ -11723,7 +11734,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="124" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="76" t="s">
         <v>163</v>
       </c>
@@ -11790,7 +11801,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="125" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="76" t="s">
         <v>164</v>
       </c>
@@ -11842,7 +11853,7 @@
       <c r="AQ125" s="77"/>
       <c r="AR125" s="77"/>
     </row>
-    <row r="126" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="76" t="s">
         <v>31</v>
       </c>
@@ -11900,7 +11911,7 @@
       <c r="AQ126" s="77"/>
       <c r="AR126" s="77"/>
     </row>
-    <row r="127" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="76" t="s">
         <v>32</v>
       </c>
@@ -11959,7 +11970,7 @@
       <c r="AQ127" s="77"/>
       <c r="AR127" s="77"/>
     </row>
-    <row r="128" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="76" t="s">
         <v>33</v>
       </c>
@@ -12008,7 +12019,7 @@
       <c r="AQ128" s="77"/>
       <c r="AR128" s="77"/>
     </row>
-    <row r="129" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="76" t="s">
         <v>34</v>
       </c>
@@ -12069,7 +12080,7 @@
       <c r="AQ129" s="77"/>
       <c r="AR129" s="77"/>
     </row>
-    <row r="130" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A130" s="76" t="s">
         <v>77</v>
       </c>
@@ -12112,7 +12123,7 @@
       <c r="AQ130" s="77"/>
       <c r="AR130" s="77"/>
     </row>
-    <row r="131" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="76" t="s">
         <v>78</v>
       </c>
@@ -12164,7 +12175,7 @@
       <c r="AQ131" s="77"/>
       <c r="AR131" s="77"/>
     </row>
-    <row r="132" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="76" t="s">
         <v>165</v>
       </c>
@@ -12216,7 +12227,7 @@
       <c r="AQ132" s="77"/>
       <c r="AR132" s="77"/>
     </row>
-    <row r="133" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="76" t="s">
         <v>442</v>
       </c>
@@ -12268,7 +12279,7 @@
       <c r="AQ133" s="77"/>
       <c r="AR133" s="77"/>
     </row>
-    <row r="134" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="76" t="s">
         <v>166</v>
       </c>
@@ -12320,7 +12331,7 @@
       <c r="AQ134" s="77"/>
       <c r="AR134" s="77"/>
     </row>
-    <row r="135" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A135" s="76" t="s">
         <v>167</v>
       </c>
@@ -12372,7 +12383,7 @@
       <c r="AQ135" s="77"/>
       <c r="AR135" s="77"/>
     </row>
-    <row r="136" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="76" t="s">
         <v>168</v>
       </c>
@@ -12431,7 +12442,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="137" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="76" t="s">
         <v>169</v>
       </c>
@@ -12490,7 +12501,7 @@
       <c r="AQ137" s="77"/>
       <c r="AR137" s="77"/>
     </row>
-    <row r="138" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="76" t="s">
         <v>170</v>
       </c>
@@ -12547,7 +12558,7 @@
       <c r="AQ138" s="77"/>
       <c r="AR138" s="77"/>
     </row>
-    <row r="139" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="76" t="s">
         <v>79</v>
       </c>
@@ -12604,7 +12615,7 @@
       <c r="AQ139" s="77"/>
       <c r="AR139" s="77"/>
     </row>
-    <row r="140" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A140" s="76" t="s">
         <v>80</v>
       </c>
@@ -12670,7 +12681,7 @@
       <c r="AQ140" s="77"/>
       <c r="AR140" s="77"/>
     </row>
-    <row r="141" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="76" t="s">
         <v>81</v>
       </c>
@@ -12727,7 +12738,7 @@
       <c r="AQ141" s="77"/>
       <c r="AR141" s="77"/>
     </row>
-    <row r="142" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="76" t="s">
         <v>82</v>
       </c>
@@ -12779,7 +12790,7 @@
       <c r="AQ142" s="77"/>
       <c r="AR142" s="77"/>
     </row>
-    <row r="143" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A143" s="76" t="s">
         <v>83</v>
       </c>
@@ -12842,7 +12853,7 @@
       <c r="AQ143" s="77"/>
       <c r="AR143" s="77"/>
     </row>
-    <row r="144" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A144" s="76" t="s">
         <v>84</v>
       </c>
@@ -12917,7 +12928,7 @@
       <c r="AQ144" s="77"/>
       <c r="AR144" s="77"/>
     </row>
-    <row r="145" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A145" s="76" t="s">
         <v>85</v>
       </c>
@@ -12977,7 +12988,7 @@
       <c r="AQ145" s="77"/>
       <c r="AR145" s="77"/>
     </row>
-    <row r="146" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="76" t="s">
         <v>35</v>
       </c>
@@ -13033,7 +13044,7 @@
       <c r="AQ146" s="77"/>
       <c r="AR146" s="77"/>
     </row>
-    <row r="147" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="76" t="s">
         <v>231</v>
       </c>
@@ -13089,7 +13100,7 @@
       <c r="AQ147" s="77"/>
       <c r="AR147" s="77"/>
     </row>
-    <row r="148" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A148" s="76" t="s">
         <v>1085</v>
       </c>
@@ -13146,7 +13157,7 @@
       <c r="AQ148" s="77"/>
       <c r="AR148" s="77"/>
     </row>
-    <row r="149" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A149" s="76" t="s">
         <v>928</v>
       </c>
@@ -13203,7 +13214,7 @@
       <c r="AQ149" s="77"/>
       <c r="AR149" s="77"/>
     </row>
-    <row r="150" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="76" t="s">
         <v>86</v>
       </c>
@@ -13251,7 +13262,7 @@
       <c r="AQ150" s="77"/>
       <c r="AR150" s="77"/>
     </row>
-    <row r="151" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A151" s="76" t="s">
         <v>87</v>
       </c>
@@ -13299,7 +13310,7 @@
       <c r="AQ151" s="77"/>
       <c r="AR151" s="77"/>
     </row>
-    <row r="152" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="76" t="s">
         <v>19</v>
       </c>
@@ -13358,7 +13369,7 @@
       <c r="AQ152" s="77"/>
       <c r="AR152" s="77"/>
     </row>
-    <row r="153" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="76" t="s">
         <v>150</v>
       </c>
@@ -13421,7 +13432,7 @@
       <c r="AQ153" s="77"/>
       <c r="AR153" s="77"/>
     </row>
-    <row r="154" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A154" s="76" t="s">
         <v>151</v>
       </c>
@@ -13494,7 +13505,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="155" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="76" t="s">
         <v>88</v>
       </c>
@@ -13555,7 +13566,7 @@
       <c r="AQ155" s="77"/>
       <c r="AR155" s="77"/>
     </row>
-    <row r="156" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="76" t="s">
         <v>89</v>
       </c>
@@ -13616,7 +13627,7 @@
       <c r="AQ156" s="77"/>
       <c r="AR156" s="77"/>
     </row>
-    <row r="157" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="76" t="s">
         <v>90</v>
       </c>
@@ -13672,7 +13683,7 @@
       <c r="AQ157" s="77"/>
       <c r="AR157" s="77"/>
     </row>
-    <row r="158" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A158" s="76" t="s">
         <v>718</v>
       </c>
@@ -13728,7 +13739,7 @@
       <c r="AQ158" s="77"/>
       <c r="AR158" s="77"/>
     </row>
-    <row r="159" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="76" t="s">
         <v>171</v>
       </c>
@@ -13786,7 +13797,7 @@
       <c r="AQ159" s="77"/>
       <c r="AR159" s="77"/>
     </row>
-    <row r="160" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="76" t="s">
         <v>172</v>
       </c>
@@ -13849,7 +13860,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="161" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="76" t="s">
         <v>173</v>
       </c>
@@ -13906,7 +13917,7 @@
       <c r="AQ161" s="77"/>
       <c r="AR161" s="77"/>
     </row>
-    <row r="162" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A162" s="76" t="s">
         <v>174</v>
       </c>
@@ -13963,7 +13974,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="163" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="76" t="s">
         <v>36</v>
       </c>
@@ -14022,7 +14033,7 @@
       <c r="AQ163" s="77"/>
       <c r="AR163" s="77"/>
     </row>
-    <row r="164" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" s="76" t="s">
         <v>175</v>
       </c>
@@ -14074,7 +14085,7 @@
       <c r="AQ164" s="77"/>
       <c r="AR164" s="77"/>
     </row>
-    <row r="165" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A165" s="76" t="s">
         <v>37</v>
       </c>
@@ -14133,7 +14144,7 @@
       <c r="AQ165" s="77"/>
       <c r="AR165" s="77"/>
     </row>
-    <row r="166" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="76" t="s">
         <v>38</v>
       </c>
@@ -14192,7 +14203,7 @@
       <c r="AQ166" s="77"/>
       <c r="AR166" s="77"/>
     </row>
-    <row r="167" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A167" s="76" t="s">
         <v>39</v>
       </c>
@@ -14251,7 +14262,7 @@
       <c r="AQ167" s="77"/>
       <c r="AR167" s="77"/>
     </row>
-    <row r="168" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="76" t="s">
         <v>176</v>
       </c>
@@ -14308,7 +14319,7 @@
       <c r="AQ168" s="77"/>
       <c r="AR168" s="77"/>
     </row>
-    <row r="169" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="76" t="s">
         <v>177</v>
       </c>
@@ -14370,7 +14381,7 @@
       <c r="AQ169" s="77"/>
       <c r="AR169" s="77"/>
     </row>
-    <row r="170" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="76" t="s">
         <v>40</v>
       </c>
@@ -14428,7 +14439,7 @@
       <c r="AQ170" s="77"/>
       <c r="AR170" s="77"/>
     </row>
-    <row r="171" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A171" s="76" t="s">
         <v>91</v>
       </c>
@@ -14475,7 +14486,7 @@
       <c r="AQ171" s="77"/>
       <c r="AR171" s="77"/>
     </row>
-    <row r="172" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="76" t="s">
         <v>92</v>
       </c>
@@ -14522,7 +14533,7 @@
       <c r="AQ172" s="77"/>
       <c r="AR172" s="77"/>
     </row>
-    <row r="173" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="76" t="s">
         <v>41</v>
       </c>
@@ -14572,7 +14583,7 @@
       <c r="AQ173" s="77"/>
       <c r="AR173" s="77"/>
     </row>
-    <row r="174" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" s="76" t="s">
         <v>178</v>
       </c>
@@ -14624,7 +14635,7 @@
       <c r="AQ174" s="77"/>
       <c r="AR174" s="77"/>
     </row>
-    <row r="175" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="76" t="s">
         <v>179</v>
       </c>
@@ -14676,7 +14687,7 @@
       <c r="AQ175" s="77"/>
       <c r="AR175" s="77"/>
     </row>
-    <row r="176" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A176" s="76" t="s">
         <v>180</v>
       </c>
@@ -14728,7 +14739,7 @@
       <c r="AQ176" s="77"/>
       <c r="AR176" s="77"/>
     </row>
-    <row r="177" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A177" s="76" t="s">
         <v>443</v>
       </c>
@@ -14780,7 +14791,7 @@
       <c r="AQ177" s="77"/>
       <c r="AR177" s="77"/>
     </row>
-    <row r="178" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A178" s="76" t="s">
         <v>232</v>
       </c>
@@ -14837,7 +14848,7 @@
       <c r="AQ178" s="77"/>
       <c r="AR178" s="77"/>
     </row>
-    <row r="179" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A179" s="76" t="s">
         <v>233</v>
       </c>
@@ -14884,7 +14895,7 @@
       <c r="AQ179" s="77"/>
       <c r="AR179" s="77"/>
     </row>
-    <row r="180" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A180" s="76" t="s">
         <v>93</v>
       </c>
@@ -14931,7 +14942,7 @@
       <c r="AQ180" s="77"/>
       <c r="AR180" s="77"/>
     </row>
-    <row r="181" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A181" s="76" t="s">
         <v>181</v>
       </c>
@@ -14989,7 +15000,7 @@
       <c r="AQ181" s="77"/>
       <c r="AR181" s="77"/>
     </row>
-    <row r="182" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A182" s="76" t="s">
         <v>234</v>
       </c>
@@ -15036,7 +15047,7 @@
       <c r="AQ182" s="77"/>
       <c r="AR182" s="77"/>
     </row>
-    <row r="183" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A183" s="76" t="s">
         <v>235</v>
       </c>
@@ -15089,7 +15100,7 @@
       <c r="AQ183" s="77"/>
       <c r="AR183" s="77"/>
     </row>
-    <row r="184" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184" s="76" t="s">
         <v>236</v>
       </c>
@@ -15146,7 +15157,7 @@
       <c r="AQ184" s="77"/>
       <c r="AR184" s="77"/>
     </row>
-    <row r="185" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A185" s="76" t="s">
         <v>94</v>
       </c>
@@ -15193,7 +15204,7 @@
       <c r="AQ185" s="77"/>
       <c r="AR185" s="77"/>
     </row>
-    <row r="186" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A186" s="76" t="s">
         <v>182</v>
       </c>
@@ -15252,7 +15263,7 @@
       <c r="AQ186" s="77"/>
       <c r="AR186" s="77"/>
     </row>
-    <row r="187" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A187" s="76" t="s">
         <v>183</v>
       </c>
@@ -15315,7 +15326,7 @@
       <c r="AQ187" s="77"/>
       <c r="AR187" s="77"/>
     </row>
-    <row r="188" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A188" s="76" t="s">
         <v>184</v>
       </c>
@@ -15378,7 +15389,7 @@
       <c r="AQ188" s="77"/>
       <c r="AR188" s="77"/>
     </row>
-    <row r="189" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A189" s="76" t="s">
         <v>185</v>
       </c>
@@ -15441,7 +15452,7 @@
       <c r="AQ189" s="77"/>
       <c r="AR189" s="77"/>
     </row>
-    <row r="190" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="76" t="s">
         <v>42</v>
       </c>
@@ -15490,7 +15501,7 @@
       <c r="AQ190" s="77"/>
       <c r="AR190" s="77"/>
     </row>
-    <row r="191" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A191" s="76" t="s">
         <v>186</v>
       </c>
@@ -15553,7 +15564,7 @@
       <c r="AQ191" s="77"/>
       <c r="AR191" s="77"/>
     </row>
-    <row r="192" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="76" t="s">
         <v>187</v>
       </c>
@@ -15609,7 +15620,7 @@
       <c r="AQ192" s="77"/>
       <c r="AR192" s="77"/>
     </row>
-    <row r="193" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A193" s="76" t="s">
         <v>188</v>
       </c>
@@ -15669,7 +15680,7 @@
       <c r="AQ193" s="77"/>
       <c r="AR193" s="77"/>
     </row>
-    <row r="194" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A194" s="76" t="s">
         <v>95</v>
       </c>
@@ -15712,7 +15723,7 @@
       <c r="AQ194" s="77"/>
       <c r="AR194" s="77"/>
     </row>
-    <row r="195" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A195" s="76" t="s">
         <v>96</v>
       </c>
@@ -15759,7 +15770,7 @@
       </c>
       <c r="AR195" s="77"/>
     </row>
-    <row r="196" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A196" s="76" t="s">
         <v>97</v>
       </c>
@@ -15802,7 +15813,7 @@
       <c r="AQ196" s="77"/>
       <c r="AR196" s="77"/>
     </row>
-    <row r="197" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A197" s="76" t="s">
         <v>98</v>
       </c>
@@ -15845,7 +15856,7 @@
       <c r="AQ197" s="77"/>
       <c r="AR197" s="77"/>
     </row>
-    <row r="198" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A198" s="76" t="s">
         <v>43</v>
       </c>
@@ -15905,7 +15916,7 @@
       <c r="AQ198" s="77"/>
       <c r="AR198" s="77"/>
     </row>
-    <row r="199" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A199" s="76" t="s">
         <v>44</v>
       </c>
@@ -15963,7 +15974,7 @@
       <c r="AQ199" s="77"/>
       <c r="AR199" s="77"/>
     </row>
-    <row r="200" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A200" s="76" t="s">
         <v>99</v>
       </c>
@@ -16035,7 +16046,7 @@
       <c r="AQ200" s="77"/>
       <c r="AR200" s="77"/>
     </row>
-    <row r="201" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="76" t="s">
         <v>423</v>
       </c>
@@ -16093,7 +16104,7 @@
       <c r="AQ201" s="77"/>
       <c r="AR201" s="77"/>
     </row>
-    <row r="202" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="76" t="s">
         <v>100</v>
       </c>
@@ -16145,7 +16156,7 @@
       <c r="AQ202" s="77"/>
       <c r="AR202" s="77"/>
     </row>
-    <row r="203" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A203" s="76" t="s">
         <v>189</v>
       </c>
@@ -16197,7 +16208,7 @@
       <c r="AQ203" s="77"/>
       <c r="AR203" s="77"/>
     </row>
-    <row r="204" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A204" s="76" t="s">
         <v>45</v>
       </c>
@@ -16252,7 +16263,7 @@
       <c r="AQ204" s="77"/>
       <c r="AR204" s="77"/>
     </row>
-    <row r="205" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A205" s="76" t="s">
         <v>444</v>
       </c>
@@ -16305,7 +16316,7 @@
       <c r="AQ205" s="77"/>
       <c r="AR205" s="77"/>
     </row>
-    <row r="206" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A206" s="76" t="s">
         <v>237</v>
       </c>
@@ -16352,7 +16363,7 @@
       <c r="AQ206" s="77"/>
       <c r="AR206" s="77"/>
     </row>
-    <row r="207" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A207" s="76" t="s">
         <v>238</v>
       </c>
@@ -16408,7 +16419,7 @@
       <c r="AQ207" s="77"/>
       <c r="AR207" s="77"/>
     </row>
-    <row r="208" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="76" t="s">
         <v>239</v>
       </c>
@@ -16462,7 +16473,7 @@
       <c r="AQ208" s="77"/>
       <c r="AR208" s="77"/>
     </row>
-    <row r="209" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A209" s="76" t="s">
         <v>240</v>
       </c>
@@ -16509,7 +16520,7 @@
       <c r="AQ209" s="77"/>
       <c r="AR209" s="77"/>
     </row>
-    <row r="210" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A210" s="76" t="s">
         <v>445</v>
       </c>
@@ -16562,7 +16573,7 @@
       <c r="AQ210" s="77"/>
       <c r="AR210" s="77"/>
     </row>
-    <row r="211" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A211" s="76" t="s">
         <v>241</v>
       </c>
@@ -16617,7 +16628,7 @@
       </c>
       <c r="AR211" s="77"/>
     </row>
-    <row r="212" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A212" s="76" t="s">
         <v>242</v>
       </c>
@@ -16664,7 +16675,7 @@
       <c r="AQ212" s="77"/>
       <c r="AR212" s="77"/>
     </row>
-    <row r="213" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A213" s="76" t="s">
         <v>46</v>
       </c>
@@ -16724,7 +16735,7 @@
       <c r="AQ213" s="77"/>
       <c r="AR213" s="77"/>
     </row>
-    <row r="214" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A214" s="76" t="s">
         <v>47</v>
       </c>
@@ -16787,7 +16798,7 @@
       <c r="AQ214" s="77"/>
       <c r="AR214" s="77"/>
     </row>
-    <row r="215" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A215" s="76" t="s">
         <v>243</v>
       </c>
@@ -16846,7 +16857,7 @@
       <c r="AQ215" s="77"/>
       <c r="AR215" s="77"/>
     </row>
-    <row r="216" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A216" s="76" t="s">
         <v>101</v>
       </c>
@@ -16898,7 +16909,7 @@
       <c r="AQ216" s="77"/>
       <c r="AR216" s="77"/>
     </row>
-    <row r="217" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A217" s="76" t="s">
         <v>190</v>
       </c>
@@ -16952,7 +16963,7 @@
       <c r="AQ217" s="77"/>
       <c r="AR217" s="77"/>
     </row>
-    <row r="218" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A218" s="76" t="s">
         <v>102</v>
       </c>
@@ -16999,7 +17010,7 @@
       <c r="AQ218" s="77"/>
       <c r="AR218" s="77"/>
     </row>
-    <row r="219" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A219" s="76" t="s">
         <v>191</v>
       </c>
@@ -17053,7 +17064,7 @@
       <c r="AQ219" s="77"/>
       <c r="AR219" s="77"/>
     </row>
-    <row r="220" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A220" s="76" t="s">
         <v>192</v>
       </c>
@@ -17105,7 +17116,7 @@
       <c r="AQ220" s="77"/>
       <c r="AR220" s="77"/>
     </row>
-    <row r="221" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A221" s="76" t="s">
         <v>193</v>
       </c>
@@ -17157,7 +17168,7 @@
       <c r="AQ221" s="77"/>
       <c r="AR221" s="77"/>
     </row>
-    <row r="222" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A222" s="76" t="s">
         <v>446</v>
       </c>
@@ -17205,7 +17216,7 @@
       <c r="AQ222" s="77"/>
       <c r="AR222" s="77"/>
     </row>
-    <row r="223" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A223" s="76" t="s">
         <v>194</v>
       </c>
@@ -17264,7 +17275,7 @@
       <c r="AQ223" s="77"/>
       <c r="AR223" s="77"/>
     </row>
-    <row r="224" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A224" s="76" t="s">
         <v>195</v>
       </c>
@@ -17324,7 +17335,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="225" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A225" s="76" t="s">
         <v>196</v>
       </c>
@@ -17385,7 +17396,7 @@
       <c r="AQ225" s="77"/>
       <c r="AR225" s="77"/>
     </row>
-    <row r="226" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A226" s="76" t="s">
         <v>103</v>
       </c>
@@ -17434,7 +17445,7 @@
       </c>
       <c r="AR226" s="77"/>
     </row>
-    <row r="227" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A227" s="76" t="s">
         <v>425</v>
       </c>
@@ -17483,7 +17494,7 @@
       <c r="AQ227" s="77"/>
       <c r="AR227" s="77"/>
     </row>
-    <row r="228" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A228" s="76" t="s">
         <v>104</v>
       </c>
@@ -17545,7 +17556,7 @@
       <c r="AQ228" s="77"/>
       <c r="AR228" s="77"/>
     </row>
-    <row r="229" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A229" s="76" t="s">
         <v>244</v>
       </c>
@@ -17598,7 +17609,7 @@
       <c r="AQ229" s="77"/>
       <c r="AR229" s="77"/>
     </row>
-    <row r="230" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A230" s="76" t="s">
         <v>447</v>
       </c>
@@ -17651,7 +17662,7 @@
       <c r="AQ230" s="77"/>
       <c r="AR230" s="77"/>
     </row>
-    <row r="231" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A231" s="76" t="s">
         <v>105</v>
       </c>
@@ -17703,7 +17714,7 @@
       </c>
       <c r="AR231" s="77"/>
     </row>
-    <row r="232" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A232" s="76" t="s">
         <v>106</v>
       </c>
@@ -17766,7 +17777,7 @@
       <c r="AQ232" s="77"/>
       <c r="AR232" s="77"/>
     </row>
-    <row r="233" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A233" s="76" t="s">
         <v>197</v>
       </c>
@@ -17825,7 +17836,7 @@
       </c>
       <c r="AR233" s="77"/>
     </row>
-    <row r="234" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A234" s="76" t="s">
         <v>198</v>
       </c>
@@ -17884,7 +17895,7 @@
       </c>
       <c r="AR234" s="77"/>
     </row>
-    <row r="235" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A235" s="76" t="s">
         <v>245</v>
       </c>
@@ -17931,7 +17942,7 @@
       <c r="AQ235" s="77"/>
       <c r="AR235" s="77"/>
     </row>
-    <row r="236" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A236" s="76" t="s">
         <v>199</v>
       </c>
@@ -17988,7 +17999,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="237" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A237" s="76" t="s">
         <v>200</v>
       </c>
@@ -18052,7 +18063,7 @@
       </c>
       <c r="AR237" s="77"/>
     </row>
-    <row r="238" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A238" s="76" t="s">
         <v>201</v>
       </c>
@@ -18113,7 +18124,7 @@
       </c>
       <c r="AR238" s="77"/>
     </row>
-    <row r="239" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A239" s="76" t="s">
         <v>202</v>
       </c>
@@ -18177,7 +18188,7 @@
       </c>
       <c r="AR239" s="77"/>
     </row>
-    <row r="240" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A240" s="76" t="s">
         <v>49</v>
       </c>
@@ -18233,7 +18244,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="241" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A241" s="76" t="s">
         <v>48</v>
       </c>
@@ -18294,7 +18305,7 @@
       </c>
       <c r="AR241" s="77"/>
     </row>
-    <row r="242" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A242" s="76" t="s">
         <v>107</v>
       </c>
@@ -18341,7 +18352,7 @@
       <c r="AQ242" s="77"/>
       <c r="AR242" s="77"/>
     </row>
-    <row r="243" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A243" s="76" t="s">
         <v>246</v>
       </c>
@@ -18388,7 +18399,7 @@
       <c r="AQ243" s="77"/>
       <c r="AR243" s="77"/>
     </row>
-    <row r="244" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A244" s="76" t="s">
         <v>203</v>
       </c>
@@ -18459,7 +18470,7 @@
       <c r="AQ244" s="77"/>
       <c r="AR244" s="77"/>
     </row>
-    <row r="245" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A245" s="76" t="s">
         <v>449</v>
       </c>
@@ -18507,7 +18518,7 @@
       <c r="AQ245" s="77"/>
       <c r="AR245" s="77"/>
     </row>
-    <row r="246" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A246" s="76" t="s">
         <v>448</v>
       </c>
@@ -18555,7 +18566,7 @@
       <c r="AQ246" s="77"/>
       <c r="AR246" s="77"/>
     </row>
-    <row r="247" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A247" s="76" t="s">
         <v>204</v>
       </c>
@@ -18603,7 +18614,7 @@
       <c r="AQ247" s="77"/>
       <c r="AR247" s="77"/>
     </row>
-    <row r="248" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A248" s="76" t="s">
         <v>726</v>
       </c>
@@ -18670,7 +18681,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="249" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A249" s="76" t="s">
         <v>205</v>
       </c>
@@ -18722,7 +18733,7 @@
       <c r="AQ249" s="77"/>
       <c r="AR249" s="77"/>
     </row>
-    <row r="250" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A250" s="76" t="s">
         <v>206</v>
       </c>
@@ -18778,7 +18789,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="251" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A251" s="76" t="s">
         <v>207</v>
       </c>
@@ -18850,7 +18861,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="252" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A252" s="76" t="s">
         <v>450</v>
       </c>
@@ -18898,7 +18909,7 @@
       <c r="AQ252" s="77"/>
       <c r="AR252" s="77"/>
     </row>
-    <row r="253" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A253" s="76" t="s">
         <v>724</v>
       </c>
@@ -18960,7 +18971,7 @@
       <c r="AQ253" s="77"/>
       <c r="AR253" s="77"/>
     </row>
-    <row r="254" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A254" s="76" t="s">
         <v>725</v>
       </c>
@@ -19017,7 +19028,7 @@
       <c r="AQ254" s="77"/>
       <c r="AR254" s="77"/>
     </row>
-    <row r="255" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A255" s="76" t="s">
         <v>208</v>
       </c>
@@ -19087,7 +19098,7 @@
       <c r="AQ255" s="77"/>
       <c r="AR255" s="77"/>
     </row>
-    <row r="256" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A256" s="76" t="s">
         <v>209</v>
       </c>
@@ -19157,7 +19168,7 @@
       <c r="AQ256" s="77"/>
       <c r="AR256" s="77"/>
     </row>
-    <row r="257" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A257" s="76" t="s">
         <v>210</v>
       </c>
@@ -19209,7 +19220,7 @@
       <c r="AQ257" s="77"/>
       <c r="AR257" s="77"/>
     </row>
-    <row r="258" spans="1:44" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:44" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A258" s="76" t="s">
         <v>723</v>
       </c>
@@ -19268,7 +19279,7 @@
       <c r="AQ258" s="77"/>
       <c r="AR258" s="77"/>
     </row>
-    <row r="259" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A259" s="76" t="s">
         <v>211</v>
       </c>
@@ -19330,7 +19341,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="260" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A260" s="76" t="s">
         <v>50</v>
       </c>
@@ -19396,7 +19407,7 @@
       </c>
       <c r="AR260" s="77"/>
     </row>
-    <row r="261" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A261" s="76" t="s">
         <v>108</v>
       </c>
@@ -19443,7 +19454,7 @@
       <c r="AQ261" s="77"/>
       <c r="AR261" s="77"/>
     </row>
-    <row r="262" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A262" s="76" t="s">
         <v>212</v>
       </c>
@@ -19497,7 +19508,7 @@
       <c r="AQ262" s="77"/>
       <c r="AR262" s="77"/>
     </row>
-    <row r="263" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A263" s="76" t="s">
         <v>51</v>
       </c>
@@ -19546,7 +19557,7 @@
       <c r="AQ263" s="77"/>
       <c r="AR263" s="77"/>
     </row>
-    <row r="264" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A264" s="76" t="s">
         <v>109</v>
       </c>
@@ -19593,7 +19604,7 @@
       <c r="AQ264" s="77"/>
       <c r="AR264" s="77"/>
     </row>
-    <row r="265" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A265" s="76" t="s">
         <v>52</v>
       </c>
@@ -19646,7 +19657,7 @@
       </c>
       <c r="AR265" s="77"/>
     </row>
-    <row r="266" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A266" s="76" t="s">
         <v>424</v>
       </c>
@@ -19691,7 +19702,7 @@
       <c r="AQ266" s="77"/>
       <c r="AR266" s="77"/>
     </row>
-    <row r="267" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A267" s="76" t="s">
         <v>53</v>
       </c>
@@ -19752,7 +19763,7 @@
       <c r="AQ267" s="77"/>
       <c r="AR267" s="77"/>
     </row>
-    <row r="268" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A268" s="76" t="s">
         <v>213</v>
       </c>
@@ -19809,7 +19820,7 @@
       <c r="AQ268" s="77"/>
       <c r="AR268" s="77"/>
     </row>
-    <row r="269" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A269" s="76" t="s">
         <v>214</v>
       </c>
@@ -19869,7 +19880,7 @@
       <c r="AQ269" s="77"/>
       <c r="AR269" s="77"/>
     </row>
-    <row r="270" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A270" s="76" t="s">
         <v>54</v>
       </c>
@@ -19929,7 +19940,7 @@
       </c>
       <c r="AR270" s="77"/>
     </row>
-    <row r="271" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A271" s="76" t="s">
         <v>55</v>
       </c>
@@ -19978,7 +19989,7 @@
       </c>
       <c r="AR271" s="77"/>
     </row>
-    <row r="272" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:44" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A272" s="76" t="s">
         <v>56</v>
       </c>
@@ -20038,7 +20049,7 @@
       <c r="AQ272" s="77"/>
       <c r="AR272" s="77"/>
     </row>
-    <row r="273" spans="1:47" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:47" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A273" s="76" t="s">
         <v>247</v>
       </c>
@@ -20085,7 +20096,7 @@
       <c r="AQ273" s="77"/>
       <c r="AR273" s="77"/>
     </row>
-    <row r="274" spans="1:47" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:47" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A274" s="76" t="s">
         <v>248</v>
       </c>
@@ -20132,7 +20143,7 @@
       <c r="AQ274" s="77"/>
       <c r="AR274" s="77"/>
     </row>
-    <row r="275" spans="1:47" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:47" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A275" s="76" t="s">
         <v>249</v>
       </c>
@@ -20179,7 +20190,7 @@
       <c r="AQ275" s="77"/>
       <c r="AR275" s="77"/>
     </row>
-    <row r="276" spans="1:47" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:47" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A276" s="76" t="s">
         <v>250</v>
       </c>
@@ -20226,7 +20237,7 @@
       <c r="AQ276" s="77"/>
       <c r="AR276" s="77"/>
     </row>
-    <row r="277" spans="1:47" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:47" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A277" s="76" t="s">
         <v>57</v>
       </c>
@@ -20288,7 +20299,7 @@
       <c r="AQ277" s="77"/>
       <c r="AR277" s="77"/>
     </row>
-    <row r="278" spans="1:47" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:47" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A278" s="76" t="s">
         <v>215</v>
       </c>
@@ -20347,7 +20358,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="279" spans="1:47" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:47" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A279" s="76" t="s">
         <v>110</v>
       </c>
@@ -20394,7 +20405,7 @@
       <c r="AQ279" s="77"/>
       <c r="AR279" s="77"/>
     </row>
-    <row r="280" spans="1:47" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:47" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A280" s="76" t="s">
         <v>808</v>
       </c>
@@ -20455,7 +20466,7 @@
       <c r="AQ280" s="77"/>
       <c r="AR280" s="77"/>
     </row>
-    <row r="281" spans="1:47" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:47" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A281" s="76" t="s">
         <v>111</v>
       </c>
@@ -20512,7 +20523,7 @@
       <c r="AQ281" s="77"/>
       <c r="AR281" s="77"/>
     </row>
-    <row r="282" spans="1:47" s="79" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:47" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A282" s="76" t="s">
         <v>216</v>
       </c>
@@ -20568,7 +20579,7 @@
       <c r="AQ282" s="77"/>
       <c r="AR282" s="77"/>
     </row>
-    <row r="283" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A283" s="80" t="s">
         <v>58</v>
       </c>
@@ -20621,7 +20632,7 @@
       <c r="AR283" s="81"/>
       <c r="AU283" s="79"/>
     </row>
-    <row r="284" spans="1:47" ht="29" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A284" s="80" t="s">
         <v>112</v>
       </c>
@@ -20676,7 +20687,7 @@
       <c r="AR284" s="81"/>
       <c r="AU284" s="79"/>
     </row>
-    <row r="285" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A285" s="80" t="s">
         <v>113</v>
       </c>
@@ -20729,7 +20740,7 @@
       <c r="AR285" s="81"/>
       <c r="AU285" s="79"/>
     </row>
-    <row r="286" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A286" s="80" t="s">
         <v>217</v>
       </c>
@@ -20783,13 +20794,13 @@
       <c r="AR286" s="81"/>
       <c r="AU286" s="79"/>
     </row>
-    <row r="287" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:47" x14ac:dyDescent="0.3">
       <c r="AU287" s="79"/>
     </row>
-    <row r="288" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:47" x14ac:dyDescent="0.3">
       <c r="AU288" s="79"/>
     </row>
-    <row r="289" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A289" s="80"/>
       <c r="B289" s="87"/>
       <c r="P289" s="88" t="s">
@@ -20797,7 +20808,7 @@
       </c>
       <c r="AU289" s="79"/>
     </row>
-    <row r="290" spans="1:47" ht="29" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:47" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A290" s="89" t="s">
         <v>886</v>
       </c>
@@ -20848,7 +20859,7 @@
       <c r="AR290" s="81"/>
       <c r="AU290" s="79"/>
     </row>
-    <row r="291" spans="1:47" ht="29" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:47" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A291" s="89" t="s">
         <v>887</v>
       </c>
@@ -20899,7 +20910,7 @@
       <c r="AR291" s="81"/>
       <c r="AU291" s="79"/>
     </row>
-    <row r="292" spans="1:47" ht="29" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:47" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A292" s="89" t="s">
         <v>888</v>
       </c>
@@ -20950,7 +20961,7 @@
       <c r="AR292" s="81"/>
       <c r="AU292" s="79"/>
     </row>
-    <row r="293" spans="1:47" ht="29" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:47" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A293" s="89" t="s">
         <v>889</v>
       </c>
@@ -21003,7 +21014,7 @@
       <c r="AR293" s="81"/>
       <c r="AU293" s="79"/>
     </row>
-    <row r="294" spans="1:47" ht="29" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:47" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A294" s="89" t="s">
         <v>890</v>
       </c>
@@ -21048,7 +21059,7 @@
       <c r="AR294" s="81"/>
       <c r="AU294" s="79"/>
     </row>
-    <row r="295" spans="1:47" ht="29" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:47" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A295" s="89" t="s">
         <v>891</v>
       </c>
@@ -21093,7 +21104,7 @@
       <c r="AR295" s="81"/>
       <c r="AU295" s="79"/>
     </row>
-    <row r="296" spans="1:47" ht="58" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:47" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A296" s="80" t="s">
         <v>126</v>
       </c>
@@ -21109,7 +21120,7 @@
       <c r="K296" s="83"/>
       <c r="AU296" s="79"/>
     </row>
-    <row r="297" spans="1:47" ht="29" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:47" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A297" s="80" t="s">
         <v>892</v>
       </c>
@@ -21122,7 +21133,7 @@
       <c r="K297" s="83"/>
       <c r="AU297" s="79"/>
     </row>
-    <row r="298" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A298" s="80" t="s">
         <v>893</v>
       </c>
@@ -21135,7 +21146,7 @@
       <c r="K298" s="83"/>
       <c r="AU298" s="79"/>
     </row>
-    <row r="299" spans="1:47" ht="29" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:47" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A299" s="80" t="s">
         <v>894</v>
       </c>
@@ -21148,12 +21159,12 @@
       <c r="K299" s="83"/>
       <c r="AU299" s="79"/>
     </row>
-    <row r="300" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A300" s="80"/>
       <c r="B300" s="81"/>
       <c r="C300" s="82"/>
     </row>
-    <row r="301" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:47" x14ac:dyDescent="0.3">
       <c r="D301" s="81"/>
       <c r="E301" s="81"/>
       <c r="F301" s="81"/>
@@ -21188,17 +21199,17 @@
       <c r="AR301" s="81"/>
       <c r="AS301" s="81"/>
     </row>
-    <row r="302" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A302" s="80" t="s">
         <v>1237</v>
       </c>
     </row>
-    <row r="303" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A303" s="85" t="s">
         <v>1238</v>
       </c>
     </row>
-    <row r="304" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A304" s="85" t="s">
         <v>1239</v>
       </c>
@@ -21228,24 +21239,24 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1796875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1796875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.1796875" style="2"/>
+    <col min="1" max="1" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.21875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>396</v>
       </c>
@@ -21268,7 +21279,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>255</v>
       </c>
@@ -21279,7 +21290,7 @@
         <v>2.0833333333333333E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>256</v>
       </c>
@@ -21290,7 +21301,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>257</v>
       </c>
@@ -21301,7 +21312,7 @@
         <v>8.3333333333333332E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>258</v>
       </c>
@@ -21312,7 +21323,7 @@
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>259</v>
       </c>
@@ -21326,7 +21337,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>260</v>
       </c>
@@ -21340,7 +21351,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>261</v>
       </c>
@@ -21354,7 +21365,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>458</v>
       </c>
@@ -21371,7 +21382,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>459</v>
       </c>
@@ -21386,7 +21397,7 @@
       </c>
       <c r="E11" s="99"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>460</v>
       </c>
@@ -21401,7 +21412,7 @@
       </c>
       <c r="E12" s="99"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>461</v>
       </c>
@@ -21416,7 +21427,7 @@
       </c>
       <c r="E13" s="99"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>462</v>
       </c>
@@ -21431,7 +21442,7 @@
       </c>
       <c r="E14" s="100"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>262</v>
       </c>
@@ -21445,7 +21456,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>263</v>
       </c>
@@ -21459,7 +21470,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>264</v>
       </c>
@@ -21470,7 +21481,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>265</v>
       </c>
@@ -21481,7 +21492,7 @@
         <v>2.2916666666666669E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>266</v>
       </c>
@@ -21504,7 +21515,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>267</v>
       </c>
@@ -21527,7 +21538,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>268</v>
       </c>
@@ -21550,7 +21561,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>269</v>
       </c>
@@ -21573,7 +21584,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>270</v>
       </c>
@@ -21596,7 +21607,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>271</v>
       </c>
@@ -21607,7 +21618,7 @@
         <v>3.5416666666666666E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>272</v>
       </c>
@@ -21618,7 +21629,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>273</v>
       </c>
@@ -21632,7 +21643,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>274</v>
       </c>
@@ -21643,7 +21654,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>275</v>
       </c>
@@ -21663,7 +21674,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>276</v>
       </c>
@@ -21674,7 +21685,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>277</v>
       </c>
@@ -21685,7 +21696,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>278</v>
       </c>
@@ -21705,7 +21716,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>279</v>
       </c>
@@ -21725,7 +21736,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>280</v>
       </c>
@@ -21745,7 +21756,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>281</v>
       </c>
@@ -21756,7 +21767,7 @@
         <v>1.8749999999999999E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>282</v>
       </c>
@@ -21767,7 +21778,7 @@
         <v>4.9999999999999996E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>283</v>
       </c>
@@ -21781,7 +21792,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>284</v>
       </c>
@@ -21795,7 +21806,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>285</v>
       </c>
@@ -21809,7 +21820,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>286</v>
       </c>
@@ -21820,7 +21831,7 @@
         <v>6.2499999999999995E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>287</v>
       </c>
@@ -21831,7 +21842,7 @@
         <v>6.2499999999999995E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>288</v>
       </c>
@@ -21842,7 +21853,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>289</v>
       </c>
@@ -21853,7 +21864,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>290</v>
       </c>
@@ -21867,7 +21878,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>463</v>
       </c>
@@ -21881,7 +21892,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>464</v>
       </c>
@@ -21895,7 +21906,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>291</v>
       </c>
@@ -21906,7 +21917,7 @@
         <v>1.8749999999999999E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>292</v>
       </c>
@@ -21926,7 +21937,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>293</v>
       </c>
@@ -21946,7 +21957,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>294</v>
       </c>
@@ -21966,7 +21977,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>295</v>
       </c>
@@ -21986,7 +21997,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>296</v>
       </c>
@@ -21997,7 +22008,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>297</v>
       </c>
@@ -22011,7 +22022,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>298</v>
       </c>
@@ -22022,7 +22033,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>299</v>
       </c>
@@ -22033,7 +22044,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>300</v>
       </c>
@@ -22044,7 +22055,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>301</v>
       </c>
@@ -22055,7 +22066,7 @@
         <v>2.0833333333333333E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>302</v>
       </c>
@@ -22066,7 +22077,7 @@
         <v>6.2499999999999995E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>303</v>
       </c>
@@ -22077,7 +22088,7 @@
         <v>4.5833333333333337E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>304</v>
       </c>
@@ -22097,7 +22108,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>305</v>
       </c>
@@ -22108,7 +22119,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>306</v>
       </c>
@@ -22119,7 +22130,7 @@
         <v>2.9166666666666664E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>307</v>
       </c>
@@ -22130,7 +22141,7 @@
         <v>1.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>308</v>
       </c>
@@ -22141,7 +22152,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>309</v>
       </c>
@@ -22152,7 +22163,7 @@
         <v>2.7083333333333334E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>310</v>
       </c>
@@ -22163,7 +22174,7 @@
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>311</v>
       </c>
@@ -22177,7 +22188,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>312</v>
       </c>
@@ -22191,7 +22202,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>313</v>
       </c>
@@ -22202,7 +22213,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>314</v>
       </c>
@@ -22222,7 +22233,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>315</v>
       </c>
@@ -22246,7 +22257,7 @@
       </c>
       <c r="H70" s="14"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>316</v>
       </c>
@@ -22266,7 +22277,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>317</v>
       </c>
@@ -22286,7 +22297,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>318</v>
       </c>
@@ -22297,7 +22308,7 @@
         <v>1.4583333333333332E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>319</v>
       </c>
@@ -22308,7 +22319,7 @@
         <v>2.9166666666666664E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>320</v>
       </c>
@@ -22322,7 +22333,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="13" t="s">
         <v>321</v>
       </c>
@@ -22333,7 +22344,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>322</v>
       </c>
@@ -22344,7 +22355,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>323</v>
       </c>
@@ -22358,7 +22369,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>324</v>
       </c>
@@ -22369,7 +22380,7 @@
         <v>2.9166666666666664E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>325</v>
       </c>
@@ -22383,7 +22394,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>326</v>
       </c>
@@ -22394,7 +22405,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>327</v>
       </c>
@@ -22405,7 +22416,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>328</v>
       </c>
@@ -22425,7 +22436,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>329</v>
       </c>
@@ -22445,7 +22456,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>330</v>
       </c>
@@ -22456,7 +22467,7 @@
         <v>2.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>331</v>
       </c>
@@ -22476,7 +22487,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>332</v>
       </c>
@@ -22496,7 +22507,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>333</v>
       </c>
@@ -22510,7 +22521,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>334</v>
       </c>
@@ -22521,7 +22532,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>335</v>
       </c>
@@ -22532,7 +22543,7 @@
         <v>2.2916666666666669E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>336</v>
       </c>
@@ -22543,7 +22554,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>337</v>
       </c>
@@ -22554,7 +22565,7 @@
         <v>6.0416666666666667E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>338</v>
       </c>
@@ -22574,7 +22585,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>339</v>
       </c>
@@ -22594,7 +22605,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>340</v>
       </c>
@@ -22614,7 +22625,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>341</v>
       </c>
@@ -22654,22 +22665,22 @@
       <selection pane="bottomLeft" activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.08984375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.1796875" style="2"/>
+    <col min="1" max="1" width="24.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.21875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>854</v>
       </c>
@@ -22686,7 +22697,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>342</v>
       </c>
@@ -22703,7 +22714,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>343</v>
       </c>
@@ -22717,7 +22728,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>344</v>
       </c>
@@ -22731,7 +22742,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>345</v>
       </c>
@@ -22745,7 +22756,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>346</v>
       </c>
@@ -22759,7 +22770,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>347</v>
       </c>
@@ -22773,7 +22784,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>348</v>
       </c>
@@ -22787,7 +22798,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>349</v>
       </c>
@@ -22801,7 +22812,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>350</v>
       </c>
@@ -22815,7 +22826,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>351</v>
       </c>
@@ -22829,7 +22840,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>352</v>
       </c>
@@ -22843,7 +22854,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>353</v>
       </c>
@@ -22857,7 +22868,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>354</v>
       </c>
@@ -22871,7 +22882,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>355</v>
       </c>
@@ -22885,7 +22896,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>356</v>
       </c>
@@ -22902,7 +22913,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>357</v>
       </c>
@@ -22916,7 +22927,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>358</v>
       </c>
@@ -22933,7 +22944,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>359</v>
       </c>
@@ -22950,7 +22961,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>360</v>
       </c>
@@ -22967,7 +22978,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>361</v>
       </c>
@@ -22981,7 +22992,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>362</v>
       </c>
@@ -22995,7 +23006,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>465</v>
       </c>
@@ -23009,7 +23020,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>363</v>
       </c>
@@ -23026,7 +23037,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>262</v>
       </c>
@@ -23040,7 +23051,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>364</v>
       </c>
@@ -23054,7 +23065,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>365</v>
       </c>
@@ -23068,7 +23079,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>366</v>
       </c>
@@ -23085,7 +23096,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>367</v>
       </c>
@@ -23099,7 +23110,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>368</v>
       </c>
@@ -23113,7 +23124,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>369</v>
       </c>
@@ -23127,7 +23138,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>370</v>
       </c>
@@ -23144,7 +23155,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>275</v>
       </c>
@@ -23158,7 +23169,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>371</v>
       </c>
@@ -23175,7 +23186,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>372</v>
       </c>
@@ -23192,7 +23203,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>373</v>
       </c>
@@ -23206,7 +23217,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>374</v>
       </c>
@@ -23220,7 +23231,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>375</v>
       </c>
@@ -23237,7 +23248,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>376</v>
       </c>
@@ -23254,7 +23265,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>377</v>
       </c>
@@ -23271,7 +23282,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>378</v>
       </c>
@@ -23288,7 +23299,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>303</v>
       </c>
@@ -23302,7 +23313,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>379</v>
       </c>
@@ -23316,7 +23327,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>380</v>
       </c>
@@ -23330,7 +23341,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>381</v>
       </c>
@@ -23344,7 +23355,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>311</v>
       </c>
@@ -23358,7 +23369,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>382</v>
       </c>
@@ -23375,7 +23386,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>383</v>
       </c>
@@ -23392,7 +23403,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>384</v>
       </c>
@@ -23406,7 +23417,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>385</v>
       </c>
@@ -23420,7 +23431,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>386</v>
       </c>
@@ -23434,7 +23445,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>387</v>
       </c>
@@ -23451,7 +23462,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>388</v>
       </c>
@@ -23468,7 +23479,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>389</v>
       </c>
@@ -23482,7 +23493,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>466</v>
       </c>
@@ -23499,7 +23510,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>467</v>
       </c>
@@ -23514,7 +23525,7 @@
       </c>
       <c r="E57" s="101"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>468</v>
       </c>
@@ -23529,7 +23540,7 @@
       </c>
       <c r="E58" s="101"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>469</v>
       </c>
@@ -23546,7 +23557,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>470</v>
       </c>
@@ -23561,7 +23572,7 @@
       </c>
       <c r="E60" s="101"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>471</v>
       </c>
@@ -23576,7 +23587,7 @@
       </c>
       <c r="E61" s="101"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>390</v>
       </c>
@@ -23610,16 +23621,16 @@
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="85.81640625" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="4"/>
+    <col min="1" max="1" width="34.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="85.77734375" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9.21875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>884</v>
       </c>
@@ -23631,7 +23642,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>472</v>
       </c>
@@ -23645,7 +23656,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>473</v>
       </c>
@@ -23659,7 +23670,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>474</v>
       </c>
@@ -23671,7 +23682,7 @@
       </c>
       <c r="D4" s="23"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
         <v>475</v>
       </c>
@@ -23685,7 +23696,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>476</v>
       </c>
@@ -23697,7 +23708,7 @@
       </c>
       <c r="D6" s="23"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>477</v>
       </c>
@@ -23709,7 +23720,7 @@
       </c>
       <c r="D7" s="23"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
         <v>502</v>
       </c>
@@ -23723,7 +23734,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
         <v>478</v>
       </c>
@@ -23735,7 +23746,7 @@
       </c>
       <c r="D9" s="23"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
         <v>479</v>
       </c>
@@ -23749,7 +23760,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>480</v>
       </c>
@@ -23763,7 +23774,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
         <v>481</v>
       </c>
@@ -23775,7 +23786,7 @@
       </c>
       <c r="D12" s="23"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
         <v>482</v>
       </c>
@@ -23789,7 +23800,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
         <v>483</v>
       </c>
@@ -23801,7 +23812,7 @@
       </c>
       <c r="D14" s="23"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
         <v>484</v>
       </c>
@@ -23813,7 +23824,7 @@
       </c>
       <c r="D15" s="23"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
         <v>485</v>
       </c>
@@ -23827,7 +23838,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
         <v>486</v>
       </c>
@@ -23841,7 +23852,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
         <v>487</v>
       </c>
@@ -23855,7 +23866,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
         <v>488</v>
       </c>
@@ -23869,7 +23880,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>489</v>
       </c>
@@ -23883,7 +23894,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="21" t="s">
         <v>490</v>
       </c>
@@ -23897,7 +23908,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
         <v>491</v>
       </c>
@@ -23911,7 +23922,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="21" t="s">
         <v>492</v>
       </c>
@@ -23925,7 +23936,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
         <v>493</v>
       </c>
@@ -23939,7 +23950,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="21" t="s">
         <v>494</v>
       </c>
@@ -23953,7 +23964,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
         <v>495</v>
       </c>
@@ -23967,7 +23978,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="21" t="s">
         <v>496</v>
       </c>
@@ -23981,7 +23992,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="21" t="s">
         <v>497</v>
       </c>
@@ -23995,7 +24006,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="21" t="s">
         <v>498</v>
       </c>
@@ -24009,7 +24020,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="21" t="s">
         <v>499</v>
       </c>
@@ -24021,7 +24032,7 @@
       </c>
       <c r="D30" s="23"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="21" t="s">
         <v>500</v>
       </c>
@@ -24033,7 +24044,7 @@
       </c>
       <c r="D31" s="23"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="21" t="s">
         <v>501</v>
       </c>
@@ -24045,52 +24056,52 @@
       </c>
       <c r="D32" s="23"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>1138</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>1139</v>
       </c>
@@ -24110,22 +24121,22 @@
       <selection pane="bottomLeft" activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.81640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1796875" style="68"/>
-    <col min="4" max="4" width="59.81640625" style="26" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="25"/>
+    <col min="2" max="2" width="4.77734375" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" style="68"/>
+    <col min="4" max="4" width="59.77734375" style="26" customWidth="1"/>
+    <col min="5" max="16384" width="9.21875" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>514</v>
       </c>
       <c r="C1" s="67"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>515</v>
       </c>
@@ -24139,7 +24150,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>516</v>
       </c>
@@ -24153,7 +24164,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>517</v>
       </c>
@@ -24167,7 +24178,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>518</v>
       </c>
@@ -24181,7 +24192,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>519</v>
       </c>
@@ -24195,7 +24206,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>520</v>
       </c>
@@ -24209,7 +24220,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>521</v>
       </c>
@@ -24223,7 +24234,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>522</v>
       </c>
@@ -24237,7 +24248,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
         <v>523</v>
       </c>
@@ -24251,7 +24262,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
         <v>524</v>
       </c>
@@ -24262,7 +24273,7 @@
         <v>6.0416666666666667E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
         <v>525</v>
       </c>
@@ -24273,7 +24284,7 @@
         <v>8.6805555555555559E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
         <v>526</v>
       </c>
@@ -24284,7 +24295,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
         <v>527</v>
       </c>
@@ -24298,7 +24309,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
         <v>528</v>
       </c>
@@ -24309,7 +24320,7 @@
         <v>8.2638888888888887E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
         <v>529</v>
       </c>
@@ -24320,7 +24331,7 @@
         <v>7.6388888888888895E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
         <v>530</v>
       </c>
@@ -24334,7 +24345,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="25" t="s">
         <v>531</v>
       </c>
@@ -24348,7 +24359,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="25" t="s">
         <v>532</v>
       </c>
@@ -24362,7 +24373,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="25" t="s">
         <v>533</v>
       </c>
@@ -24376,7 +24387,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="25" t="s">
         <v>534</v>
       </c>
@@ -24390,7 +24401,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="25" t="s">
         <v>535</v>
       </c>
@@ -24404,7 +24415,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="25" t="s">
         <v>536</v>
       </c>
@@ -24418,7 +24429,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="25" t="s">
         <v>681</v>
       </c>
@@ -24432,7 +24443,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="25" t="s">
         <v>537</v>
       </c>
@@ -24446,7 +24457,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="25" t="s">
         <v>538</v>
       </c>
@@ -24460,7 +24471,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="25" t="s">
         <v>539</v>
       </c>
@@ -24474,7 +24485,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="25" t="s">
         <v>353</v>
       </c>
@@ -24485,7 +24496,7 @@
         <v>2.2916666666666669E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="25" t="s">
         <v>540</v>
       </c>
@@ -24499,7 +24510,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="25" t="s">
         <v>541</v>
       </c>
@@ -24513,7 +24524,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="25" t="s">
         <v>542</v>
       </c>
@@ -24527,7 +24538,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="25" t="s">
         <v>543</v>
       </c>
@@ -24541,7 +24552,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="25" t="s">
         <v>544</v>
       </c>
@@ -24555,7 +24566,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="25" t="s">
         <v>545</v>
       </c>
@@ -24569,7 +24580,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="25" t="s">
         <v>546</v>
       </c>
@@ -24583,7 +24594,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="25" t="s">
         <v>682</v>
       </c>
@@ -24597,7 +24608,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="25" t="s">
         <v>683</v>
       </c>
@@ -24611,7 +24622,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="25" t="s">
         <v>547</v>
       </c>
@@ -24625,7 +24636,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="25" t="s">
         <v>548</v>
       </c>
@@ -24639,7 +24650,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="25" t="s">
         <v>549</v>
       </c>
@@ -24653,7 +24664,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="25" t="s">
         <v>550</v>
       </c>
@@ -24667,7 +24678,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="25" t="s">
         <v>551</v>
       </c>
@@ -24678,7 +24689,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="25" t="s">
         <v>552</v>
       </c>
@@ -24689,7 +24700,7 @@
         <v>4.9999999999999996E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="25" t="s">
         <v>553</v>
       </c>
@@ -24703,7 +24714,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="25" t="s">
         <v>554</v>
       </c>
@@ -24714,7 +24725,7 @@
         <v>6.9444444444444434E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="25" t="s">
         <v>555</v>
       </c>
@@ -24728,7 +24739,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="25" t="s">
         <v>556</v>
       </c>
@@ -24739,7 +24750,7 @@
         <v>4.5138888888888888E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="25" t="s">
         <v>557</v>
       </c>
@@ -24753,7 +24764,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="25" t="s">
         <v>558</v>
       </c>
@@ -24767,7 +24778,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="25" t="s">
         <v>559</v>
       </c>
@@ -24781,7 +24792,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="25" t="s">
         <v>560</v>
       </c>
@@ -24795,7 +24806,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="25" t="s">
         <v>561</v>
       </c>
@@ -24809,7 +24820,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="25" t="s">
         <v>562</v>
       </c>
@@ -24823,7 +24834,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="25" t="s">
         <v>563</v>
       </c>
@@ -24837,7 +24848,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="25" t="s">
         <v>564</v>
       </c>
@@ -24851,7 +24862,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="25" t="s">
         <v>565</v>
       </c>
@@ -24865,7 +24876,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="25" t="s">
         <v>566</v>
       </c>
@@ -24879,7 +24890,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="25" t="s">
         <v>567</v>
       </c>
@@ -24893,7 +24904,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="25" t="s">
         <v>568</v>
       </c>
@@ -24907,7 +24918,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="25" t="s">
         <v>569</v>
       </c>
@@ -24921,7 +24932,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="25" t="s">
         <v>570</v>
       </c>
@@ -24935,7 +24946,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="25" t="s">
         <v>571</v>
       </c>
@@ -24946,7 +24957,7 @@
         <v>4.3750000000000004E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="25" t="s">
         <v>572</v>
       </c>
@@ -24960,7 +24971,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="25" t="s">
         <v>573</v>
       </c>
@@ -24974,7 +24985,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="25" t="s">
         <v>574</v>
       </c>
@@ -24988,7 +24999,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66" s="25" t="s">
         <v>575</v>
       </c>
@@ -25002,7 +25013,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A67" s="25" t="s">
         <v>576</v>
       </c>
@@ -25016,7 +25027,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="25" t="s">
         <v>577</v>
       </c>
@@ -25030,7 +25041,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A69" s="25" t="s">
         <v>578</v>
       </c>
@@ -25044,7 +25055,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="25" t="s">
         <v>579</v>
       </c>
@@ -25058,7 +25069,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="25" t="s">
         <v>580</v>
       </c>
@@ -25072,7 +25083,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="25" t="s">
         <v>581</v>
       </c>
@@ -25086,7 +25097,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="25" t="s">
         <v>582</v>
       </c>
@@ -25100,7 +25111,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="25" t="s">
         <v>583</v>
       </c>
@@ -25114,7 +25125,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="25" t="s">
         <v>584</v>
       </c>
@@ -25128,7 +25139,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="25" t="s">
         <v>585</v>
       </c>
@@ -25142,7 +25153,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="25" t="s">
         <v>684</v>
       </c>
@@ -25156,7 +25167,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="25" t="s">
         <v>586</v>
       </c>
@@ -25170,7 +25181,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="25" t="s">
         <v>587</v>
       </c>
@@ -25184,7 +25195,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="25" t="s">
         <v>588</v>
       </c>
@@ -25195,7 +25206,7 @@
         <v>4.7916666666666663E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="25" t="s">
         <v>589</v>
       </c>
@@ -25209,7 +25220,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="25" t="s">
         <v>590</v>
       </c>
@@ -25223,7 +25234,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="25" t="s">
         <v>591</v>
       </c>
@@ -25237,7 +25248,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="25" t="s">
         <v>592</v>
       </c>
@@ -25251,7 +25262,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="25" t="s">
         <v>593</v>
       </c>
@@ -25265,7 +25276,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A86" s="25" t="s">
         <v>594</v>
       </c>
@@ -25279,7 +25290,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="25" t="s">
         <v>595</v>
       </c>
@@ -25293,7 +25304,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="25" t="s">
         <v>596</v>
       </c>
@@ -25307,7 +25318,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="25" t="s">
         <v>597</v>
       </c>
@@ -25321,7 +25332,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="25" t="s">
         <v>598</v>
       </c>
@@ -25335,7 +25346,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="25" t="s">
         <v>599</v>
       </c>
@@ -25346,7 +25357,7 @@
         <v>3.4722222222222224E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="25" t="s">
         <v>600</v>
       </c>
@@ -25357,7 +25368,7 @@
         <v>5.8333333333333327E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="25" t="s">
         <v>601</v>
       </c>
@@ -25368,7 +25379,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="25" t="s">
         <v>602</v>
       </c>
@@ -25382,7 +25393,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="25" t="s">
         <v>603</v>
       </c>
@@ -25396,7 +25407,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="25" t="s">
         <v>604</v>
       </c>
@@ -25410,7 +25421,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="25" t="s">
         <v>605</v>
       </c>
@@ -25424,7 +25435,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="25" t="s">
         <v>606</v>
       </c>
@@ -25438,7 +25449,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="25" t="s">
         <v>607</v>
       </c>
@@ -25452,7 +25463,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="25" t="s">
         <v>685</v>
       </c>
@@ -25466,7 +25477,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="25" t="s">
         <v>608</v>
       </c>
@@ -25480,7 +25491,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="25" t="s">
         <v>609</v>
       </c>
@@ -25491,7 +25502,7 @@
         <v>1.7361111111111112E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="25" t="s">
         <v>686</v>
       </c>
@@ -25505,7 +25516,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="25" t="s">
         <v>610</v>
       </c>
@@ -25519,7 +25530,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="25" t="s">
         <v>687</v>
       </c>
@@ -25533,7 +25544,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="25" t="s">
         <v>611</v>
       </c>
@@ -25544,7 +25555,7 @@
         <v>1.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="25" t="s">
         <v>612</v>
       </c>
@@ -25555,7 +25566,7 @@
         <v>8.3333333333333332E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="25" t="s">
         <v>613</v>
       </c>
@@ -25569,7 +25580,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="25" t="s">
         <v>614</v>
       </c>
@@ -25583,7 +25594,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="25" t="s">
         <v>615</v>
       </c>
@@ -25597,7 +25608,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="25" t="s">
         <v>688</v>
       </c>
@@ -25611,7 +25622,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="25" t="s">
         <v>689</v>
       </c>
@@ -25625,7 +25636,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="25" t="s">
         <v>690</v>
       </c>
@@ -25639,7 +25650,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="25" t="s">
         <v>691</v>
       </c>
@@ -25653,7 +25664,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="25" t="s">
         <v>692</v>
       </c>
@@ -25667,7 +25678,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="25" t="s">
         <v>693</v>
       </c>
@@ -25681,7 +25692,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="25" t="s">
         <v>616</v>
       </c>
@@ -25695,7 +25706,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="25" t="s">
         <v>617</v>
       </c>
@@ -25709,7 +25720,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="25" t="s">
         <v>694</v>
       </c>
@@ -25723,7 +25734,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" s="25" t="s">
         <v>618</v>
       </c>
@@ -25737,7 +25748,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" s="25" t="s">
         <v>619</v>
       </c>
@@ -25751,7 +25762,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="25" t="s">
         <v>620</v>
       </c>
@@ -25762,7 +25773,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="25" t="s">
         <v>621</v>
       </c>
@@ -25773,7 +25784,7 @@
         <v>3.4722222222222224E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="25" t="s">
         <v>622</v>
       </c>
@@ -25784,7 +25795,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="25" t="s">
         <v>623</v>
       </c>
@@ -25798,7 +25809,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A126" s="25" t="s">
         <v>624</v>
       </c>
@@ -25812,7 +25823,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="92" t="s">
         <v>625</v>
       </c>
@@ -25823,7 +25834,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="25" t="s">
         <v>626</v>
       </c>
@@ -25837,7 +25848,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="25" t="s">
         <v>695</v>
       </c>
@@ -25848,7 +25859,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A130" s="25" t="s">
         <v>627</v>
       </c>
@@ -25862,7 +25873,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="25" t="s">
         <v>696</v>
       </c>
@@ -25876,7 +25887,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="25" t="s">
         <v>628</v>
       </c>
@@ -25890,7 +25901,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="25" t="s">
         <v>629</v>
       </c>
@@ -25904,7 +25915,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="25" t="s">
         <v>630</v>
       </c>
@@ -25918,7 +25929,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="25" t="s">
         <v>631</v>
       </c>
@@ -25932,7 +25943,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="25" t="s">
         <v>632</v>
       </c>
@@ -25946,7 +25957,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="25" t="s">
         <v>633</v>
       </c>
@@ -25960,7 +25971,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="25" t="s">
         <v>634</v>
       </c>
@@ -25974,7 +25985,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="25" t="s">
         <v>635</v>
       </c>
@@ -25988,7 +25999,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="25" t="s">
         <v>636</v>
       </c>
@@ -26002,7 +26013,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="92" t="s">
         <v>637</v>
       </c>
@@ -26013,7 +26024,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="25" t="s">
         <v>638</v>
       </c>
@@ -26024,7 +26035,7 @@
         <v>3.4722222222222224E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A143" s="25" t="s">
         <v>639</v>
       </c>
@@ -26038,7 +26049,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="25" t="s">
         <v>640</v>
       </c>
@@ -26052,7 +26063,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="25" t="s">
         <v>641</v>
       </c>
@@ -26063,7 +26074,7 @@
         <v>4.5833333333333337E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="25" t="s">
         <v>642</v>
       </c>
@@ -26077,7 +26088,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="25" t="s">
         <v>643</v>
       </c>
@@ -26091,7 +26102,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="25" t="s">
         <v>644</v>
       </c>
@@ -26105,7 +26116,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="25" t="s">
         <v>645</v>
       </c>
@@ -26116,7 +26127,7 @@
         <v>4.3750000000000004E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="25" t="s">
         <v>697</v>
       </c>
@@ -26127,7 +26138,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="25" t="s">
         <v>698</v>
       </c>
@@ -26138,7 +26149,7 @@
         <v>0.14583333333333334</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="25" t="s">
         <v>699</v>
       </c>
@@ -26149,7 +26160,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="25" t="s">
         <v>646</v>
       </c>
@@ -26160,7 +26171,7 @@
         <v>7.8703703703703706E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="25" t="s">
         <v>647</v>
       </c>
@@ -26171,7 +26182,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="25" t="s">
         <v>700</v>
       </c>
@@ -26182,7 +26193,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="25" t="s">
         <v>701</v>
       </c>
@@ -26193,7 +26204,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="25" t="s">
         <v>702</v>
       </c>
@@ -26204,7 +26215,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="25" t="s">
         <v>648</v>
       </c>
@@ -26218,7 +26229,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="25" t="s">
         <v>649</v>
       </c>
@@ -26229,7 +26240,7 @@
         <v>2.7083333333333334E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="25" t="s">
         <v>650</v>
       </c>
@@ -26243,7 +26254,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="25" t="s">
         <v>651</v>
       </c>
@@ -26257,7 +26268,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="25" t="s">
         <v>652</v>
       </c>
@@ -26271,7 +26282,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="25" t="s">
         <v>653</v>
       </c>
@@ -26285,7 +26296,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="25" t="s">
         <v>654</v>
       </c>
@@ -26299,7 +26310,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="25" t="s">
         <v>655</v>
       </c>
@@ -26310,7 +26321,7 @@
         <v>3.8194444444444441E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="25" t="s">
         <v>656</v>
       </c>
@@ -26321,7 +26332,7 @@
         <v>3.4722222222222224E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="25" t="s">
         <v>657</v>
       </c>
@@ -26335,7 +26346,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="25" t="s">
         <v>658</v>
       </c>
@@ -26349,7 +26360,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="25" t="s">
         <v>659</v>
       </c>
@@ -26363,7 +26374,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="25" t="s">
         <v>660</v>
       </c>
@@ -26374,7 +26385,7 @@
         <v>4.1666666666666666E-3</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="25" t="s">
         <v>661</v>
       </c>
@@ -26388,7 +26399,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="25" t="s">
         <v>662</v>
       </c>
@@ -26402,7 +26413,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="25" t="s">
         <v>663</v>
       </c>
@@ -26416,7 +26427,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A174" s="25" t="s">
         <v>664</v>
       </c>
@@ -26430,7 +26441,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="92" t="s">
         <v>665</v>
       </c>
@@ -26441,7 +26452,7 @@
         <v>4.3750000000000004E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="25" t="s">
         <v>666</v>
       </c>
@@ -26455,7 +26466,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="92" t="s">
         <v>667</v>
       </c>
@@ -26469,7 +26480,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="25" t="s">
         <v>668</v>
       </c>
@@ -26480,7 +26491,7 @@
         <v>3.4722222222222224E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="92" t="s">
         <v>669</v>
       </c>
@@ -26491,7 +26502,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="25" t="s">
         <v>670</v>
       </c>
@@ -26502,7 +26513,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="25" t="s">
         <v>671</v>
       </c>
@@ -26513,7 +26524,7 @@
         <v>8.3333333333333332E-3</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="25" t="s">
         <v>672</v>
       </c>
@@ -26524,7 +26535,7 @@
         <v>4.8611111111111112E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="25" t="s">
         <v>673</v>
       </c>
@@ -26535,7 +26546,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="25" t="s">
         <v>674</v>
       </c>
@@ -26546,7 +26557,7 @@
         <v>5.6250000000000001E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="25" t="s">
         <v>675</v>
       </c>
@@ -26557,7 +26568,7 @@
         <v>6.0416666666666667E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="25" t="s">
         <v>676</v>
       </c>
@@ -26568,7 +26579,7 @@
         <v>3.5416666666666666E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="70" t="s">
         <v>677</v>
       </c>
@@ -26582,7 +26593,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="25" t="s">
         <v>678</v>
       </c>
@@ -26593,7 +26604,7 @@
         <v>2.7083333333333334E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="25" t="s">
         <v>679</v>
       </c>
@@ -26604,7 +26615,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="25" t="s">
         <v>680</v>
       </c>
@@ -26615,27 +26626,27 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" s="24" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" s="24" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" s="24" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" s="24" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" s="27" t="s">
         <v>782</v>
       </c>
@@ -26655,16 +26666,16 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31" style="4" customWidth="1"/>
-    <col min="2" max="2" width="2.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1796875" style="4"/>
-    <col min="4" max="4" width="41.453125" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="4"/>
+    <col min="2" max="2" width="2.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" style="4"/>
+    <col min="4" max="4" width="41.44140625" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9.21875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>503</v>
       </c>
@@ -26672,7 +26683,7 @@
       <c r="C1" s="66"/>
       <c r="D1" s="66"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>504</v>
       </c>
@@ -26686,7 +26697,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>505</v>
       </c>
@@ -26697,7 +26708,7 @@
         <v>1.3194444444444444E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>506</v>
       </c>
@@ -26708,7 +26719,7 @@
         <v>5.8333333333333327E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>507</v>
       </c>
@@ -26719,7 +26730,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>508</v>
       </c>
@@ -26730,7 +26741,7 @@
         <v>2.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>509</v>
       </c>
@@ -26741,7 +26752,7 @@
         <v>5.8333333333333327E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>510</v>
       </c>
@@ -26755,7 +26766,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>511</v>
       </c>
@@ -26769,7 +26780,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>512</v>
       </c>
@@ -26783,7 +26794,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>513</v>
       </c>
@@ -26797,27 +26808,27 @@
         <v>781</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>1142</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>1143</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>1240</v>
       </c>
@@ -26832,33 +26843,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF869DB7-0784-4194-AB30-92BE5EB54BFF}">
   <dimension ref="A1:AE10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.1796875" style="2" customWidth="1"/>
-    <col min="4" max="5" width="9.1796875" style="2"/>
-    <col min="6" max="6" width="3.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="4.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="2.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="3.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="4.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="4.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.21875" style="2" customWidth="1"/>
+    <col min="4" max="5" width="9.21875" style="2"/>
+    <col min="6" max="6" width="3.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="2.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="3.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="4.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="4" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="3.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="2.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="29" width="2.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="3.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="1.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.1796875" style="2"/>
+    <col min="24" max="24" width="3.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="2.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="29" width="2.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="3.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="1.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.21875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C1" s="8" t="s">
         <v>391</v>
       </c>
@@ -26944,7 +26955,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>452</v>
       </c>
@@ -26962,7 +26973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>251</v>
       </c>
@@ -26983,7 +26994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>252</v>
       </c>
@@ -27001,7 +27012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>253</v>
       </c>
@@ -27022,7 +27033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>254</v>
       </c>
@@ -27040,7 +27051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>453</v>
       </c>
@@ -27058,7 +27069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>1236</v>
       </c>
@@ -27076,35 +27087,35 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.54296875" customWidth="1"/>
-    <col min="2" max="2" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.08984375" customWidth="1"/>
-    <col min="4" max="4" width="5.36328125" customWidth="1"/>
-    <col min="5" max="5" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="5.33203125" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.54296875" hidden="1" customWidth="1"/>
-    <col min="19" max="20" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.453125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.5546875" hidden="1" customWidth="1"/>
+    <col min="19" max="20" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.44140625" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="6" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="5.1796875" hidden="1" customWidth="1"/>
-    <col min="24" max="27" width="5.36328125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.1796875" customWidth="1"/>
+    <col min="23" max="23" width="5.21875" hidden="1" customWidth="1"/>
+    <col min="24" max="27" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>7</v>
       </c>
@@ -27130,7 +27141,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="73" t="s">
         <v>727</v>
       </c>
@@ -27157,7 +27168,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="73" t="s">
         <v>1094</v>
       </c>
@@ -27189,7 +27200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>728</v>
       </c>
@@ -27213,7 +27224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>729</v>
       </c>
@@ -27237,7 +27248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="74" t="s">
         <v>730</v>
       </c>
@@ -27264,7 +27275,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="73" t="s">
         <v>1093</v>
       </c>
@@ -27296,7 +27307,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>731</v>
       </c>
@@ -27320,7 +27331,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>732</v>
       </c>
@@ -27344,7 +27355,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>733</v>
       </c>
@@ -27368,7 +27379,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="73" t="s">
         <v>1092</v>
       </c>
@@ -27400,7 +27411,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>734</v>
       </c>
@@ -27424,7 +27435,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>735</v>
       </c>
@@ -27448,7 +27459,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>736</v>
       </c>
@@ -27472,7 +27483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>737</v>
       </c>
@@ -27496,7 +27507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="73" t="s">
         <v>1091</v>
       </c>
@@ -27528,7 +27539,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>738</v>
       </c>
@@ -27552,7 +27563,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>739</v>
       </c>
@@ -27576,7 +27587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>740</v>
       </c>
@@ -27600,7 +27611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="74" t="s">
         <v>741</v>
       </c>
@@ -27627,7 +27638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="73" t="s">
         <v>1090</v>
       </c>
@@ -27659,7 +27670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>742</v>
       </c>
@@ -27683,7 +27694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>743</v>
       </c>
@@ -27707,7 +27718,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="73" t="s">
         <v>744</v>
       </c>
@@ -27734,7 +27745,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="73" t="s">
         <v>745</v>
       </c>
@@ -27761,7 +27772,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="73" t="s">
         <v>746</v>
       </c>
@@ -27788,7 +27799,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="73" t="s">
         <v>1089</v>
       </c>
@@ -27820,7 +27831,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>747</v>
       </c>
@@ -27844,7 +27855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>748</v>
       </c>
@@ -27868,7 +27879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>749</v>
       </c>
@@ -27892,7 +27903,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>750</v>
       </c>
@@ -27916,7 +27927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="72" t="s">
         <v>751</v>
       </c>
@@ -27943,7 +27954,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="18"/>
     </row>
   </sheetData>
